--- a/mdott.xlsx
+++ b/mdott.xlsx
@@ -450,4799 +450,4799 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01781220028906532</v>
+        <v>0.01781220700464644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.166666560679958</v>
+        <v>1.166666425659303</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01742871718620194</v>
+        <v>0.01742872366888823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.333333121359916</v>
+        <v>2.333332851318607</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01705349018240511</v>
+        <v>0.01705349643911214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.499999682039873</v>
+        <v>3.49999927697791</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01668634153015166</v>
+        <v>0.01668634756760488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.666666242719831</v>
+        <v>4.666665702637213</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01632709730868675</v>
+        <v>0.01632710313342691</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.833332803399789</v>
+        <v>5.833332128296517</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01597558734163725</v>
+        <v>0.01597559296002496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.999999364079747</v>
+        <v>6.99999855395582</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01563164511639763</v>
+        <v>0.0156316505346183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.166665924759705</v>
+        <v>8.166664979615124</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01529510770525159</v>
+        <v>0.01529511292931991</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.333332485439662</v>
+        <v>9.333331405274427</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01496581568819277</v>
+        <v>0.01496582072395744</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.49999904611962</v>
+        <v>10.49999783093373</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01464361307740633</v>
+        <v>0.01464361793055377</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.66666560679958</v>
+        <v>11.66666425659303</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01432834724337558</v>
+        <v>0.01432835191943497</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.83333216747954</v>
+        <v>12.83333068225234</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01401986884258153</v>
+        <v>0.01401987334692857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.99999872815949</v>
+        <v>13.99999710791164</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01371803174675733</v>
+        <v>0.01371803608461829</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.16666528883945</v>
+        <v>15.16666353357094</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01342269297366615</v>
+        <v>0.01342269715012206</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16.33333184951941</v>
+        <v>16.33332995923025</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01313371261937013</v>
+        <v>0.01313371663935993</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17.49999841019937</v>
+        <v>17.49999638488955</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01285095379195657</v>
+        <v>0.01285095766028174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18.66666497087932</v>
+        <v>18.66666281054885</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01257428254669108</v>
+        <v>0.01257428626801877</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19.83333153155928</v>
+        <v>19.83332923620816</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01230356782256769</v>
+        <v>0.01230357140143424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.99999809223924</v>
+        <v>20.99999566186746</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0120386813802236</v>
+        <v>0.01203868482103855</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22.1666646529192</v>
+        <v>22.16666208752676</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01177949774119237</v>
+        <v>0.01177950104824132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23.33333121359916</v>
+        <v>23.33332851318607</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01152589412846312</v>
+        <v>0.01152589730591062</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24.49999777427911</v>
+        <v>24.49999493884537</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01127775040832026</v>
+        <v>0.01127775346021396</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25.66666433495907</v>
+        <v>25.66666136450467</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01103494903343586</v>
+        <v>0.01103495196370917</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26.83333089563903</v>
+        <v>26.83332779016398</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01079737498718625</v>
+        <v>0.01079737779966142</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27.99999745631899</v>
+        <v>27.99999421582328</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01056491572916818</v>
+        <v>0.01056491842755917</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29.16666401699894</v>
+        <v>29.16666064148258</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01033746114188739</v>
+        <v>0.01033746372980311</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30.3333305776789</v>
+        <v>30.33332706714189</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01011490347859556</v>
+        <v>0.01011490595954189</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31.49999713835886</v>
+        <v>31.49999349280119</v>
       </c>
       <c r="B29" t="n">
-        <v>0.009897137312249499</v>
+        <v>0.009897139689633195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32.66666369903882</v>
+        <v>32.6666599184605</v>
       </c>
       <c r="B30" t="n">
-        <v>0.009684059485570475</v>
+        <v>0.009684061762700483</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33.83333025971878</v>
+        <v>33.8333263441198</v>
       </c>
       <c r="B31" t="n">
-        <v>0.009475569062176625</v>
+        <v>0.009475571242267994</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>34.99999682039874</v>
+        <v>34.9999927697791</v>
       </c>
       <c r="B32" t="n">
-        <v>0.009271567278770359</v>
+        <v>0.009271569364945987</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36.16666338107869</v>
+        <v>36.16665919543841</v>
       </c>
       <c r="B33" t="n">
-        <v>0.009071957498351988</v>
+        <v>0.009071959493645011</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37.33332994175865</v>
+        <v>37.33332562109771</v>
       </c>
       <c r="B34" t="n">
-        <v>0.008876645164442913</v>
+        <v>0.008876647071799722</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>38.49999650243861</v>
+        <v>38.49999204675701</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008685537756293733</v>
+        <v>0.008685539578575928</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>39.66666306311856</v>
+        <v>39.66665847241632</v>
       </c>
       <c r="B36" t="n">
-        <v>0.008498544745055866</v>
+        <v>0.008498546485042847</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>40.83332962379852</v>
+        <v>40.83332489807562</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00831557755089872</v>
+        <v>0.008315579211288974</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>41.99999618447848</v>
+        <v>41.99999132373492</v>
       </c>
       <c r="B38" t="n">
-        <v>0.008136549501046886</v>
+        <v>0.008136551084461425</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.16666274515844</v>
+        <v>43.16665774939423</v>
       </c>
       <c r="B39" t="n">
-        <v>0.007961375788724766</v>
+        <v>0.007961377297708194</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44.3333293058384</v>
+        <v>44.33332417505353</v>
       </c>
       <c r="B40" t="n">
-        <v>0.007789973432981206</v>
+        <v>0.00778997487000472</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45.49999586651835</v>
+        <v>45.49999060071283</v>
       </c>
       <c r="B41" t="n">
-        <v>0.007622261239382145</v>
+        <v>0.00762226260684481</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>46.66666242719831</v>
+        <v>46.66665702637214</v>
       </c>
       <c r="B42" t="n">
-        <v>0.007458159761547959</v>
+        <v>0.007458161061778836</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>47.83332898787827</v>
+        <v>47.83332345203144</v>
       </c>
       <c r="B43" t="n">
-        <v>0.007297591263518767</v>
+        <v>0.007297592498778825</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>48.99999554855822</v>
+        <v>48.99998987769074</v>
       </c>
       <c r="B44" t="n">
-        <v>0.007140479682931031</v>
+        <v>0.007140480855415054</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50.16666210923818</v>
+        <v>50.16665630335005</v>
       </c>
       <c r="B45" t="n">
-        <v>0.006986750594985306</v>
+        <v>0.006986751706824008</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>51.33332866991815</v>
+        <v>51.33332272900935</v>
       </c>
       <c r="B46" t="n">
-        <v>0.006836331177192073</v>
+        <v>0.006836332230453357</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52.4999952305981</v>
+        <v>52.49998915466865</v>
       </c>
       <c r="B47" t="n">
-        <v>0.006689150174874054</v>
+        <v>0.006689151171564689</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53.66666179127806</v>
+        <v>53.66665558032796</v>
       </c>
       <c r="B48" t="n">
-        <v>0.006545137867413417</v>
+        <v>0.006545138809481143</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>54.83332835195802</v>
+        <v>54.83332200598726</v>
       </c>
       <c r="B49" t="n">
-        <v>0.00640422603522355</v>
+        <v>0.006404226924558323</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>55.99999491263797</v>
+        <v>55.99998843164656</v>
       </c>
       <c r="B50" t="n">
-        <v>0.006266347927434053</v>
+        <v>0.006266348765869716</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>57.16666147331793</v>
+        <v>57.16665485730586</v>
       </c>
       <c r="B51" t="n">
-        <v>0.006131438230269244</v>
+        <v>0.006131439019585403</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>58.33332803399789</v>
+        <v>58.33332128296517</v>
       </c>
       <c r="B52" t="n">
-        <v>0.005999433036110115</v>
+        <v>0.005999433778033159</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>59.49999459467784</v>
+        <v>59.49998770862447</v>
       </c>
       <c r="B53" t="n">
-        <v>0.005870269813219621</v>
+        <v>0.005870270509424166</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>60.6666611553578</v>
+        <v>60.66665413428377</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005743887376121014</v>
+        <v>0.005743888028231774</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>61.83332771603776</v>
+        <v>61.83332055994308</v>
       </c>
       <c r="B55" t="n">
-        <v>0.005620225856614882</v>
+        <v>0.005620226466207887</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>62.99999427671772</v>
+        <v>62.99998698560238</v>
       </c>
       <c r="B56" t="n">
-        <v>0.005499226675418402</v>
+        <v>0.00549922724402201</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>64.16666083739767</v>
+        <v>64.16665341126168</v>
       </c>
       <c r="B57" t="n">
-        <v>0.005380832514415467</v>
+        <v>0.005380833043512217</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>65.33332739807764</v>
+        <v>65.33331983692099</v>
       </c>
       <c r="B58" t="n">
-        <v>0.005264987289506114</v>
+        <v>0.005264987780533514</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66.4999939587576</v>
+        <v>66.49998626258029</v>
       </c>
       <c r="B59" t="n">
-        <v>0.005151636124038132</v>
+        <v>0.005151636578390083</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67.66666051943756</v>
+        <v>67.66665268823959</v>
       </c>
       <c r="B60" t="n">
-        <v>0.005040725322811422</v>
+        <v>0.005040725741839641</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68.83332708011751</v>
+        <v>68.8333191138989</v>
       </c>
       <c r="B61" t="n">
-        <v>0.004932202346643134</v>
+        <v>0.004932202731657928</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69.99999364079747</v>
+        <v>69.9999855395582</v>
       </c>
       <c r="B62" t="n">
-        <v>0.004826015787478994</v>
+        <v>0.004826016139750674</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>71.16666020147743</v>
+        <v>71.1666519652175</v>
       </c>
       <c r="B63" t="n">
-        <v>0.004722115344040357</v>
+        <v>0.004722115664800443</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>72.33332676215738</v>
+        <v>72.33331839087681</v>
       </c>
       <c r="B64" t="n">
-        <v>0.004620451797997551</v>
+        <v>0.004620452088439532</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>73.49999332283734</v>
+        <v>73.49998481653611</v>
       </c>
       <c r="B65" t="n">
-        <v>0.004520976990653668</v>
+        <v>0.004520977251934201</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>74.6666598835173</v>
+        <v>74.66665124219541</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004423643800131737</v>
+        <v>0.004423644033372047</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>75.83332644419725</v>
+        <v>75.83331766785471</v>
       </c>
       <c r="B67" t="n">
-        <v>0.004328406119053078</v>
+        <v>0.00432840632533951</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>76.99999300487721</v>
+        <v>76.99998409351402</v>
       </c>
       <c r="B68" t="n">
-        <v>0.004235218832695919</v>
+        <v>0.004235219013080902</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>78.16665956555717</v>
+        <v>78.16665051917333</v>
       </c>
       <c r="B69" t="n">
-        <v>0.004144037797623982</v>
+        <v>0.004144037953126788</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>79.33332612623713</v>
+        <v>79.33331694483263</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004054819820775213</v>
+        <v>0.004054819952383994</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>80.49999268691708</v>
+        <v>80.49998337049193</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003967522639001431</v>
+        <v>0.003967522747672897</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>81.66665924759704</v>
+        <v>81.66664979615123</v>
       </c>
       <c r="B72" t="n">
-        <v>0.003882104899048413</v>
+        <v>0.003882104985709009</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>82.833325808277</v>
+        <v>82.83331622181053</v>
       </c>
       <c r="B73" t="n">
-        <v>0.003798526137965062</v>
+        <v>0.003798526203512354</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>83.99999236895695</v>
+        <v>83.99998264746984</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003716746763937378</v>
+        <v>0.003716746809240371</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>85.16665892963692</v>
+        <v>85.16664907312915</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003636728037532893</v>
+        <v>0.003636728063432983</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>86.33332549031688</v>
+        <v>86.33331549878845</v>
       </c>
       <c r="B76" t="n">
-        <v>0.003558432053349558</v>
+        <v>0.003558432060660843</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>87.49999205099684</v>
+        <v>87.49998192444775</v>
       </c>
       <c r="B77" t="n">
-        <v>0.003481821722059676</v>
+        <v>0.003481821711570767</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>88.66665861167679</v>
+        <v>88.66664835010705</v>
       </c>
       <c r="B78" t="n">
-        <v>0.00340686075284053</v>
+        <v>0.003406860725314638</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>89.83332517235675</v>
+        <v>89.83331477576635</v>
       </c>
       <c r="B79" t="n">
-        <v>0.003333513636183344</v>
+        <v>0.003333513592358802</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>90.99999173303671</v>
+        <v>90.99998120142565</v>
       </c>
       <c r="B80" t="n">
-        <v>0.003261745627071809</v>
+        <v>0.003261745567663232</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>92.16665829371667</v>
+        <v>92.16664762708497</v>
       </c>
       <c r="B81" t="n">
-        <v>0.003191522728523534</v>
+        <v>0.003191522654222115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>93.33332485439662</v>
+        <v>93.33331405274427</v>
       </c>
       <c r="B82" t="n">
-        <v>0.00312281167548521</v>
+        <v>0.003122811586959667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>94.49999141507658</v>
+        <v>94.49998047840357</v>
       </c>
       <c r="B83" t="n">
-        <v>0.003055579919074431</v>
+        <v>0.003055579816971729</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>95.66665797575654</v>
+        <v>95.66664690406287</v>
       </c>
       <c r="B84" t="n">
-        <v>0.002989795611161956</v>
+        <v>0.002989795496108029</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>96.83332453643649</v>
+        <v>96.83331332972217</v>
       </c>
       <c r="B85" t="n">
-        <v>0.002925427589284339</v>
+        <v>0.002925427461883745</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>97.99999109711645</v>
+        <v>97.99997975538147</v>
       </c>
       <c r="B86" t="n">
-        <v>0.002862445361882032</v>
+        <v>0.002862445222719954</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>99.16665765779641</v>
+        <v>99.16664618104079</v>
       </c>
       <c r="B87" t="n">
-        <v>0.002800819093855859</v>
+        <v>0.002800818943497757</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>100.3333242184764</v>
+        <v>100.3333126067001</v>
       </c>
       <c r="B88" t="n">
-        <v>0.002740519592433111</v>
+        <v>0.002740519431425647</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>101.4999907791563</v>
+        <v>101.4999790323594</v>
       </c>
       <c r="B89" t="n">
-        <v>0.002681518293339815</v>
+        <v>0.002681518122211145</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>102.6666573398363</v>
+        <v>102.6666454580187</v>
       </c>
       <c r="B90" t="n">
-        <v>0.002623787247268919</v>
+        <v>0.002623787066529404</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>103.8333239005162</v>
+        <v>103.833311883678</v>
       </c>
       <c r="B91" t="n">
-        <v>0.002567299106640092</v>
+        <v>0.002567298916783012</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>104.9999904611962</v>
+        <v>104.9999783093373</v>
       </c>
       <c r="B92" t="n">
-        <v>0.002512027112646233</v>
+        <v>0.002512026914147852</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>106.1666570218762</v>
+        <v>106.1666447349966</v>
       </c>
       <c r="B93" t="n">
-        <v>0.002457945082577032</v>
+        <v>0.002457944875897523</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>107.3333235825561</v>
+        <v>107.3333111606559</v>
       </c>
       <c r="B94" t="n">
-        <v>0.002405027397415323</v>
+        <v>0.002405027182998833</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>108.4999901432361</v>
+        <v>108.4999775863152</v>
       </c>
       <c r="B95" t="n">
-        <v>0.002353248989702362</v>
+        <v>0.002353248767977934</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>109.666656703916</v>
+        <v>109.6666440119745</v>
       </c>
       <c r="B96" t="n">
-        <v>0.002302585331662394</v>
+        <v>0.00230258510304424</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>110.833323264596</v>
+        <v>110.8333104376338</v>
       </c>
       <c r="B97" t="n">
-        <v>0.00225301242358459</v>
+        <v>0.00225301218847194</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111.9999898252759</v>
+        <v>111.9999768632931</v>
       </c>
       <c r="B98" t="n">
-        <v>0.00220450678245314</v>
+        <v>0.002204506541231801</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>113.1666563859559</v>
+        <v>113.1666432889524</v>
       </c>
       <c r="B99" t="n">
-        <v>0.002157045430823364</v>
+        <v>0.002157045183865352</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>114.3333229466359</v>
+        <v>114.3333097146117</v>
       </c>
       <c r="B100" t="n">
-        <v>0.002110605885938064</v>
+        <v>0.002110605633602083</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>115.4999895073158</v>
+        <v>115.499976140271</v>
       </c>
       <c r="B101" t="n">
-        <v>0.002065166149076393</v>
+        <v>0.002065165891708756</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>116.6666560679958</v>
+        <v>116.6666425659303</v>
       </c>
       <c r="B102" t="n">
-        <v>0.002020704695133339</v>
+        <v>0.002020704433067374</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>117.8333226286757</v>
+        <v>117.8333089915896</v>
       </c>
       <c r="B103" t="n">
-        <v>0.00197720046242295</v>
+        <v>0.00197720019598034</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>118.9999891893557</v>
+        <v>118.9999754172489</v>
       </c>
       <c r="B104" t="n">
-        <v>0.00193463284270124</v>
+        <v>0.001934632572191864</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120.1666557500356</v>
+        <v>120.1666418429082</v>
       </c>
       <c r="B105" t="n">
-        <v>0.001892981671403858</v>
+        <v>0.00189298139712648</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>121.3333223107156</v>
+        <v>121.3333082685675</v>
       </c>
       <c r="B106" t="n">
-        <v>0.001852227218094867</v>
+        <v>0.001852226940336978</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>122.4999888713956</v>
+        <v>122.4999746942269</v>
       </c>
       <c r="B107" t="n">
-        <v>0.001812350177118725</v>
+        <v>0.001812349896157227</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>123.6666554320755</v>
+        <v>123.6666411198862</v>
       </c>
       <c r="B108" t="n">
-        <v>0.001773331658456306</v>
+        <v>0.001773331374558211</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>124.8333219927555</v>
+        <v>124.8333075455455</v>
       </c>
       <c r="B109" t="n">
-        <v>0.001735153178776423</v>
+        <v>0.001735152892198037</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>125.9999885534354</v>
+        <v>125.9999739712048</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001697796652679611</v>
+        <v>0.001697796363668081</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>127.1666551141154</v>
+        <v>127.1666403968641</v>
       </c>
       <c r="B111" t="n">
-        <v>0.001661244384131193</v>
+        <v>0.00166124409292434</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>128.3333216747953</v>
+        <v>128.3333068225234</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001625479058079347</v>
+        <v>0.001625478764905493</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>129.4999882354753</v>
+        <v>129.4999732481827</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001590483732251304</v>
+        <v>0.001590483437329958</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130.6666547961553</v>
+        <v>130.666639673842</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001556241829128557</v>
+        <v>0.0015562415326711</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>131.8333213568352</v>
+        <v>131.8333060995013</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001522737128094852</v>
+        <v>0.001522736830303937</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>132.9999879175152</v>
+        <v>132.9999725251606</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001489953757750338</v>
+        <v>0.001489953458820998</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>134.1666544781951</v>
+        <v>134.1666389508199</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001457876188394861</v>
+        <v>0.001457875888513913</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>135.3333210388751</v>
+        <v>135.3333053764792</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001426489224670998</v>
+        <v>0.001426488924018142</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>136.4999875995551</v>
+        <v>136.4999718021385</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001395777998365307</v>
+        <v>0.001395777697112745</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>137.666654160235</v>
+        <v>137.6666382277978</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001365727961366321</v>
+        <v>0.001365727659679003</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>138.833320720915</v>
+        <v>138.8333046534571</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001336324878771562</v>
+        <v>0.001336324576808079</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>139.9999872815949</v>
+        <v>139.9999710791164</v>
       </c>
       <c r="B122" t="n">
-        <v>0.001307554822145928</v>
+        <v>0.001307554520057908</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>141.1666538422749</v>
+        <v>141.1666375047757</v>
       </c>
       <c r="B123" t="n">
-        <v>0.001279404162922263</v>
+        <v>0.00127940386085526</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>142.3333204029549</v>
+        <v>142.333303930435</v>
       </c>
       <c r="B124" t="n">
-        <v>0.001251859565946445</v>
+        <v>0.00125185926403933</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>143.4999869636348</v>
+        <v>143.4999703560943</v>
       </c>
       <c r="B125" t="n">
-        <v>0.001224907983160153</v>
+        <v>0.001224907681546007</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>144.6666535243148</v>
+        <v>144.6666367817536</v>
       </c>
       <c r="B126" t="n">
-        <v>0.001198536647419386</v>
+        <v>0.00119853634622574</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>145.8333200849947</v>
+        <v>145.8333032074129</v>
       </c>
       <c r="B127" t="n">
-        <v>0.001172733066447437</v>
+        <v>0.001172732765795884</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>146.9999866456747</v>
+        <v>146.9999696330722</v>
       </c>
       <c r="B128" t="n">
-        <v>0.001147485016916559</v>
+        <v>0.001147484716923421</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>148.1666532063546</v>
+        <v>148.1666360587315</v>
       </c>
       <c r="B129" t="n">
-        <v>0.001122780538658096</v>
+        <v>0.001122780239434242</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>149.3333197670346</v>
+        <v>149.3333024843908</v>
       </c>
       <c r="B130" t="n">
-        <v>0.001098607928996582</v>
+        <v>0.001098607630648103</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>150.4999863277146</v>
+        <v>150.4999689100501</v>
       </c>
       <c r="B131" t="n">
-        <v>0.001074955737206537</v>
+        <v>0.00107495543983413</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>151.6666528883945</v>
+        <v>151.6666353357094</v>
       </c>
       <c r="B132" t="n">
-        <v>0.001051812759087234</v>
+        <v>0.001051812462787515</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>152.8333194490745</v>
+        <v>152.8333017613687</v>
       </c>
       <c r="B133" t="n">
-        <v>0.001029168031656509</v>
+        <v>0.001029167736521186</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>153.9999860097544</v>
+        <v>153.999968187028</v>
       </c>
       <c r="B134" t="n">
-        <v>0.001007010827956781</v>
+        <v>0.00100701053407268</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>155.1666525704344</v>
+        <v>155.1666346126873</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0009853306519730369</v>
+        <v>0.000985330359423415</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>156.3333191311143</v>
+        <v>156.3333010383467</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0009641172336623848</v>
+        <v>0.0009641169425256696</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>157.4999856917943</v>
+        <v>157.4999674640059</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0009433605240876571</v>
+        <v>0.0009433602344387581</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>158.6666522524743</v>
+        <v>158.6666338896653</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0009230506906574332</v>
+        <v>0.0009230504025673384</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>159.8333188131542</v>
+        <v>159.8333003153245</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0009031781124690493</v>
+        <v>0.000903177826004636</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>160.9999853738342</v>
+        <v>160.9999667409839</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0008837333757498882</v>
+        <v>0.0008837330909750171</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>162.1666519345141</v>
+        <v>162.1666331666432</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0008647072693993016</v>
+        <v>0.0008647069863739837</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>163.3333184951941</v>
+        <v>163.3332995923025</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0008460907806245295</v>
+        <v>0.0008460904994049493</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>164.499985055874</v>
+        <v>164.4999660179618</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0008278750906708293</v>
+        <v>0.0008278748113108662</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>165.666651616554</v>
+        <v>165.6666324436211</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0008100515706451736</v>
+        <v>0.0008100512931949246</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>166.833318177234</v>
+        <v>166.8332988692804</v>
       </c>
       <c r="B145" t="n">
-        <v>0.00079261177742752</v>
+        <v>0.0007926115019346064</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>167.9999847379139</v>
+        <v>167.9999652949397</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0007755474496724384</v>
+        <v>0.0007755471761807419</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>169.1666512985939</v>
+        <v>169.166631720599</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0007588505038942416</v>
+        <v>0.0007588502324452093</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>170.3333178592738</v>
+        <v>170.3332981462583</v>
       </c>
       <c r="B148" t="n">
-        <v>0.000742513030638619</v>
+        <v>0.0007425127612714981</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>171.4999844199538</v>
+        <v>171.4999645719176</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0007265272907364898</v>
+        <v>0.0007265270234872767</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>172.6666509806338</v>
+        <v>172.6666309975769</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0007108857116366511</v>
+        <v>0.0007108854465387527</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>173.8333175413137</v>
+        <v>173.8332974232362</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0006955808838187173</v>
+        <v>0.0006955806209038268</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>174.9999841019937</v>
+        <v>174.9999638488955</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006806055572846421</v>
+        <v>0.0006806052965814721</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>176.1666506626736</v>
+        <v>176.1666302745548</v>
       </c>
       <c r="B153" t="n">
-        <v>0.000665952638122608</v>
+        <v>0.0006659523796575516</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>177.3333172233536</v>
+        <v>177.3332967002141</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006516151851475715</v>
+        <v>0.0006516149289453619</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>178.4999837840335</v>
+        <v>178.4999631258734</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006375864066126787</v>
+        <v>0.0006375861526955503</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>179.6666503447135</v>
+        <v>179.6666295515327</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0006238596569926241</v>
+        <v>0.0006238594053809715</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>180.8333169053934</v>
+        <v>180.833295977192</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0006104284338348828</v>
+        <v>0.0006104281845470633</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>181.9999834660734</v>
+        <v>181.9999624028513</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0005972863746796745</v>
+        <v>0.0005972861277322387</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>183.1666500267534</v>
+        <v>183.1666288285106</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0005844272540463022</v>
+        <v>0.0005844270094542235</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>184.3333165874333</v>
+        <v>184.3332952541699</v>
       </c>
       <c r="B160" t="n">
-        <v>0.000571844980484368</v>
+        <v>0.0005718447382604163</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>185.4999831481133</v>
+        <v>185.4999616798292</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0005595335936868678</v>
+        <v>0.0005595333538426948</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>186.6666497087932</v>
+        <v>186.6666281054885</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0005474872616681625</v>
+        <v>0.0005474870242134604</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>187.8333162694732</v>
+        <v>187.8332945311478</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0005357002780010456</v>
+        <v>0.0005357000429442036</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>188.9999828301532</v>
+        <v>188.9999609568071</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0005241670591129052</v>
+        <v>0.0005241668264605958</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>190.1666493908331</v>
+        <v>190.1666273824665</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0005128821416416244</v>
+        <v>0.0005128819113992458</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>191.3333159515131</v>
+        <v>191.3332938081257</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0005018401798462962</v>
+        <v>0.0005018399520179851</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>192.499982512193</v>
+        <v>192.4999602337851</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0004910359430768174</v>
+        <v>0.0004910357176654631</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>193.666649072873</v>
+        <v>193.6666266594443</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0004804643132942302</v>
+        <v>0.0004804640903012732</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>194.833315633553</v>
+        <v>194.8332930851037</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0004701202826475882</v>
+        <v>0.0004701200620730329</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>195.9999821942329</v>
+        <v>195.9999595107629</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0004599989511004978</v>
+        <v>0.0004599987329439956</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>197.1666487549129</v>
+        <v>197.1666259364223</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0004500955241109739</v>
+        <v>0.000450095308370765</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>198.3333153155928</v>
+        <v>198.3332923620816</v>
       </c>
       <c r="B172" t="n">
-        <v>0.000440405310360328</v>
+        <v>0.0004404050970330389</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>199.4999818762728</v>
+        <v>199.4999587877409</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0004309237195298033</v>
+        <v>0.0004309235086117435</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>200.6666484369527</v>
+        <v>200.6666252134002</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0004216462601266708</v>
+        <v>0.0004216460516129877</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>201.8333149976327</v>
+        <v>201.8332916390595</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0004125685373567881</v>
+        <v>0.0004125683312416921</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>202.9999815583126</v>
+        <v>202.9999580647188</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0004036862510427644</v>
+        <v>0.0004036860473197541</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>204.1666481189926</v>
+        <v>204.1666244903781</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003949951935866612</v>
+        <v>0.0003949949922481061</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>205.3333146796726</v>
+        <v>205.3332909160374</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003864912479765872</v>
+        <v>0.0003864910490143803</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>206.4999812403525</v>
+        <v>206.4999573416967</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003781703858373998</v>
+        <v>0.0003781701892423254</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>207.6666478010325</v>
+        <v>207.666623767356</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0003700286655210185</v>
+        <v>0.0003700284712836187</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>208.8333143617124</v>
+        <v>208.8332901930153</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0003620622302406312</v>
+        <v>0.0003620620383503598</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>209.9999809223924</v>
+        <v>209.9999566186746</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0003542673062432276</v>
+        <v>0.0003542671166888872</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>211.1666474830724</v>
+        <v>211.1666230443339</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0003466402010211009</v>
+        <v>0.0003466400137914953</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>212.3333140437523</v>
+        <v>212.3332894699932</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0003391773015640316</v>
+        <v>0.0003391771166466898</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>213.4999806044323</v>
+        <v>213.4999558956525</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0003318750726472284</v>
+        <v>0.0003318748900292702</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>214.6666471651122</v>
+        <v>214.6666223213118</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0003247300551560962</v>
+        <v>0.0003247298748242413</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>215.8333137257922</v>
+        <v>215.8332887469711</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0003177388644482608</v>
+        <v>0.0003177386863890511</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>216.9999802864722</v>
+        <v>216.9999551726304</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0003108981887507084</v>
+        <v>0.0003108980129494461</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>218.1666468471521</v>
+        <v>218.1666215982897</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0003042047875894693</v>
+        <v>0.000304204614031724</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>219.3333134078321</v>
+        <v>219.333288023949</v>
       </c>
       <c r="B190" t="n">
-        <v>0.000297655490256345</v>
+        <v>0.000297655318926891</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>220.499979968512</v>
+        <v>220.4999544496083</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0002912471943056102</v>
+        <v>0.0002912470251888629</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>221.666646529192</v>
+        <v>221.6666208752676</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0002849768640847596</v>
+        <v>0.0002849766971649972</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>222.8333130898719</v>
+        <v>222.8332873009269</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0002788415292967292</v>
+        <v>0.0002788413645578858</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>223.9999796505519</v>
+        <v>223.9999537265862</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0002728382835929499</v>
+        <v>0.0002728381210181954</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>225.1666462112319</v>
+        <v>225.1666201522455</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0002669642831957356</v>
+        <v>0.000266964122768339</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>226.3333127719118</v>
+        <v>226.3332865779049</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0002612167455523595</v>
+        <v>0.0002612165872552675</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>227.4999793325918</v>
+        <v>227.4999530035641</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0002555929480158946</v>
+        <v>0.0002555927918315247</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>228.6666458932717</v>
+        <v>228.6666194292235</v>
       </c>
       <c r="B198" t="n">
-        <v>0.000250090226556245</v>
+        <v>0.000250090072467135</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>229.8333124539517</v>
+        <v>229.8332858548827</v>
       </c>
       <c r="B199" t="n">
-        <v>0.000244705974497513</v>
+        <v>0.0002447058224861127</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>230.9999790146316</v>
+        <v>230.9999522805421</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002394376412840569</v>
+        <v>0.0002394374913318789</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>232.1666455753116</v>
+        <v>232.1666187062014</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002342827312709594</v>
+        <v>0.0002342825833602978</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>233.3333121359915</v>
+        <v>233.3332851318607</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002292388025436134</v>
+        <v>0.0002292386566556234</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>234.4999786966715</v>
+        <v>234.49995155752</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0002243034657593639</v>
+        <v>0.0002243033218757805</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>235.6666452573515</v>
+        <v>235.6666179831793</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002194743830163403</v>
+        <v>0.0002194742411181999</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>236.8333118180314</v>
+        <v>236.8332844088386</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002147492667458431</v>
+        <v>0.0002147491268145596</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>237.9999783787114</v>
+        <v>237.9999508344979</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002101258786291385</v>
+        <v>0.0002101257406456525</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>239.1666449393913</v>
+        <v>239.1666172601572</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002056020285365211</v>
+        <v>0.0002056018924819482</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>240.3333115000713</v>
+        <v>240.3332836858165</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002011755734899297</v>
+        <v>0.0002011754393451373</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>241.4999780607513</v>
+        <v>241.4999501114758</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0001968444166486869</v>
+        <v>0.0001968442843942997</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>242.6666446214312</v>
+        <v>242.6666165371351</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0001926065063145091</v>
+        <v>0.000192606375931771</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>243.8333111821112</v>
+        <v>243.8332829627944</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0001884598349615682</v>
+        <v>0.0001884597064308483</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>244.9999777427911</v>
+        <v>244.9999493884537</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0001844024382836822</v>
+        <v>0.0001844023115857647</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>246.1666443034711</v>
+        <v>246.166615814113</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0001804323942654867</v>
+        <v>0.0001804322693809333</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>247.3333108641511</v>
+        <v>247.3332822397723</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0001765478222707353</v>
+        <v>0.0001765476991803182</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>248.499977424831</v>
+        <v>248.4999486654316</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0001727468821515838</v>
+        <v>0.0001727467608358624</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>249.666643985511</v>
+        <v>249.6666150910909</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0001690277733775724</v>
+        <v>0.0001690276538173258</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>250.8333105461909</v>
+        <v>250.8332815167502</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0001653887341823794</v>
+        <v>0.0001653886163581829</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>251.9999771068709</v>
+        <v>251.9999479424095</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0001618280407287752</v>
+        <v>0.0001618279246212187</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>253.1666436675508</v>
+        <v>253.1666143680688</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0001583440062928458</v>
+        <v>0.0001583438918825381</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>254.3333102282308</v>
+        <v>254.3332807937281</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0001549349804640617</v>
+        <v>0.0001549348677318487</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>255.4999767889107</v>
+        <v>255.4999472193874</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0001515993483644016</v>
+        <v>0.0001515992372909426</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>256.6666433495907</v>
+        <v>256.6666136450467</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0001483355298826802</v>
+        <v>0.0001483354204488796</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>257.8333099102707</v>
+        <v>257.8332800707061</v>
       </c>
       <c r="B223" t="n">
-        <v>0.0001451419789264314</v>
+        <v>0.0001451418711134429</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>258.9999764709506</v>
+        <v>258.9999464963653</v>
       </c>
       <c r="B224" t="n">
-        <v>0.0001420171826896371</v>
+        <v>0.0001420170764780113</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>260.1666430316306</v>
+        <v>260.1666129220246</v>
       </c>
       <c r="B225" t="n">
-        <v>0.0001389596609352299</v>
+        <v>0.0001389595563062023</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>261.3333095923106</v>
+        <v>261.333279347684</v>
       </c>
       <c r="B226" t="n">
-        <v>0.0001359679652949384</v>
+        <v>0.000135967862229363</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>262.4999761529905</v>
+        <v>262.4999457733433</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0001330406785826226</v>
+        <v>0.0001330405770620456</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>263.6666427136705</v>
+        <v>263.6666121990025</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0001301764141234528</v>
+        <v>0.0001301763141288319</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>264.8333092743504</v>
+        <v>264.8332786246619</v>
       </c>
       <c r="B229" t="n">
-        <v>0.0001273738150959362</v>
+        <v>0.0001273737166087143</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>265.9999758350304</v>
+        <v>265.9999450503212</v>
       </c>
       <c r="B230" t="n">
-        <v>0.0001246315538904299</v>
+        <v>0.0001246314568921104</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>267.1666423957103</v>
+        <v>267.1666114759805</v>
       </c>
       <c r="B231" t="n">
-        <v>0.0001219483314796444</v>
+        <v>0.0001219482359515803</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>268.3333089563903</v>
+        <v>268.3332779016397</v>
       </c>
       <c r="B232" t="n">
-        <v>0.0001193228768032784</v>
+        <v>0.000119322782727318</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>269.4999755170703</v>
+        <v>269.4999443272991</v>
       </c>
       <c r="B233" t="n">
-        <v>0.0001167539461661436</v>
+        <v>0.0001167538535239913</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>270.6666420777502</v>
+        <v>270.6666107529584</v>
       </c>
       <c r="B234" t="n">
-        <v>0.0001142403226484928</v>
+        <v>0.0001142402314219262</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>271.8333086384301</v>
+        <v>271.8332771786177</v>
       </c>
       <c r="B235" t="n">
-        <v>0.0001117808155302667</v>
+        <v>0.0001117807257013539</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>272.9999751991101</v>
+        <v>272.999943604277</v>
       </c>
       <c r="B236" t="n">
-        <v>0.0001093742597266879</v>
+        <v>0.0001093741712775762</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>274.1666417597901</v>
+        <v>274.1666100299363</v>
       </c>
       <c r="B237" t="n">
-        <v>0.0001070195152362737</v>
+        <v>0.0001070194281489786</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>275.3333083204701</v>
+        <v>275.3332764555956</v>
       </c>
       <c r="B238" t="n">
-        <v>0.0001047154666008398</v>
+        <v>0.0001047153808578899</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>276.49997488115</v>
+        <v>276.4999428812549</v>
       </c>
       <c r="B239" t="n">
-        <v>0.0001024610223772797</v>
+        <v>0.0001024609379612914</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>277.6666414418299</v>
+        <v>277.6666093069142</v>
       </c>
       <c r="B240" t="n">
-        <v>0.0001002551146204781</v>
+        <v>0.0001002550315137303</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>278.8333080025099</v>
+        <v>278.8332757325735</v>
       </c>
       <c r="B241" t="n">
-        <v>9.809669837714486e-05</v>
+        <v>9.809661656265166e-05</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>279.9999745631899</v>
+        <v>279.9999421582328</v>
       </c>
       <c r="B242" t="n">
-        <v>9.598475119142403e-05</v>
+        <v>9.598467065186731e-05</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>281.1666411238699</v>
+        <v>281.1666085838921</v>
       </c>
       <c r="B243" t="n">
-        <v>9.391827261949691e-05</v>
+        <v>9.391819333808506e-05</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>282.3333076845498</v>
+        <v>282.3332750095514</v>
       </c>
       <c r="B244" t="n">
-        <v>9.189628375724532e-05</v>
+        <v>9.189620571685932e-05</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>283.4999742452297</v>
+        <v>283.4999414352107</v>
       </c>
       <c r="B245" t="n">
-        <v>8.991782677455266e-05</v>
+        <v>8.991774995881907e-05</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>284.6666408059097</v>
+        <v>284.66660786087</v>
       </c>
       <c r="B246" t="n">
-        <v>8.798196446373653e-05</v>
+        <v>8.798188885595939e-05</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>285.8333073665897</v>
+        <v>285.8332742865293</v>
       </c>
       <c r="B247" t="n">
-        <v>8.608777979354835e-05</v>
+        <v>8.608770537735374e-05</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>286.9999739272696</v>
+        <v>286.9999407121886</v>
       </c>
       <c r="B248" t="n">
-        <v>8.423437547644798e-05</v>
+        <v>8.423430223557228e-05</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>288.1666404879496</v>
+        <v>288.1666071378479</v>
       </c>
       <c r="B249" t="n">
-        <v>8.242087354230186e-05</v>
+        <v>8.242080146059394e-05</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>289.3333070486295</v>
+        <v>289.3332735635072</v>
       </c>
       <c r="B250" t="n">
-        <v>8.064641492321506e-05</v>
+        <v>8.06463439846385e-05</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>290.4999736093095</v>
+        <v>290.4999399891665</v>
       </c>
       <c r="B251" t="n">
-        <v>7.891015904649971e-05</v>
+        <v>7.891008923534902e-05</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>291.6666401699894</v>
+        <v>291.6666064148258</v>
       </c>
       <c r="B252" t="n">
-        <v>7.721128343599385e-05</v>
+        <v>7.721121473668249e-05</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>292.8333067306694</v>
+        <v>292.8332728404852</v>
       </c>
       <c r="B253" t="n">
-        <v>7.55489833234437e-05</v>
+        <v>7.554891572029195e-05</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>293.9999732913494</v>
+        <v>293.9999392661445</v>
       </c>
       <c r="B254" t="n">
-        <v>7.392247126566701e-05</v>
+        <v>7.392240474354642e-05</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>295.1666398520293</v>
+        <v>295.1666056918037</v>
       </c>
       <c r="B255" t="n">
-        <v>7.233097677370681e-05</v>
+        <v>7.233091131697149e-05</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>296.3333064127092</v>
+        <v>296.333272117463</v>
       </c>
       <c r="B256" t="n">
-        <v>7.07737459456251e-05</v>
+        <v>7.07736815396125e-05</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>297.4999729733892</v>
+        <v>297.4999385431224</v>
       </c>
       <c r="B257" t="n">
-        <v>6.925004111085875e-05</v>
+        <v>6.924997774060682e-05</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>298.6666395340692</v>
+        <v>298.6666049687817</v>
       </c>
       <c r="B258" t="n">
-        <v>6.77591404805706e-05</v>
+        <v>6.775907813124786e-05</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>299.8333060947492</v>
+        <v>299.8332713944409</v>
       </c>
       <c r="B259" t="n">
-        <v>6.630033780506625e-05</v>
+        <v>6.630027646218776e-05</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>300.9999726554291</v>
+        <v>300.9999378201003</v>
       </c>
       <c r="B260" t="n">
-        <v>6.487294203977563e-05</v>
+        <v>6.487288168877642e-05</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>302.166639216109</v>
+        <v>302.1666042457596</v>
       </c>
       <c r="B261" t="n">
-        <v>6.347627701787183e-05</v>
+        <v>6.347621764475106e-05</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>303.333305776789</v>
+        <v>303.3332706714189</v>
       </c>
       <c r="B262" t="n">
-        <v>6.210968113017015e-05</v>
+        <v>6.210962272042215e-05</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>304.499972337469</v>
+        <v>304.4999370970781</v>
       </c>
       <c r="B263" t="n">
-        <v>6.077250701059385e-05</v>
+        <v>6.077244955049451e-05</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>305.666638898149</v>
+        <v>305.6666035227375</v>
       </c>
       <c r="B264" t="n">
-        <v>5.946412123127516e-05</v>
+        <v>5.946406470681294e-05</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>306.8333054588289</v>
+        <v>306.8332699483968</v>
       </c>
       <c r="B265" t="n">
-        <v>5.818390400086806e-05</v>
+        <v>5.818384839860203e-05</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>307.9999720195088</v>
+        <v>307.9999363740561</v>
       </c>
       <c r="B266" t="n">
-        <v>5.693124887249613e-05</v>
+        <v>5.693119417870107e-05</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>309.1666385801888</v>
+        <v>309.1666027997154</v>
       </c>
       <c r="B267" t="n">
-        <v>5.570556245448391e-05</v>
+        <v>5.570550865600825e-05</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>310.3333051408688</v>
+        <v>310.3332692253747</v>
       </c>
       <c r="B268" t="n">
-        <v>5.450626413136576e-05</v>
+        <v>5.450621121499076e-05</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>311.4999717015487</v>
+        <v>311.499935651034</v>
       </c>
       <c r="B269" t="n">
-        <v>5.333278578767822e-05</v>
+        <v>5.333273374033348e-05</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>312.6666382622287</v>
+        <v>312.6666020766933</v>
       </c>
       <c r="B270" t="n">
-        <v>5.218457153860398e-05</v>
+        <v>5.218452034736891e-05</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>313.8333048229086</v>
+        <v>313.8332685023526</v>
       </c>
       <c r="B271" t="n">
-        <v>5.106107746768174e-05</v>
+        <v>5.106102711978688e-05</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>314.9999713835886</v>
+        <v>314.9999349280119</v>
       </c>
       <c r="B272" t="n">
-        <v>4.996177136815586e-05</v>
+        <v>4.996172185119841e-05</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>316.1666379442685</v>
+        <v>316.1666013536712</v>
       </c>
       <c r="B273" t="n">
-        <v>4.888613249160605e-05</v>
+        <v>4.888608379290882e-05</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>317.3333045049485</v>
+        <v>317.3332677793305</v>
       </c>
       <c r="B274" t="n">
-        <v>4.783365130064512e-05</v>
+        <v>4.783360340790019e-05</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>318.4999710656285</v>
+        <v>318.4999342049898</v>
       </c>
       <c r="B275" t="n">
-        <v>4.680382922782613e-05</v>
+        <v>4.680378212909609e-05</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>319.6666376263084</v>
+        <v>319.6666006306491</v>
       </c>
       <c r="B276" t="n">
-        <v>4.579617843968825e-05</v>
+        <v>4.579613212297925e-05</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>320.8333041869884</v>
+        <v>320.8332670563084</v>
       </c>
       <c r="B277" t="n">
-        <v>4.481022160551312e-05</v>
+        <v>4.481017605877606e-05</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>321.9999707476683</v>
+        <v>321.9999334819677</v>
       </c>
       <c r="B278" t="n">
-        <v>4.384549167079179e-05</v>
+        <v>4.384544688256585e-05</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>323.1666373083483</v>
+        <v>323.166599907627</v>
       </c>
       <c r="B279" t="n">
-        <v>4.290153163668678e-05</v>
+        <v>4.290148759545827e-05</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>324.3333038690283</v>
+        <v>324.3332663332863</v>
       </c>
       <c r="B280" t="n">
-        <v>4.197789434313418e-05</v>
+        <v>4.197785103712354e-05</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>325.4999704297082</v>
+        <v>325.4999327589456</v>
       </c>
       <c r="B281" t="n">
-        <v>4.10741422566562e-05</v>
+        <v>4.107409967488967e-05</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>326.6666369903882</v>
+        <v>326.6665991846049</v>
       </c>
       <c r="B282" t="n">
-        <v>4.018984726416892e-05</v>
+        <v>4.018980539562322e-05</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>327.8333035510681</v>
+        <v>327.8332656102642</v>
       </c>
       <c r="B283" t="n">
-        <v>3.932459046935947e-05</v>
+        <v>3.932454930274874e-05</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>328.9999701117481</v>
+        <v>328.9999320359236</v>
       </c>
       <c r="B284" t="n">
-        <v>3.847796199398783e-05</v>
+        <v>3.847792151883518e-05</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>330.1666366724281</v>
+        <v>330.1665984615829</v>
       </c>
       <c r="B285" t="n">
-        <v>3.764956078496964e-05</v>
+        <v>3.764952099032357e-05</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>331.333303233108</v>
+        <v>331.3332648872421</v>
       </c>
       <c r="B286" t="n">
-        <v>3.68389944227438e-05</v>
+        <v>3.683895529824973e-05</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>332.499969793788</v>
+        <v>332.4999313129014</v>
       </c>
       <c r="B287" t="n">
-        <v>3.60458789367058e-05</v>
+        <v>3.604584047196473e-05</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>333.6666363544679</v>
+        <v>333.6665977385608</v>
       </c>
       <c r="B288" t="n">
-        <v>3.526983862299633e-05</v>
+        <v>3.526980080756574e-05</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>334.8333029151479</v>
+        <v>334.8332641642201</v>
       </c>
       <c r="B289" t="n">
-        <v>3.451050586614389e-05</v>
+        <v>3.451046868996698e-05</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>335.9999694758278</v>
+        <v>335.9999305898793</v>
       </c>
       <c r="B290" t="n">
-        <v>3.376752096498978e-05</v>
+        <v>3.376748441818223e-05</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>337.1666360365078</v>
+        <v>337.1665970155387</v>
       </c>
       <c r="B291" t="n">
-        <v>3.304053196268119e-05</v>
+        <v>3.304049603531794e-05</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>338.3333025971878</v>
+        <v>338.333263441198</v>
       </c>
       <c r="B292" t="n">
-        <v>3.232919447987606e-05</v>
+        <v>3.23291591622063e-05</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>339.4999691578677</v>
+        <v>339.4999298668573</v>
       </c>
       <c r="B293" t="n">
-        <v>3.163317155115961e-05</v>
+        <v>3.163313683339355e-05</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>340.6666357185477</v>
+        <v>340.6665962925166</v>
       </c>
       <c r="B294" t="n">
-        <v>3.095213346595731e-05</v>
+        <v>3.095209933890933e-05</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>341.8333022792276</v>
+        <v>341.8332627181759</v>
       </c>
       <c r="B295" t="n">
-        <v>3.028575761180307e-05</v>
+        <v>3.028572406603612e-05</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>342.9999688399076</v>
+        <v>342.9999291438352</v>
       </c>
       <c r="B296" t="n">
-        <v>2.963372832210392e-05</v>
+        <v>2.96336953483585e-05</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>344.1666354005876</v>
+        <v>344.1665955694945</v>
       </c>
       <c r="B297" t="n">
-        <v>2.89957367262598e-05</v>
+        <v>2.899570431545481e-05</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>345.3333019612675</v>
+        <v>345.3332619951538</v>
       </c>
       <c r="B298" t="n">
-        <v>2.837148060363759e-05</v>
+        <v>2.837144874687105e-05</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>346.4999685219474</v>
+        <v>346.4999284208131</v>
       </c>
       <c r="B299" t="n">
-        <v>2.776066423968612e-05</v>
+        <v>2.776063292802183e-05</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>347.6666350826274</v>
+        <v>347.6665948464724</v>
       </c>
       <c r="B300" t="n">
-        <v>2.716299828676182e-05</v>
+        <v>2.716296751165832e-05</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>348.8333016433074</v>
+        <v>348.8332612721317</v>
       </c>
       <c r="B301" t="n">
-        <v>2.657819962645307e-05</v>
+        <v>2.657816937912203e-05</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>349.9999682039874</v>
+        <v>349.999927697791</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.0373339375087783</v>
+        <v>-0.03733395155635297</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>351.1666347646673</v>
+        <v>351.1665941234503</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.03572639504174651</v>
+        <v>-0.03572640811424848</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>352.3333013253472</v>
+        <v>352.3332605491096</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.03418807090408853</v>
+        <v>-0.03418808305944358</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>353.4999678860272</v>
+        <v>353.4999269747689</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.03271598466000308</v>
+        <v>-0.03271599595295612</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>354.6666344467072</v>
+        <v>354.6665934004282</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.03130728420671283</v>
+        <v>-0.0313072946889952</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>355.8333010073871</v>
+        <v>355.8332598260875</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.02995924024864145</v>
+        <v>-0.02995924996912772</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>356.9999675680671</v>
+        <v>356.9999262517468</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.02866924100952066</v>
+        <v>-0.02866925001438012</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>358.166634128747</v>
+        <v>358.1665926774061</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.02743478717218999</v>
+        <v>-0.02743479550502815</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>359.333300689427</v>
+        <v>359.3332591030654</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.0262534870362771</v>
+        <v>-0.02625349473827125</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>360.499967250107</v>
+        <v>360.4999255287248</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.02512305188438443</v>
+        <v>-0.0251230589944114</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>361.6666338107869</v>
+        <v>361.666591954384</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.02404129154779806</v>
+        <v>-0.02404129810255651</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>362.8333003714669</v>
+        <v>362.8332583800433</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.02300611016313172</v>
+        <v>-0.02300611619725738</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>363.9999669321468</v>
+        <v>363.9999248057026</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.0220155021116838</v>
+        <v>-0.02201550765785943</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>365.1666334928268</v>
+        <v>365.166591231362</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.02106754813363803</v>
+        <v>-0.02106755322269679</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>366.3333000535067</v>
+        <v>366.3332576570212</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.02016041160958129</v>
+        <v>-0.02016041627060602</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>367.4999666141867</v>
+        <v>367.4999240826805</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.01929233500213458</v>
+        <v>-0.01929233926255109</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>368.6666331748667</v>
+        <v>368.6665905083399</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.01846163645080064</v>
+        <v>-0.01846164033646611</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>369.8332997355466</v>
+        <v>369.8332569339992</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.01766670651343235</v>
+        <v>-0.01766671004872039</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>370.9999662962265</v>
+        <v>370.9999233596585</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.01690600504800941</v>
+        <v>-0.01690600825588937</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>372.1666328569065</v>
+        <v>372.1665897853177</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.01617805822868076</v>
+        <v>-0.01617806113079326</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>373.3332994175865</v>
+        <v>373.3332562109771</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.01548145569029043</v>
+        <v>-0.01548145830702004</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>374.4999659782665</v>
+        <v>374.4999226366364</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.01481484779585761</v>
+        <v>-0.0148148501463998</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>375.6666325389464</v>
+        <v>375.6665890622957</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.01417694302171322</v>
+        <v>-0.01417694512413979</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>376.8332990996263</v>
+        <v>376.833255487955</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.01356650545523008</v>
+        <v>-0.01356650732654995</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>377.9999656603063</v>
+        <v>377.9999219136143</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.01298235240029505</v>
+        <v>-0.01298235405651267</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>379.1666322209863</v>
+        <v>379.1665883392736</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.0124233520858884</v>
+        <v>-0.01242335354205803</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>380.3332987816663</v>
+        <v>380.3332547649329</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.01188842147332543</v>
+        <v>-0.01188842274360411</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>381.4999653423462</v>
+        <v>381.4999211905922</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.01137652415791762</v>
+        <v>-0.01137652525561382</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>382.6666319030261</v>
+        <v>382.6665876162515</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.01088666836098306</v>
+        <v>-0.01088666929860401</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>383.8332984637061</v>
+        <v>383.8332540419108</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.01041790500831878</v>
+        <v>-0.0104179057976144</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>384.9999650243861</v>
+        <v>384.9999204675701</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.00996932589141113</v>
+        <v>-0.009969326543416196</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>386.166631585066</v>
+        <v>386.1665868932294</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.009540061907820984</v>
+        <v>-0.009540062432895459</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>387.333298145746</v>
+        <v>387.3332533188887</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.00912928137733632</v>
+        <v>-0.009129281785202194</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>388.4999647064259</v>
+        <v>388.499919744548</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.008736188430627909</v>
+        <v>-0.008736188730405259</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>389.6666312671059</v>
+        <v>389.6665861702073</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.008360021467287341</v>
+        <v>-0.008360021667528061</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>390.8332978277858</v>
+        <v>390.8332525958666</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.008000051680258935</v>
+        <v>-0.00800005178897943</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>391.9999643884658</v>
+        <v>391.9999190215259</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.007655581643809048</v>
+        <v>-0.007655581668519132</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>393.1666309491458</v>
+        <v>393.1665854471852</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.007325943962293176</v>
+        <v>-0.007325943910026108</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>394.3332975098257</v>
+        <v>394.3332518728445</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.007010499977106541</v>
+        <v>-0.007010499854445462</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>395.4999640705057</v>
+        <v>395.4999182985038</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.006708638529310405</v>
+        <v>-0.006708638342414653</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>396.6666306311856</v>
+        <v>396.6665847241632</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.006419774775539609</v>
+        <v>-0.006419774530167995</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>397.8332971918656</v>
+        <v>397.8332511498224</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.00614334905489236</v>
+        <v>-0.006143348756427281</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>398.9999637525456</v>
+        <v>398.9999175754817</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.005878825804613288</v>
+        <v>-0.005878825458081929</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>400.1666303132255</v>
+        <v>400.166584001141</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.005625692522462757</v>
+        <v>-0.005625692132557746</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>401.3332968739055</v>
+        <v>401.3332504268004</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.005383458773767054</v>
+        <v>-0.005383458344866146</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>402.4999634345854</v>
+        <v>402.4999168524596</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.005151655241222098</v>
+        <v>-0.005151654777406354</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>403.6666299952654</v>
+        <v>403.6665832781189</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.004929832815612063</v>
+        <v>-0.004929832320683392</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>404.8332965559454</v>
+        <v>404.8332497037783</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.004717561725679468</v>
+        <v>-0.004717561203177213</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>405.9999631166253</v>
+        <v>405.9999161294376</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.004514430705462532</v>
+        <v>-0.004514430158678776</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>407.1666296773053</v>
+        <v>407.1665825550969</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.004320046197485113</v>
+        <v>-0.004320045629479683</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>408.3332962379852</v>
+        <v>408.3332489807562</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.00413403159025637</v>
+        <v>-0.004134031003870685</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>409.4999627986652</v>
+        <v>409.4999154064155</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.003956026488602511</v>
+        <v>-0.003956025886472375</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>410.6666293593452</v>
+        <v>410.6665818320748</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.003785686015416736</v>
+        <v>-0.003785685399985269</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>411.8332959200251</v>
+        <v>411.8332482577341</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.003622680143475134</v>
+        <v>-0.003622679517004233</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>412.9999624807051</v>
+        <v>412.9999146833934</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.003466693056023135</v>
+        <v>-0.003466692420604432</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>414.166629041385</v>
+        <v>414.1665811090527</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.00331742253489452</v>
+        <v>-0.003317421892459948</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>415.333295602065</v>
+        <v>415.333247534712</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.003174579374976566</v>
+        <v>-0.00317457872730854</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>416.4999621627449</v>
+        <v>416.4999139603713</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.003037886823888455</v>
+        <v>-0.003037886172628802</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>417.6666287234249</v>
+        <v>417.6665803860306</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.002907080045785033</v>
+        <v>-0.002907079392443764</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>418.8332952841048</v>
+        <v>418.8332468116899</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.002781905608249171</v>
+        <v>-0.002781904954213077</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>419.9999618447848</v>
+        <v>419.9999132373492</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.002662120991277419</v>
+        <v>-0.002662120337817648</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>421.1666284054647</v>
+        <v>421.1665796630085</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.002547494117408392</v>
+        <v>-0.002547493465687765</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>422.3332949661447</v>
+        <v>422.3332460886678</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.002437802902082192</v>
+        <v>-0.002437802253162673</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>423.4999615268247</v>
+        <v>423.4999125143271</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.002332834823362198</v>
+        <v>-0.002332834178210712</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>424.6666280875046</v>
+        <v>424.6665789399864</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.002232386510182147</v>
+        <v>-0.00223238586967742</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>425.8332946481846</v>
+        <v>425.8332453656457</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.002136263348324354</v>
+        <v>-0.002136262713262315</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>426.9999612088645</v>
+        <v>426.999911791305</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.002044279103362541</v>
+        <v>-0.002044278474462004</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>428.1666277695445</v>
+        <v>428.1665782169644</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.001956255559841291</v>
+        <v>-0.001956254937749164</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>429.3332943302245</v>
+        <v>429.3332446426236</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.001872022175991215</v>
+        <v>-0.001872021561287027</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>430.4999608909044</v>
+        <v>430.4999110682829</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.001791415753311474</v>
+        <v>-0.00179141514651251</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>431.6666274515844</v>
+        <v>431.6665774939422</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.001714280120380219</v>
+        <v>-0.001714279521945222</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>432.8332940122643</v>
+        <v>432.8332439196016</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.001640465830278842</v>
+        <v>-0.001640465240612647</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>433.9999605729443</v>
+        <v>433.9999103452608</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.001569829871045535</v>
+        <v>-0.001569829290502592</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>435.1666271336243</v>
+        <v>435.1665767709201</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.001502235388595645</v>
+        <v>-0.001502234817483523</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>436.3332936943042</v>
+        <v>436.3332431965795</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.001437551421572935</v>
+        <v>-0.001437550860155782</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>437.4999602549842</v>
+        <v>437.4999096222388</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.001375652647617522</v>
+        <v>-0.001375652096119288</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>438.6666268156641</v>
+        <v>438.666576047898</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.001316419140559543</v>
+        <v>-0.001316418599166961</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>439.8332933763441</v>
+        <v>439.8332424735573</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.00125973613806707</v>
+        <v>-0.001259735606932393</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>440.999959937024</v>
+        <v>440.9999088992167</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.001205493819299588</v>
+        <v>-0.00120549329854309</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>442.166626497704</v>
+        <v>442.166575324876</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.001153587092134432</v>
+        <v>-0.001153586581847202</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>443.333293058384</v>
+        <v>443.3332417505353</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.001103915389555816</v>
+        <v>-0.001103914889801673</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>444.4999596190639</v>
+        <v>444.4999081761946</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.001056382474810243</v>
+        <v>-0.001056381985628274</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>445.6666261797438</v>
+        <v>445.6665746018539</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.001010896254952323</v>
+        <v>-0.001010895776358643</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>446.8332927404238</v>
+        <v>446.8332410275132</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.000967368602418581</v>
+        <v>-0.0009673681344082946</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>447.9999593011038</v>
+        <v>447.9999074531725</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.0009257151842840281</v>
+        <v>-0.0009257147268331654</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>449.1666258617838</v>
+        <v>449.1665738788318</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.0008858552988710936</v>
+        <v>-0.0008858548519379944</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>450.3332924224637</v>
+        <v>450.3332403044911</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.0008477117193933976</v>
+        <v>-0.0008477112829203984</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>451.4999589831436</v>
+        <v>451.4999067301504</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.0008112105443323522</v>
+        <v>-0.0008112101182472415</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>452.6666255438236</v>
+        <v>452.6665731558097</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.0007762810542562526</v>
+        <v>-0.0007762806384736026</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>453.8332921045036</v>
+        <v>453.833239581469</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.0007428555748040451</v>
+        <v>-0.0007428551692267423</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>454.9999586651836</v>
+        <v>454.9999060071283</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.0007108693455698755</v>
+        <v>-0.0007108689500899923</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>456.1666252258635</v>
+        <v>456.1665724327876</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.0006802603946322293</v>
+        <v>-0.0006802600091320967</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>457.3332917865434</v>
+        <v>457.3332388584469</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.0006509694184860363</v>
+        <v>-0.0006509690428395163</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>458.4999583472234</v>
+        <v>458.4999052841062</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.0006229396671449984</v>
+        <v>-0.0006229393012181002</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>459.6666249079034</v>
+        <v>459.6665717097655</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.0005961168341903875</v>
+        <v>-0.0005961164778427287</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>460.8332914685833</v>
+        <v>460.8332381354248</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.0005704489515555218</v>
+        <v>-0.000570448604640491</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>461.9999580292633</v>
+        <v>461.9999045610841</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.0005458862888391896</v>
+        <v>-0.0005458859512051699</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>463.1666245899432</v>
+        <v>463.1665709867434</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.0005223812569557496</v>
+        <v>-0.0005223809284466867</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>464.3332911506232</v>
+        <v>464.3332374124028</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.0004998883159328394</v>
+        <v>-0.0004998879963889077</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>465.4999577113031</v>
+        <v>465.499903838062</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.0004783638866800535</v>
+        <v>-0.0004783635759383106</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>466.6666242719831</v>
+        <v>466.6665702637213</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.0004577662665562244</v>
+        <v>-0.0004577659644510429</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>467.8332908326631</v>
+        <v>467.8332366893806</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.0004380555485723675</v>
+        <v>-0.0004380552549361779</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>468.999957393343</v>
+        <v>468.99990311504</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.0004191935440735581</v>
+        <v>-0.0004191932587370477</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>470.166623954023</v>
+        <v>470.1665695406992</v>
       </c>
       <c r="B405" t="n">
-        <v>-0.0004011437087502881</v>
+        <v>-0.0004011434315432335</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>471.3332905147029</v>
+        <v>471.3332359663585</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.0003838710718352031</v>
+        <v>-0.0003838708025864386</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>472.4999570753829</v>
+        <v>472.4999023920179</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.0003673421683490444</v>
+        <v>-0.000367341906887278</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>473.6666236360629</v>
+        <v>473.6665688176772</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.0003515249742634712</v>
+        <v>-0.0003515247204173449</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>474.8332901967428</v>
+        <v>474.8332352433364</v>
       </c>
       <c r="B409" t="n">
-        <v>-0.0003363888444562575</v>
+        <v>-0.0003363885980545064</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>475.9999567574228</v>
+        <v>475.9999016689958</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.0003219044533369239</v>
+        <v>-0.0003219042142092788</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>477.1666233181027</v>
+        <v>477.1665680946551</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.0003080437380308235</v>
+        <v>-0.0003080435060076213</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>478.3332898787827</v>
+        <v>478.3332345203144</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.0002947798440075581</v>
+        <v>-0.0002947796189203101</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>479.4999564394627</v>
+        <v>479.4999009459736</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.0002820870730520212</v>
+        <v>-0.0002820868547336539</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>480.6666230001426</v>
+        <v>480.666567371633</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.0002699408334750776</v>
+        <v>-0.000269940621760061</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>481.8332895608225</v>
+        <v>481.8332337972923</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.0002583175924682786</v>
+        <v>-0.0002583173871926412</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>482.9999561215025</v>
+        <v>482.9999002229516</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.000247194830510008</v>
+        <v>-0.0002471946315116686</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>484.1666226821825</v>
+        <v>484.1665666486109</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.0002365509977350569</v>
+        <v>-0.0002365508048540438</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>485.3332892428624</v>
+        <v>485.3332330742702</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.0002263654721824117</v>
+        <v>-0.0002263652852609701</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>486.4999558035424</v>
+        <v>486.4998994999295</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.0002166185198412813</v>
+        <v>-0.0002166183387237617</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>487.6666223642223</v>
+        <v>487.6665659255888</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.0002072912564175345</v>
+        <v>-0.0002072910809505984</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>488.8332889249023</v>
+        <v>488.8332323512481</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.0001983656107457144</v>
+        <v>-0.0001983654407786424</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>489.9999554855823</v>
+        <v>489.9998987769074</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.0001898242897774696</v>
+        <v>-0.0001898241251619303</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>491.1666220462622</v>
+        <v>491.1665652025667</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.0001816507450764959</v>
+        <v>-0.000181650585666739</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>492.3332886069422</v>
+        <v>492.333231628226</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.0001738291407571433</v>
+        <v>-0.0001738289864100824</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>493.4999551676221</v>
+        <v>493.4998980538853</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.0001663443228026714</v>
+        <v>-0.0001663441733778554</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>494.6666217283021</v>
+        <v>494.6665644795446</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.0001591817897054454</v>
+        <v>-0.0001591816450652416</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>495.833288288982</v>
+        <v>495.8332309052039</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.0001523276643706233</v>
+        <v>-0.000152327524379861</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>496.999954849662</v>
+        <v>496.9998973308632</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.0001457686672296959</v>
+        <v>-0.0001457685317562708</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>498.166621410342</v>
+        <v>498.1665637565225</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.0001394920905123859</v>
+        <v>-0.0001394919594266844</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>499.3332879710219</v>
+        <v>499.3332301821818</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.0001334857736254125</v>
+        <v>-0.00013348564680091</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>500.4999545317019</v>
+        <v>500.4998966078412</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.0001277380795924066</v>
+        <v>-0.0001277379569051927</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>501.6666210923818</v>
+        <v>501.6665630335004</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.000122237872507337</v>
+        <v>-0.0001222377538360667</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>502.8332876530618</v>
+        <v>502.8332294591597</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.0001169744959591599</v>
+        <v>-0.0001169743811856442</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>503.9999542137418</v>
+        <v>503.9998958848191</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.0001119377523858318</v>
+        <v>-0.0001119376413943416</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>505.1666207744217</v>
+        <v>505.1665623104784</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.0001071178833167911</v>
+        <v>-0.0001071177759944288</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>506.3332873351017</v>
+        <v>506.3332287361376</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.0001025055504662227</v>
+        <v>-0.0001025054467028642</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>507.4999538957816</v>
+        <v>507.4998951617969</v>
       </c>
       <c r="B437" t="n">
-        <v>-9.809181764092164e-05</v>
+        <v>-9.809171732904854e-05</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>508.6666204564616</v>
+        <v>508.6665615874563</v>
       </c>
       <c r="B438" t="n">
-        <v>-9.386813342624823e-05</v>
+        <v>-9.386803646099242e-05</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>509.8332870171416</v>
+        <v>509.8332280131156</v>
       </c>
       <c r="B439" t="n">
-        <v>-8.982631461870082e-05</v>
+        <v>-8.982622089778e-05</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>510.9999535778215</v>
+        <v>510.9998944387748</v>
       </c>
       <c r="B440" t="n">
-        <v>-8.595853037084695e-05</v>
+        <v>-8.595843979471249e-05</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>512.1666201385015</v>
+        <v>512.1665608644341</v>
       </c>
       <c r="B441" t="n">
-        <v>-8.225728701981507e-05</v>
+        <v>-8.225719949126282e-05</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>513.3332866991814</v>
+        <v>513.3332272900934</v>
       </c>
       <c r="B442" t="n">
-        <v>-7.871541356819306e-05</v>
+        <v>-7.871532899282888e-05</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>514.4999532598614</v>
+        <v>514.4998937157528</v>
       </c>
       <c r="B443" t="n">
-        <v>-7.532604779089028e-05</v>
+        <v>-7.532596607673756e-05</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>515.6666198205413</v>
+        <v>515.6665601414121</v>
       </c>
       <c r="B444" t="n">
-        <v>-7.208262294002135e-05</v>
+        <v>-7.208254399744818e-05</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>516.8332863812213</v>
+        <v>516.8332265670714</v>
       </c>
       <c r="B445" t="n">
-        <v>-6.897885502158267e-05</v>
+        <v>-6.897877876333453e-05</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>517.9999529419013</v>
+        <v>517.9998929927307</v>
       </c>
       <c r="B446" t="n">
-        <v>-6.600873062069002e-05</v>
+        <v>-6.600865696202816e-05</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>519.1666195025812</v>
+        <v>519.16655941839</v>
       </c>
       <c r="B447" t="n">
-        <v>-6.31664952512897e-05</v>
+        <v>-6.316642410969995e-05</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>520.3332860632612</v>
+        <v>520.3332258440493</v>
       </c>
       <c r="B448" t="n">
-        <v>-6.044664220636209e-05</v>
+        <v>-6.044657350169058e-05</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>521.4999526239411</v>
+        <v>521.4998922697085</v>
       </c>
       <c r="B449" t="n">
-        <v>-5.784390188966873e-05</v>
+        <v>-5.78438355439352e-05</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>522.6666191846211</v>
+        <v>522.6665586953679</v>
       </c>
       <c r="B450" t="n">
-        <v>-5.535323160549015e-05</v>
+        <v>-5.535316754280718e-05</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>523.8332857453011</v>
+        <v>523.8332251210272</v>
       </c>
       <c r="B451" t="n">
-        <v>-5.296980578890426e-05</v>
+        <v>-5.296974393582356e-05</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>524.999952305981</v>
+        <v>524.9998915466865</v>
       </c>
       <c r="B452" t="n">
-        <v>-5.068900665658548e-05</v>
+        <v>-5.06889469414796e-05</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>526.166618866661</v>
+        <v>526.1665579723458</v>
       </c>
       <c r="B453" t="n">
-        <v>-4.850641525981797e-05</v>
+        <v>-4.850635761343857e-05</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>527.3332854273409</v>
+        <v>527.3332243980051</v>
       </c>
       <c r="B454" t="n">
-        <v>-4.641780292323597e-05</v>
+        <v>-4.641774727798649e-05</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>528.4999519880208</v>
+        <v>528.4998908236644</v>
       </c>
       <c r="B455" t="n">
-        <v>-4.441912305162693e-05</v>
+        <v>-4.44190693421189e-05</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>529.6666185487009</v>
+        <v>529.6665572493238</v>
       </c>
       <c r="B456" t="n">
-        <v>-4.250650329013059e-05</v>
+        <v>-4.250645145288265e-05</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>530.8332851093808</v>
+        <v>530.8332236749831</v>
       </c>
       <c r="B457" t="n">
-        <v>-4.067623802156122e-05</v>
+        <v>-4.067618799469726e-05</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>531.9999516700608</v>
+        <v>531.9998901006423</v>
       </c>
       <c r="B458" t="n">
-        <v>-3.892478118672159e-05</v>
+        <v>-3.892473291073855e-05</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>533.1666182307407</v>
+        <v>533.1665565263016</v>
       </c>
       <c r="B459" t="n">
-        <v>-3.724873941475456e-05</v>
+        <v>-3.724869283146961e-05</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>534.3332847914206</v>
+        <v>534.3332229519609</v>
       </c>
       <c r="B460" t="n">
-        <v>-3.564486544790221e-05</v>
+        <v>-3.564482050100491e-05</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>535.4999513521007</v>
+        <v>535.4998893776202</v>
       </c>
       <c r="B461" t="n">
-        <v>-3.411005185028771e-05</v>
+        <v>-3.411000848524912e-05</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>536.6666179127806</v>
+        <v>536.6665558032795</v>
       </c>
       <c r="B462" t="n">
-        <v>-3.264132498776604e-05</v>
+        <v>-3.264128315174717e-05</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>537.8332844734605</v>
+        <v>537.8332222289389</v>
       </c>
       <c r="B463" t="n">
-        <v>-3.123583926621103e-05</v>
+        <v>-3.123579890797059e-05</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>538.9999510341405</v>
+        <v>538.9998886545982</v>
       </c>
       <c r="B464" t="n">
-        <v>-2.989087161849616e-05</v>
+        <v>-2.989083268819063e-05</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>540.1666175948204</v>
+        <v>540.1665550802575</v>
       </c>
       <c r="B465" t="n">
-        <v>-2.860381622839314e-05</v>
+        <v>-2.860377867801859e-05</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>541.3332841555005</v>
+        <v>541.3332215059168</v>
       </c>
       <c r="B466" t="n">
-        <v>-2.737217948239531e-05</v>
+        <v>-2.737214326526504e-05</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>542.4999507161804</v>
+        <v>542.499887931576</v>
       </c>
       <c r="B467" t="n">
-        <v>-2.619357513822478e-05</v>
+        <v>-2.619354020908886e-05</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>543.6666172768603</v>
+        <v>543.6665543572353</v>
       </c>
       <c r="B468" t="n">
-        <v>-2.506571970145896e-05</v>
+        <v>-2.506568601651611e-05</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>544.8332838375403</v>
+        <v>544.8332207828946</v>
       </c>
       <c r="B469" t="n">
-        <v>-2.398642800128346e-05</v>
+        <v>-2.398639551829947e-05</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>545.9999503982202</v>
+        <v>545.999887208554</v>
       </c>
       <c r="B470" t="n">
-        <v>-2.295360895734215e-05</v>
+        <v>-2.295357763512549e-05</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>547.1666169589002</v>
+        <v>547.1665536342133</v>
       </c>
       <c r="B471" t="n">
-        <v>-2.196526152783512e-05</v>
+        <v>-2.196523132667561e-05</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>548.3332835195802</v>
+        <v>548.3332200598726</v>
       </c>
       <c r="B472" t="n">
-        <v>-2.101947083276228e-05</v>
+        <v>-2.10194417142269e-05</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>549.4999500802601</v>
+        <v>549.4998864855319</v>
       </c>
       <c r="B473" t="n">
-        <v>-2.011440444406918e-05</v>
+        <v>-2.011437637090459e-05</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>550.6666166409401</v>
+        <v>550.6665529111912</v>
       </c>
       <c r="B474" t="n">
-        <v>-1.924830883498686e-05</v>
+        <v>-1.92482817712356e-05</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>551.83328320162</v>
+        <v>551.8332193368504</v>
       </c>
       <c r="B475" t="n">
-        <v>-1.841950598342721e-05</v>
+        <v>-1.841947989400818e-05</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>552.9999497622999</v>
+        <v>552.9998857625097</v>
       </c>
       <c r="B476" t="n">
-        <v>-1.762639011979836e-05</v>
+        <v>-1.762636497115754e-05</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>554.16661632298</v>
+        <v>554.1665521881691</v>
       </c>
       <c r="B477" t="n">
-        <v>-1.686742461677809e-05</v>
+        <v>-1.686740037625418e-05</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>555.3332828836599</v>
+        <v>555.3332186138284</v>
       </c>
       <c r="B478" t="n">
-        <v>-1.61411390120522e-05</v>
+        <v>-1.614111564799139e-05</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>556.4999494443399</v>
+        <v>556.4998850394877</v>
       </c>
       <c r="B479" t="n">
-        <v>-1.544612615887936e-05</v>
+        <v>-1.544610364085668e-05</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>557.6666160050198</v>
+        <v>557.666551465147</v>
       </c>
       <c r="B480" t="n">
-        <v>-1.478103950030691e-05</v>
+        <v>-1.478101779859805e-05</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>558.8332825656997</v>
+        <v>558.8332178908063</v>
       </c>
       <c r="B481" t="n">
-        <v>-1.414459045975798e-05</v>
+        <v>-1.414456954598826e-05</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>559.9999491263798</v>
+        <v>559.9998843164656</v>
       </c>
       <c r="B482" t="n">
-        <v>-1.353554594531329e-05</v>
+        <v>-1.353552579182183e-05</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>561.1666156870597</v>
+        <v>561.1665507421249</v>
       </c>
       <c r="B483" t="n">
-        <v>-1.295272595976562e-05</v>
+        <v>-1.295270653982552e-05</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>562.3332822477397</v>
+        <v>562.3332171677843</v>
       </c>
       <c r="B484" t="n">
-        <v>-1.23950013147338e-05</v>
+        <v>-1.239498260255805e-05</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>563.4999488084196</v>
+        <v>563.4998835934435</v>
       </c>
       <c r="B485" t="n">
-        <v>-1.186129144316233e-05</v>
+        <v>-1.186127341380238e-05</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>564.6666153690995</v>
+        <v>564.6665500191028</v>
       </c>
       <c r="B486" t="n">
-        <v>-1.135056230549605e-05</v>
+        <v>-1.13505449348472e-05</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>565.8332819297796</v>
+        <v>565.8332164447621</v>
       </c>
       <c r="B487" t="n">
-        <v>-1.086182438642533e-05</v>
+        <v>-1.086180765112481e-05</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>566.9999484904595</v>
+        <v>566.9998828704214</v>
       </c>
       <c r="B488" t="n">
-        <v>-1.039413077738393e-05</v>
+        <v>-1.039411465502997e-05</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>568.1666150511394</v>
+        <v>568.1665492960807</v>
       </c>
       <c r="B489" t="n">
-        <v>-9.946575342658721e-06</v>
+        <v>-9.946559811387009e-06</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>569.3332816118194</v>
+        <v>569.33321572174</v>
       </c>
       <c r="B490" t="n">
-        <v>-9.518290963115805e-06</v>
+        <v>-9.518276001925198e-06</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>570.4999481724993</v>
+        <v>570.4998821473994</v>
       </c>
       <c r="B491" t="n">
-        <v>-9.10844785625845e-06</v>
+        <v>-9.108433445015287e-06</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>571.6666147331794</v>
+        <v>571.6665485730587</v>
       </c>
       <c r="B492" t="n">
-        <v>-8.716251969298083e-06</v>
+        <v>-8.716238088097978e-06</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>572.8332812938593</v>
+        <v>572.8332149987179</v>
       </c>
       <c r="B493" t="n">
-        <v>-8.340943439564261e-06</v>
+        <v>-8.340930069699575e-06</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>573.9999478545392</v>
+        <v>573.9998814243772</v>
       </c>
       <c r="B494" t="n">
-        <v>-7.981795123324221e-06</v>
+        <v>-7.981782246431388e-06</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>575.1666144152192</v>
+        <v>575.1665478500365</v>
       </c>
       <c r="B495" t="n">
-        <v>-7.638111186374441e-06</v>
+        <v>-7.638098784865823e-06</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>576.3332809758991</v>
+        <v>576.3332142756958</v>
       </c>
       <c r="B496" t="n">
-        <v>-7.309225756190117e-06</v>
+        <v>-7.309213812829245e-06</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>577.499947536579</v>
+        <v>577.4998807013552</v>
       </c>
       <c r="B497" t="n">
-        <v>-6.994501631457319e-06</v>
+        <v>-6.99449013000455e-06</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>578.6666140972591</v>
+        <v>578.6665471270145</v>
       </c>
       <c r="B498" t="n">
-        <v>-6.693329048024295e-06</v>
+        <v>-6.693317972383529e-06</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>579.833280657939</v>
+        <v>579.8332135526738</v>
       </c>
       <c r="B499" t="n">
-        <v>-6.405124497203765e-06</v>
+        <v>-6.40511383217489e-06</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>580.999947218619</v>
+        <v>580.9998799783331</v>
       </c>
       <c r="B500" t="n">
-        <v>-6.129329595248581e-06</v>
+        <v>-6.129319325888033e-06</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>582.1666137792989</v>
+        <v>582.1665464039924</v>
       </c>
       <c r="B501" t="n">
-        <v>-5.86541000153841e-06</v>
+        <v>-5.865400113590184e-06</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>583.3332803399788</v>
+        <v>583.3332128296516</v>
       </c>
       <c r="B502" t="n">
-        <v>-5.612854383443381e-06</v>
+        <v>-5.612844863020526e-06</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>584.4999469006589</v>
+        <v>584.4998792553109</v>
       </c>
       <c r="B503" t="n">
-        <v>-5.371173425402367e-06</v>
+        <v>-5.371164259310701e-06</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>585.6666134613388</v>
+        <v>585.6665456809703</v>
       </c>
       <c r="B504" t="n">
-        <v>-5.13989888125238e-06</v>
+        <v>-5.139890056564701e-06</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>586.8332800220188</v>
+        <v>586.8332121066296</v>
       </c>
       <c r="B505" t="n">
-        <v>-4.918582666597378e-06</v>
+        <v>-4.918574170976972e-06</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>587.9999465826987</v>
+        <v>587.9998785322889</v>
       </c>
       <c r="B506" t="n">
-        <v>-4.706795991002361e-06</v>
+        <v>-4.706787812277003e-06</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>589.1666131433786</v>
+        <v>589.1665449579482</v>
       </c>
       <c r="B507" t="n">
-        <v>-4.504128526908094e-06</v>
+        <v>-4.504120653714527e-06</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>590.3332797040587</v>
+        <v>590.3332113836075</v>
       </c>
       <c r="B508" t="n">
-        <v>-4.310187615052341e-06</v>
+        <v>-4.310180036195982e-06</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>591.4999462647386</v>
+        <v>591.4998778092668</v>
       </c>
       <c r="B509" t="n">
-        <v>-4.124597503292968e-06</v>
+        <v>-4.124590208071033e-06</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>592.6666128254185</v>
+        <v>592.6665442349261</v>
       </c>
       <c r="B510" t="n">
-        <v>-3.946998619047003e-06</v>
+        <v>-3.946991597036264e-06</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>593.8332793860985</v>
+        <v>593.8332106605855</v>
       </c>
       <c r="B511" t="n">
-        <v>-3.777046872241013e-06</v>
+        <v>-3.77704011340665e-06</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>594.9999459467784</v>
+        <v>594.9998770862447</v>
       </c>
       <c r="B512" t="n">
-        <v>-3.614412988558677e-06</v>
+        <v>-3.61440648336305e-06</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>596.1666125074585</v>
+        <v>596.166543511904</v>
       </c>
       <c r="B513" t="n">
-        <v>-3.458781872236152e-06</v>
+        <v>-3.458775611319266e-06</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>597.3332790681384</v>
+        <v>597.3332099375633</v>
       </c>
       <c r="B514" t="n">
-        <v>-3.309851994658232e-06</v>
+        <v>-3.309845968946369e-06</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>598.4999456288183</v>
+        <v>598.4998763632226</v>
       </c>
       <c r="B515" t="n">
-        <v>-3.167334810682332e-06</v>
+        <v>-3.167329011603666e-06</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>599.6666121894983</v>
+        <v>599.6665427888819</v>
       </c>
       <c r="B516" t="n">
-        <v>-3.030954199478577e-06</v>
+        <v>-3.030948618750497e-06</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>600.8332787501782</v>
+        <v>600.8332092145412</v>
       </c>
       <c r="B517" t="n">
-        <v>-2.900445929564819e-06</v>
+        <v>-2.900440559088249e-06</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>601.9999453108583</v>
+        <v>601.9998756402006</v>
       </c>
       <c r="B518" t="n">
-        <v>-2.775557146966026e-06</v>
+        <v>-2.775551979040856e-06</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>603.1666118715382</v>
+        <v>603.1665420658599</v>
       </c>
       <c r="B519" t="n">
-        <v>-2.65604588510628e-06</v>
+        <v>-2.656040912111454e-06</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>604.3332784322181</v>
+        <v>604.3332084915191</v>
       </c>
       <c r="B520" t="n">
-        <v>-2.541680596005168e-06</v>
+        <v>-2.541675810828118e-06</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>605.4999449928981</v>
+        <v>605.4998749171784</v>
       </c>
       <c r="B521" t="n">
-        <v>-2.432239702136218e-06</v>
+        <v>-2.43223509774579e-06</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>606.666611553578</v>
+        <v>606.6665413428377</v>
       </c>
       <c r="B522" t="n">
-        <v>-2.327511166270947e-06</v>
+        <v>-2.327506736039677e-06</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>607.833278114258</v>
+        <v>607.833207768497</v>
       </c>
       <c r="B523" t="n">
-        <v>-2.227292081663789e-06</v>
+        <v>-2.227287819154843e-06</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>608.999944674938</v>
+        <v>608.9998741941563</v>
       </c>
       <c r="B524" t="n">
-        <v>-2.131388278188541e-06</v>
+        <v>-2.131384177049671e-06</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>610.1666112356179</v>
+        <v>610.1665406198157</v>
       </c>
       <c r="B525" t="n">
-        <v>-2.039613946246315e-06</v>
+        <v>-2.039610000639058e-06</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>611.3332777962979</v>
+        <v>611.333207045475</v>
       </c>
       <c r="B526" t="n">
-        <v>-1.951791277267365e-06</v>
+        <v>-1.951787481332675e-06</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>612.4999443569778</v>
+        <v>612.4998734711343</v>
       </c>
       <c r="B527" t="n">
-        <v>-1.867750118665626e-06</v>
+        <v>-1.867746466738885e-06</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>613.6666109176577</v>
+        <v>613.6665398967936</v>
       </c>
       <c r="B528" t="n">
-        <v>-1.78732764431657e-06</v>
+        <v>-1.78732413114254e-06</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>614.8332774783378</v>
+        <v>614.8332063224528</v>
       </c>
       <c r="B529" t="n">
-        <v>-1.710368039059542e-06</v>
+        <v>-1.710364659472011e-06</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>615.9999440390177</v>
+        <v>615.9998727481121</v>
       </c>
       <c r="B530" t="n">
-        <v>-1.636722197224602e-06</v>
+        <v>-1.63671894614716e-06</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>617.1666105996977</v>
+        <v>617.1665391737714</v>
       </c>
       <c r="B531" t="n">
-        <v>-1.566247433149778e-06</v>
+        <v>-1.566244305810672e-06</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>618.3332771603776</v>
+        <v>618.3332055994308</v>
       </c>
       <c r="B532" t="n">
-        <v>-1.49880720497341e-06</v>
+        <v>-1.4988041967992e-06</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>619.4999437210575</v>
+        <v>619.4998720250901</v>
       </c>
       <c r="B533" t="n">
-        <v>-1.43427085030985e-06</v>
+        <v>-1.434267956819031e-06</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>620.6666102817376</v>
+        <v>620.6665384507494</v>
       </c>
       <c r="B534" t="n">
-        <v>-1.372513332844998e-06</v>
+        <v>-1.372510549648653e-06</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>621.8332768424175</v>
+        <v>621.8332048764087</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.313414999851679e-06</v>
+        <v>-1.31341232297527e-06</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>622.9999434030974</v>
+        <v>622.999871302068</v>
       </c>
       <c r="B536" t="n">
-        <v>-1.25686135105308e-06</v>
+        <v>-1.256858776401761e-06</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>624.1666099637774</v>
+        <v>624.1665377277272</v>
       </c>
       <c r="B537" t="n">
-        <v>-1.202742816264884e-06</v>
+        <v>-1.202740339945244e-06</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>625.3332765244573</v>
+        <v>625.3332041533866</v>
       </c>
       <c r="B538" t="n">
-        <v>-1.150954543100784e-06</v>
+        <v>-1.150952161528448e-06</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>626.4999430851374</v>
+        <v>626.4998705790459</v>
       </c>
       <c r="B539" t="n">
-        <v>-1.101396194099034e-06</v>
+        <v>-1.101393903570957e-06</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>627.6666096458173</v>
+        <v>627.6665370047052</v>
       </c>
       <c r="B540" t="n">
-        <v>-1.053971752092401e-06</v>
+        <v>-1.053969549322656e-06</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>628.8332762064972</v>
+        <v>628.8332034303645</v>
       </c>
       <c r="B541" t="n">
-        <v>-1.008589334249758e-06</v>
+        <v>-1.008587215834727e-06</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>629.9999427671772</v>
+        <v>629.9998698560238</v>
       </c>
       <c r="B542" t="n">
-        <v>-9.651610141469707e-07</v>
+        <v>-9.651589771010871e-07</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>631.1666093278571</v>
+        <v>631.1665362816831</v>
       </c>
       <c r="B543" t="n">
-        <v>-9.236026514388403e-07</v>
+        <v>-9.236006924456291e-07</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>632.3332758885371</v>
+        <v>632.3332027073424</v>
       </c>
       <c r="B544" t="n">
-        <v>-8.838337284897728e-07</v>
+        <v>-8.838318446516698e-07</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>633.4999424492171</v>
+        <v>633.4998691330018</v>
       </c>
       <c r="B545" t="n">
-        <v>-8.457771947125671e-07</v>
+        <v>-8.457753833372047e-07</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>634.666609009897</v>
+        <v>634.6665355586611</v>
       </c>
       <c r="B546" t="n">
-        <v>-8.093593173306349e-07</v>
+        <v>-8.093575755029982e-07</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>635.833275570577</v>
+        <v>635.8332019843203</v>
       </c>
       <c r="B547" t="n">
-        <v>-7.745095383495428e-07</v>
+        <v>-7.745078634676226e-07</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>636.9999421312569</v>
+        <v>636.9998684099796</v>
       </c>
       <c r="B548" t="n">
-        <v>-7.411603376308143e-07</v>
+        <v>-7.411587271918448e-07</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>638.1666086919369</v>
+        <v>638.1665348356389</v>
       </c>
       <c r="B549" t="n">
-        <v>-7.092471027103391e-07</v>
+        <v>-7.092455543111333e-07</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>639.3332752526169</v>
+        <v>639.3332012612982</v>
       </c>
       <c r="B550" t="n">
-        <v>-6.787080031131839e-07</v>
+        <v>-6.787065143433996e-07</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>640.4999418132968</v>
+        <v>640.4998676869575</v>
       </c>
       <c r="B551" t="n">
-        <v>-6.494838705565532e-07</v>
+        <v>-6.494824391060577e-07</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>641.6666083739768</v>
+        <v>641.6665341126169</v>
       </c>
       <c r="B552" t="n">
-        <v>-6.21518084612667e-07</v>
+        <v>-6.215167083788891e-07</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>642.8332749346567</v>
+        <v>642.8332005382762</v>
       </c>
       <c r="B553" t="n">
-        <v>-5.947564628680435e-07</v>
+        <v>-5.947551397421415e-07</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>643.9999414953367</v>
+        <v>643.9998669639355</v>
       </c>
       <c r="B554" t="n">
-        <v>-5.691471557932985e-07</v>
+        <v>-5.691458836604299e-07</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>645.1666080560167</v>
+        <v>645.1665333895947</v>
       </c>
       <c r="B555" t="n">
-        <v>-5.446405463234643e-07</v>
+        <v>-5.446393234912734e-07</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>646.3332746166966</v>
+        <v>646.333199815254</v>
       </c>
       <c r="B556" t="n">
-        <v>-5.211891542558829e-07</v>
+        <v>-5.211879785982902e-07</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>647.4999411773765</v>
+        <v>647.4998662409133</v>
       </c>
       <c r="B557" t="n">
-        <v>-4.987475433245311e-07</v>
+        <v>-4.987464131384274e-07</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>648.6666077380565</v>
+        <v>648.6665326665726</v>
       </c>
       <c r="B558" t="n">
-        <v>-4.772722340554345e-07</v>
+        <v>-4.772711475256214e-07</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>649.8332742987365</v>
+        <v>649.833199092232</v>
       </c>
       <c r="B559" t="n">
-        <v>-4.567216188702846e-07</v>
+        <v>-4.567205743908631e-07</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>650.9999408594165</v>
+        <v>650.9998655178913</v>
       </c>
       <c r="B560" t="n">
-        <v>-4.370558817935164e-07</v>
+        <v>-4.370548777539791e-07</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>652.1666074200964</v>
+        <v>652.1665319435506</v>
       </c>
       <c r="B561" t="n">
-        <v>-4.182369213711023e-07</v>
+        <v>-4.182359562635899e-07</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>653.3332739807763</v>
+        <v>653.3331983692099</v>
       </c>
       <c r="B562" t="n">
-        <v>-4.002282768010641e-07</v>
+        <v>-4.002273491134975e-07</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>654.4999405414563</v>
+        <v>654.4998647948692</v>
       </c>
       <c r="B563" t="n">
-        <v>-3.829950569545291e-07</v>
+        <v>-3.829941652778484e-07</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>655.6666071021363</v>
+        <v>655.6665312205284</v>
       </c>
       <c r="B564" t="n">
-        <v>-3.665038733579046e-07</v>
+        <v>-3.665030162791855e-07</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>656.8332736628163</v>
+        <v>656.8331976461877</v>
       </c>
       <c r="B565" t="n">
-        <v>-3.50722774995024e-07</v>
+        <v>-3.507219510976449e-07</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>657.9999402234962</v>
+        <v>657.9998640718471</v>
       </c>
       <c r="B566" t="n">
-        <v>-3.356211866421831e-07</v>
+        <v>-3.356203948271554e-07</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>659.1666067841761</v>
+        <v>659.1665304975064</v>
       </c>
       <c r="B567" t="n">
-        <v>-3.21169849665492e-07</v>
+        <v>-3.211690886163265e-07</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>660.3332733448561</v>
+        <v>660.3331969231657</v>
       </c>
       <c r="B568" t="n">
-        <v>-3.073407652805426e-07</v>
+        <v>-3.073400337845668e-07</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>661.4999399055361</v>
+        <v>661.499863348825</v>
       </c>
       <c r="B569" t="n">
-        <v>-2.941071402743935e-07</v>
+        <v>-2.941064372228914e-07</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>662.666606466216</v>
+        <v>662.6665297744843</v>
       </c>
       <c r="B570" t="n">
-        <v>-2.814433348686988e-07</v>
+        <v>-2.814426591499872e-07</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>663.833273026896</v>
+        <v>663.8331962001436</v>
       </c>
       <c r="B571" t="n">
-        <v>-2.693248136874968e-07</v>
+        <v>-2.693241642941102e-07</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>664.9999395875759</v>
+        <v>664.9998626258028</v>
       </c>
       <c r="B572" t="n">
-        <v>-2.577280975814567e-07</v>
+        <v>-2.577274735032121e-07</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>666.1666061482559</v>
+        <v>666.1665290514622</v>
       </c>
       <c r="B573" t="n">
-        <v>-2.466307183426701e-07</v>
+        <v>-2.466301185667844e-07</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>667.3332727089359</v>
+        <v>667.3331954771215</v>
       </c>
       <c r="B574" t="n">
-        <v>-2.360111753464729e-07</v>
+        <v>-2.360105989647318e-07</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>668.4999392696158</v>
+        <v>668.4998619027808</v>
       </c>
       <c r="B575" t="n">
-        <v>-2.258488937991258e-07</v>
+        <v>-2.258483397938767e-07</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>669.6666058302958</v>
+        <v>669.6665283284401</v>
       </c>
       <c r="B576" t="n">
-        <v>-2.161241844842956e-07</v>
+        <v>-2.16123652156779e-07</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>670.8332723909757</v>
+        <v>670.8331947540994</v>
       </c>
       <c r="B577" t="n">
-        <v>-2.068182064000822e-07</v>
+        <v>-2.068176948352434e-07</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>671.9999389516556</v>
+        <v>671.9998611797587</v>
       </c>
       <c r="B578" t="n">
-        <v>-1.979129295031022e-07</v>
+        <v>-1.979124379979145e-07</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>673.1666055123357</v>
+        <v>673.1665276054181</v>
       </c>
       <c r="B579" t="n">
-        <v>-1.893911003431184e-07</v>
+        <v>-1.893906279784439e-07</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>674.3332720730156</v>
+        <v>674.3331940310774</v>
       </c>
       <c r="B580" t="n">
-        <v>-1.81236208125898e-07</v>
+        <v>-1.812357541948023e-07</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>675.4999386336956</v>
+        <v>675.4998604567367</v>
       </c>
       <c r="B581" t="n">
-        <v>-1.734324531313294e-07</v>
+        <v>-1.734320170321068e-07</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>676.6666051943755</v>
+        <v>676.6665268823959</v>
       </c>
       <c r="B582" t="n">
-        <v>-1.659647158809401e-07</v>
+        <v>-1.659642967960207e-07</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>677.8332717550554</v>
+        <v>677.8331933080552</v>
       </c>
       <c r="B583" t="n">
-        <v>-1.588185281253875e-07</v>
+        <v>-1.588181254496414e-07</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>678.9999383157354</v>
+        <v>678.9998597337145</v>
       </c>
       <c r="B584" t="n">
-        <v>-1.519800442601785e-07</v>
+        <v>-1.519796573868735e-07</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>680.1666048764154</v>
+        <v>680.1665261593738</v>
       </c>
       <c r="B585" t="n">
-        <v>-1.454360150966481e-07</v>
+        <v>-1.454356434175184e-07</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>681.3332714370954</v>
+        <v>681.3331925850332</v>
       </c>
       <c r="B586" t="n">
-        <v>-1.391737619541095e-07</v>
+        <v>-1.391734047523651e-07</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>682.4999379977753</v>
+        <v>682.4998590106925</v>
       </c>
       <c r="B587" t="n">
-        <v>-1.331811518225772e-07</v>
+        <v>-1.331808085941382e-07</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>683.6666045584552</v>
+        <v>683.6665254363518</v>
       </c>
       <c r="B588" t="n">
-        <v>-1.274465742384052e-07</v>
+        <v>-1.274462445849052e-07</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>684.8332711191352</v>
+        <v>684.8331918620111</v>
       </c>
       <c r="B589" t="n">
-        <v>-1.219589190163829e-07</v>
+        <v>-1.219586021099408e-07</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>685.9999376798152</v>
+        <v>685.9998582876703</v>
       </c>
       <c r="B590" t="n">
-        <v>-1.167075537677171e-07</v>
+        <v>-1.167072493145075e-07</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>687.1666042404951</v>
+        <v>687.1665247133296</v>
       </c>
       <c r="B591" t="n">
-        <v>-1.116823043085588e-07</v>
+        <v>-1.116820119065216e-07</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>688.3332708011751</v>
+        <v>688.3331911389889</v>
       </c>
       <c r="B592" t="n">
-        <v>-1.068734344261867e-07</v>
+        <v>-1.068731534580205e-07</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>689.499937361855</v>
+        <v>689.4998575646483</v>
       </c>
       <c r="B593" t="n">
-        <v>-1.022716271439922e-07</v>
+        <v>-1.022713573124889e-07</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>690.666603922535</v>
+        <v>690.6665239903076</v>
       </c>
       <c r="B594" t="n">
-        <v>-9.786796673586434e-08</v>
+        <v>-9.786770742161252e-08</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>691.833270483215</v>
+        <v>691.8331904159669</v>
       </c>
       <c r="B595" t="n">
-        <v>-9.365392116880445e-08</v>
+        <v>-9.365367207257689e-08</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>692.9999370438949</v>
+        <v>692.9998568416262</v>
       </c>
       <c r="B596" t="n">
-        <v>-8.962132604434152e-08</v>
+        <v>-8.962108675890888e-08</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>694.1666036045749</v>
+        <v>694.1665232672855</v>
       </c>
       <c r="B597" t="n">
-        <v>-8.576236832583328e-08</v>
+        <v>-8.576213844306199e-08</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>695.3332701652548</v>
+        <v>695.3331896929448</v>
       </c>
       <c r="B598" t="n">
-        <v>-8.206957135045395e-08</v>
+        <v>-8.206935056840239e-08</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>696.4999367259348</v>
+        <v>696.499856118604</v>
       </c>
       <c r="B599" t="n">
-        <v>-7.853578069763994e-08</v>
+        <v>-7.853556849942402e-08</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>697.6666032866148</v>
+        <v>697.6665225442634</v>
       </c>
       <c r="B600" t="n">
-        <v>-7.515414962930654e-08</v>
+        <v>-7.515394581842154e-08</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>698.8332698472947</v>
+        <v>698.8331889699227</v>
       </c>
       <c r="B601" t="n">
-        <v>-7.191812645709483e-08</v>
+        <v>-7.191793062216326e-08</v>
       </c>
     </row>
   </sheetData>

--- a/mdott.xlsx
+++ b/mdott.xlsx
@@ -450,4799 +450,4799 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01781220700464644</v>
+        <v>0.01994771110920876</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.166666425659303</v>
+        <v>1.017377804163516</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01742872366888823</v>
+        <v>0.01955834539385638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.333332851318607</v>
+        <v>2.034755608327031</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01705349643911214</v>
+        <v>0.01917657983169762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.49999927697791</v>
+        <v>3.052133412490547</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01668634756760488</v>
+        <v>0.01880226607292584</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.666665702637213</v>
+        <v>4.069511216654062</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01632710313342691</v>
+        <v>0.01843525866342157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.833332128296517</v>
+        <v>5.086889020817578</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01597559296002496</v>
+        <v>0.0180754149882304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.99999855395582</v>
+        <v>6.104266824981093</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0156316505346183</v>
+        <v>0.0177225952161446</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.166664979615124</v>
+        <v>7.121644629144608</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01529511292931991</v>
+        <v>0.01737666224536638</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.333331405274427</v>
+        <v>8.139022433308124</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01496582072395744</v>
+        <v>0.01703748165023127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.49999783093373</v>
+        <v>9.15640023747164</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01464361793055377</v>
+        <v>0.01670492162897234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.66666425659303</v>
+        <v>10.17377804163516</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01432835191943497</v>
+        <v>0.01637885295250305</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.83333068225234</v>
+        <v>11.19115584579867</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01401987334692857</v>
+        <v>0.01605914891420066</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.99999710791164</v>
+        <v>12.20853364996219</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01371803608461829</v>
+        <v>0.01574568528066942</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.16666353357094</v>
+        <v>13.2259114541257</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01342269715012206</v>
+        <v>0.01543834024346391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16.33332995923025</v>
+        <v>14.24328925828922</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01313371663935993</v>
+        <v>0.0151369943717576</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17.49999638488955</v>
+        <v>15.26066706245273</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01285095766028174</v>
+        <v>0.01484153056593153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18.66666281054885</v>
+        <v>16.27804486661625</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01257428626801877</v>
+        <v>0.01455183401207178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19.83332923620816</v>
+        <v>17.29542267077976</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01230357140143424</v>
+        <v>0.01426779213735364</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.99999566186746</v>
+        <v>18.31280047494328</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01203868482103855</v>
+        <v>0.01398929456629664</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22.16666208752676</v>
+        <v>19.3301782791068</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01177950104824132</v>
+        <v>0.01371623307787506</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23.33332851318607</v>
+        <v>20.34755608327031</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01152589730591062</v>
+        <v>0.0134485015634639</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24.49999493884537</v>
+        <v>21.36493388743382</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01127775346021396</v>
+        <v>0.01318599598560553</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25.66666136450467</v>
+        <v>22.38231169159734</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01103495196370917</v>
+        <v>0.01292861433758286</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26.83332779016398</v>
+        <v>23.39968949576086</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01079737779966142</v>
+        <v>0.01267625660378018</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27.99999421582328</v>
+        <v>24.41706729992437</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01056491842755917</v>
+        <v>0.01242882472081891</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29.16666064148258</v>
+        <v>25.43444510408789</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01033746372980311</v>
+        <v>0.01218622253944989</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30.33332706714189</v>
+        <v>26.4518229082514</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01011490595954189</v>
+        <v>0.01194835578719244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31.49999349280119</v>
+        <v>27.46920071241492</v>
       </c>
       <c r="B29" t="n">
-        <v>0.009897139689633195</v>
+        <v>0.01171513203170014</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32.6666599184605</v>
+        <v>28.48657851657843</v>
       </c>
       <c r="B30" t="n">
-        <v>0.009684061762700483</v>
+        <v>0.01148646064484295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33.8333263441198</v>
+        <v>29.50395632074195</v>
       </c>
       <c r="B31" t="n">
-        <v>0.009475571242267994</v>
+        <v>0.01126225276748984</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>34.9999927697791</v>
+        <v>30.52133412490547</v>
       </c>
       <c r="B32" t="n">
-        <v>0.009271569364945987</v>
+        <v>0.01104242127497998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36.16665919543841</v>
+        <v>31.53871192906898</v>
       </c>
       <c r="B33" t="n">
-        <v>0.009071959493645011</v>
+        <v>0.01082688074326612</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37.33332562109771</v>
+        <v>32.5560897332325</v>
       </c>
       <c r="B34" t="n">
-        <v>0.008876647071799722</v>
+        <v>0.01061554741572017</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>38.49999204675701</v>
+        <v>33.57346753739601</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008685539578575928</v>
+        <v>0.0104083391705861</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>39.66665847241632</v>
+        <v>34.59084534155953</v>
       </c>
       <c r="B36" t="n">
-        <v>0.008498546485042847</v>
+        <v>0.01020517548906891</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>40.83332489807562</v>
+        <v>35.60822314572304</v>
       </c>
       <c r="B37" t="n">
-        <v>0.008315579211288974</v>
+        <v>0.01000597742404582</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>41.99999132373492</v>
+        <v>36.62560094988656</v>
       </c>
       <c r="B38" t="n">
-        <v>0.008136551084461425</v>
+        <v>0.009810667569386904</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.16665774939423</v>
+        <v>37.64297875405008</v>
       </c>
       <c r="B39" t="n">
-        <v>0.007961377297708194</v>
+        <v>0.009619170029878461</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44.33332417505353</v>
+        <v>38.66035655821359</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00778997487000472</v>
+        <v>0.009431410391728819</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45.49999060071283</v>
+        <v>39.67773436237711</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00762226260684481</v>
+        <v>0.009247315693652865</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>46.66665702637214</v>
+        <v>40.69511216654062</v>
       </c>
       <c r="B42" t="n">
-        <v>0.007458161061778836</v>
+        <v>0.009066814398520045</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>47.83332345203144</v>
+        <v>41.71248997070413</v>
       </c>
       <c r="B43" t="n">
-        <v>0.007297592498778825</v>
+        <v>0.008889836365555584</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>48.99998987769074</v>
+        <v>42.72986777486765</v>
       </c>
       <c r="B44" t="n">
-        <v>0.007140480855415054</v>
+        <v>0.008716312823085538</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50.16665630335005</v>
+        <v>43.74724557903117</v>
       </c>
       <c r="B45" t="n">
-        <v>0.006986751706824008</v>
+        <v>0.008546176341811233</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>51.33332272900935</v>
+        <v>44.76462338319468</v>
       </c>
       <c r="B46" t="n">
-        <v>0.006836332230453357</v>
+        <v>0.008379360808608639</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52.49998915466865</v>
+        <v>45.7820011873582</v>
       </c>
       <c r="B47" t="n">
-        <v>0.006689151171564689</v>
+        <v>0.008215801400836014</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53.66665558032796</v>
+        <v>46.79937899152171</v>
       </c>
       <c r="B48" t="n">
-        <v>0.006545138809481143</v>
+        <v>0.008055434561146348</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>54.83332200598726</v>
+        <v>47.81675679568523</v>
       </c>
       <c r="B49" t="n">
-        <v>0.006404226924558323</v>
+        <v>0.0078981979727877</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>55.99998843164656</v>
+        <v>48.83413459984875</v>
       </c>
       <c r="B50" t="n">
-        <v>0.006266348765869716</v>
+        <v>0.007744030535389178</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>57.16665485730586</v>
+        <v>49.85151240401226</v>
       </c>
       <c r="B51" t="n">
-        <v>0.006131439019585403</v>
+        <v>0.007592872341217877</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>58.33332128296517</v>
+        <v>50.86889020817578</v>
       </c>
       <c r="B52" t="n">
-        <v>0.005999433778033159</v>
+        <v>0.007444664651897884</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>59.49998770862447</v>
+        <v>51.88626801233929</v>
       </c>
       <c r="B53" t="n">
-        <v>0.005870270509424166</v>
+        <v>0.00729934987558723</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>60.66665413428377</v>
+        <v>52.90364581650281</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005743888028231774</v>
+        <v>0.007156871544597026</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>61.83332055994308</v>
+        <v>53.92102362066633</v>
       </c>
       <c r="B55" t="n">
-        <v>0.005620226466207887</v>
+        <v>0.00701717429344913</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>62.99998698560238</v>
+        <v>54.93840142482984</v>
       </c>
       <c r="B56" t="n">
-        <v>0.00549922724402201</v>
+        <v>0.006880203837362027</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>64.16665341126168</v>
+        <v>55.95577922899336</v>
       </c>
       <c r="B57" t="n">
-        <v>0.005380833043512217</v>
+        <v>0.006745906951156073</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>65.33331983692099</v>
+        <v>56.97315703315687</v>
       </c>
       <c r="B58" t="n">
-        <v>0.005264987780533514</v>
+        <v>0.006614231448570263</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66.49998626258029</v>
+        <v>57.99053483732038</v>
       </c>
       <c r="B59" t="n">
-        <v>0.005151636578390083</v>
+        <v>0.00648512616198485</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67.66665268823959</v>
+        <v>59.0079126414839</v>
       </c>
       <c r="B60" t="n">
-        <v>0.005040725741839641</v>
+        <v>0.006358540922536344</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68.8333191138989</v>
+        <v>60.02529044564741</v>
       </c>
       <c r="B61" t="n">
-        <v>0.004932202731657928</v>
+        <v>0.006234426540623142</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69.9999855395582</v>
+        <v>61.04266824981093</v>
       </c>
       <c r="B62" t="n">
-        <v>0.004826016139750674</v>
+        <v>0.006112734786791738</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>71.1666519652175</v>
+        <v>62.06004605397445</v>
       </c>
       <c r="B63" t="n">
-        <v>0.004722115664800443</v>
+        <v>0.005993418372994184</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>72.33331839087681</v>
+        <v>63.07742385813796</v>
       </c>
       <c r="B64" t="n">
-        <v>0.004620452088439532</v>
+        <v>0.005876430934213352</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>73.49998481653611</v>
+        <v>64.09480166230148</v>
       </c>
       <c r="B65" t="n">
-        <v>0.004520977251934201</v>
+        <v>0.00576172701044521</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>74.66665124219541</v>
+        <v>65.11217946646499</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004423644033372047</v>
+        <v>0.005649262029034412</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>75.83331766785471</v>
+        <v>66.12955727062851</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00432840632533951</v>
+        <v>0.005538992287352906</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>76.99998409351402</v>
+        <v>67.14693507479203</v>
       </c>
       <c r="B68" t="n">
-        <v>0.004235219013080902</v>
+        <v>0.005430874935818843</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>78.16665051917333</v>
+        <v>68.16431287895554</v>
       </c>
       <c r="B69" t="n">
-        <v>0.004144037953126788</v>
+        <v>0.005324867961244265</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>79.33331694483263</v>
+        <v>69.18169068311906</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004054819952383994</v>
+        <v>0.005220930170510572</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>80.49998337049193</v>
+        <v>70.19906848728257</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003967522747672897</v>
+        <v>0.005119021174560238</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>81.66664979615123</v>
+        <v>71.21644629144609</v>
       </c>
       <c r="B72" t="n">
-        <v>0.003882104985709009</v>
+        <v>0.005019101372703055</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>82.83331622181053</v>
+        <v>72.23382409560961</v>
       </c>
       <c r="B73" t="n">
-        <v>0.003798526203512354</v>
+        <v>0.004921131937226843</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>83.99998264746984</v>
+        <v>73.25120189977312</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003716746809240371</v>
+        <v>0.004825074798310406</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>85.16664907312915</v>
+        <v>74.26857970393664</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003636728063432983</v>
+        <v>0.004730892629229163</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>86.33331549878845</v>
+        <v>75.28595750810015</v>
       </c>
       <c r="B76" t="n">
-        <v>0.003558432060660843</v>
+        <v>0.004638548831850515</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>87.49998192444775</v>
+        <v>76.30333531226367</v>
       </c>
       <c r="B77" t="n">
-        <v>0.003481821711570767</v>
+        <v>0.004548007522413041</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>88.66664835010705</v>
+        <v>77.32071311642719</v>
       </c>
       <c r="B78" t="n">
-        <v>0.003406860725314638</v>
+        <v>0.004459233517581186</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>89.83331477576635</v>
+        <v>78.3380909205907</v>
       </c>
       <c r="B79" t="n">
-        <v>0.003333513592358802</v>
+        <v>0.004372192320774707</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>90.99998120142565</v>
+        <v>79.35546872475422</v>
       </c>
       <c r="B80" t="n">
-        <v>0.003261745567663232</v>
+        <v>0.004286850108762786</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>92.16664762708497</v>
+        <v>80.37284652891773</v>
       </c>
       <c r="B81" t="n">
-        <v>0.003191522654222115</v>
+        <v>0.004203173718520888</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>93.33331405274427</v>
+        <v>81.39022433308125</v>
       </c>
       <c r="B82" t="n">
-        <v>0.003122811586959667</v>
+        <v>0.004121130634344178</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>94.49998047840357</v>
+        <v>82.40760213724475</v>
       </c>
       <c r="B83" t="n">
-        <v>0.003055579816971729</v>
+        <v>0.004040688975212627</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>95.66664690406287</v>
+        <v>83.42497994140827</v>
       </c>
       <c r="B84" t="n">
-        <v>0.002989795496108029</v>
+        <v>0.003961817482401396</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>96.83331332972217</v>
+        <v>84.44235774557178</v>
       </c>
       <c r="B85" t="n">
-        <v>0.002925427461883745</v>
+        <v>0.003884485507335039</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>97.99997975538147</v>
+        <v>85.4597355497353</v>
       </c>
       <c r="B86" t="n">
-        <v>0.002862445222719954</v>
+        <v>0.003808662999676928</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>99.16664618104079</v>
+        <v>86.47711335389882</v>
       </c>
       <c r="B87" t="n">
-        <v>0.002800818943497757</v>
+        <v>0.003734320495652907</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>100.3333126067001</v>
+        <v>87.49449115806233</v>
       </c>
       <c r="B88" t="n">
-        <v>0.002740519431425647</v>
+        <v>0.00366142910660159</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>101.4999790323594</v>
+        <v>88.51186896222585</v>
       </c>
       <c r="B89" t="n">
-        <v>0.002681518122211145</v>
+        <v>0.003589960507748326</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>102.6666454580187</v>
+        <v>89.52924676638936</v>
       </c>
       <c r="B90" t="n">
-        <v>0.002623787066529404</v>
+        <v>0.00351988692719892</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>103.833311883678</v>
+        <v>90.54662457055288</v>
       </c>
       <c r="B91" t="n">
-        <v>0.002567298916783012</v>
+        <v>0.003451181135147708</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>104.9999783093373</v>
+        <v>91.5640023747164</v>
       </c>
       <c r="B92" t="n">
-        <v>0.002512026914147852</v>
+        <v>0.003383816433295806</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>106.1666447349966</v>
+        <v>92.58138017887991</v>
       </c>
       <c r="B93" t="n">
-        <v>0.002457944875897523</v>
+        <v>0.00331776664447757</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>107.3333111606559</v>
+        <v>93.59875798304343</v>
       </c>
       <c r="B94" t="n">
-        <v>0.002405027182998833</v>
+        <v>0.00325300610248717</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>108.4999775863152</v>
+        <v>94.61613578720694</v>
       </c>
       <c r="B95" t="n">
-        <v>0.002353248767977934</v>
+        <v>0.003189509642106004</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>109.6666440119745</v>
+        <v>95.63351359137046</v>
       </c>
       <c r="B96" t="n">
-        <v>0.00230258510304424</v>
+        <v>0.003127252589323352</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>110.8333104376338</v>
+        <v>96.65089139553398</v>
       </c>
       <c r="B97" t="n">
-        <v>0.00225301218847194</v>
+        <v>0.003066210751747807</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111.9999768632931</v>
+        <v>97.66826919969749</v>
       </c>
       <c r="B98" t="n">
-        <v>0.002204506541231801</v>
+        <v>0.00300636040920777</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>113.1666432889524</v>
+        <v>98.68564700386101</v>
       </c>
       <c r="B99" t="n">
-        <v>0.002157045183865352</v>
+        <v>0.002947678304532895</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>114.3333097146117</v>
+        <v>99.70302480802452</v>
       </c>
       <c r="B100" t="n">
-        <v>0.002110605633602083</v>
+        <v>0.002890141634516502</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>115.499976140271</v>
+        <v>100.720402612188</v>
       </c>
       <c r="B101" t="n">
-        <v>0.002065165891708756</v>
+        <v>0.002833728041055505</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>116.6666425659303</v>
+        <v>101.7377804163516</v>
       </c>
       <c r="B102" t="n">
-        <v>0.002020704433067374</v>
+        <v>0.002778415602461232</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>117.8333089915896</v>
+        <v>102.7551582205151</v>
       </c>
       <c r="B103" t="n">
-        <v>0.00197720019598034</v>
+        <v>0.002724182824942363</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>118.9999754172489</v>
+        <v>103.7725360246786</v>
       </c>
       <c r="B104" t="n">
-        <v>0.001934632572191864</v>
+        <v>0.002671008634250659</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120.1666418429082</v>
+        <v>104.7899138288421</v>
       </c>
       <c r="B105" t="n">
-        <v>0.00189298139712648</v>
+        <v>0.002618872367493407</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>121.3333082685675</v>
+        <v>105.8072916330056</v>
       </c>
       <c r="B106" t="n">
-        <v>0.001852226940336978</v>
+        <v>0.002567753765103252</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>122.4999746942269</v>
+        <v>106.8246694371691</v>
       </c>
       <c r="B107" t="n">
-        <v>0.001812349896157227</v>
+        <v>0.002517632962965906</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>123.6666411198862</v>
+        <v>107.8420472413327</v>
       </c>
       <c r="B108" t="n">
-        <v>0.001773331374558211</v>
+        <v>0.002468490484700824</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>124.8333075455455</v>
+        <v>108.8594250454962</v>
       </c>
       <c r="B109" t="n">
-        <v>0.001735152892198037</v>
+        <v>0.002420307234093623</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>125.9999739712048</v>
+        <v>109.8768028496597</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001697796363668081</v>
+        <v>0.002373064487674344</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>127.1666403968641</v>
+        <v>110.8941806538232</v>
       </c>
       <c r="B111" t="n">
-        <v>0.00166124409292434</v>
+        <v>0.002326743887443037</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>128.3333068225234</v>
+        <v>111.9115584579867</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001625478764905493</v>
+        <v>0.002281327433734803</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>129.4999732481827</v>
+        <v>112.9289362621502</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001590483437329958</v>
+        <v>0.002236797478226273</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130.666639673842</v>
+        <v>113.9463140663137</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0015562415326711</v>
+        <v>0.002193136717077368</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>131.8333060995013</v>
+        <v>114.9636918704772</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001522736830303937</v>
+        <v>0.002150328184206878</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>132.9999725251606</v>
+        <v>115.9810696746408</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001489953458820998</v>
+        <v>0.002108355244700133</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>134.1666389508199</v>
+        <v>116.9984474788043</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001457875888513913</v>
+        <v>0.002067201588344363</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>135.3333053764792</v>
+        <v>118.0158252829678</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001426488924018142</v>
+        <v>0.002026851223291721</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>136.4999718021385</v>
+        <v>119.0332030871313</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001395777697112745</v>
+        <v>0.001987288469843364</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>137.6666382277978</v>
+        <v>120.0505808912948</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001365727659679003</v>
+        <v>0.001948497954358506</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>138.8333046534571</v>
+        <v>121.0679586954583</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001336324576808079</v>
+        <v>0.001910464603278384</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>139.9999710791164</v>
+        <v>122.0853364996219</v>
       </c>
       <c r="B122" t="n">
-        <v>0.001307554520057908</v>
+        <v>0.001873173637270283</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>141.1666375047757</v>
+        <v>123.1027143037854</v>
       </c>
       <c r="B123" t="n">
-        <v>0.00127940386085526</v>
+        <v>0.00183661056548427</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>142.333303930435</v>
+        <v>124.1200921079489</v>
       </c>
       <c r="B124" t="n">
-        <v>0.00125185926403933</v>
+        <v>0.001800761179921149</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>143.4999703560943</v>
+        <v>125.1374699121124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.001224907681546007</v>
+        <v>0.001765611549912869</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>144.6666367817536</v>
+        <v>126.1548477162759</v>
       </c>
       <c r="B126" t="n">
-        <v>0.00119853634622574</v>
+        <v>0.001731148016708515</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>145.8333032074129</v>
+        <v>127.1722255204394</v>
       </c>
       <c r="B127" t="n">
-        <v>0.001172732765795884</v>
+        <v>0.00169735718816588</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>146.9999696330722</v>
+        <v>128.189603324603</v>
       </c>
       <c r="B128" t="n">
-        <v>0.001147484716923421</v>
+        <v>0.001664225933549344</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>148.1666360587315</v>
+        <v>129.2069811287665</v>
       </c>
       <c r="B129" t="n">
-        <v>0.001122780239434242</v>
+        <v>0.001631741378425239</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>149.3333024843908</v>
+        <v>130.22435893293</v>
       </c>
       <c r="B130" t="n">
-        <v>0.001098607630648103</v>
+        <v>0.001599890899661073</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>150.4999689100501</v>
+        <v>131.2417367370935</v>
       </c>
       <c r="B131" t="n">
-        <v>0.00107495543983413</v>
+        <v>0.001568662120518297</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>151.6666353357094</v>
+        <v>132.259114541257</v>
       </c>
       <c r="B132" t="n">
-        <v>0.001051812462787515</v>
+        <v>0.001538042905844518</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>152.8333017613687</v>
+        <v>133.2764923454205</v>
       </c>
       <c r="B133" t="n">
-        <v>0.001029167736521186</v>
+        <v>0.001508021357357295</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>153.999968187028</v>
+        <v>134.2938701495841</v>
       </c>
       <c r="B134" t="n">
-        <v>0.00100701053407268</v>
+        <v>0.001478585809020007</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>155.1666346126873</v>
+        <v>135.3112479537476</v>
       </c>
       <c r="B135" t="n">
-        <v>0.000985330359423415</v>
+        <v>0.001449724822509312</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>156.3333010383467</v>
+        <v>136.3286257579111</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0009641169425256696</v>
+        <v>0.001421427182770742</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>157.4999674640059</v>
+        <v>137.3460035620746</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0009433602344387581</v>
+        <v>0.001393681893659019</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>158.6666338896653</v>
+        <v>138.3633813662381</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0009230504025673384</v>
+        <v>0.001366478173666995</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>159.8333003153245</v>
+        <v>139.3807591704016</v>
       </c>
       <c r="B139" t="n">
-        <v>0.000903177826004636</v>
+        <v>0.001339805451734406</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>160.9999667409839</v>
+        <v>140.3981369745651</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0008837330909750171</v>
+        <v>0.001313653363141811</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>162.1666331666432</v>
+        <v>141.4155147787287</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0008647069863739837</v>
+        <v>0.001288011745481394</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>163.3332995923025</v>
+        <v>142.4328925828922</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0008460904994049493</v>
+        <v>0.001262870634708539</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>164.4999660179618</v>
+        <v>143.4502703870557</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0008278748113108662</v>
+        <v>0.001238220261270263</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>165.6666324436211</v>
+        <v>144.4676481912192</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0008100512931949246</v>
+        <v>0.001214051046308532</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>166.8332988692804</v>
+        <v>145.4850259953827</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0007926115019346064</v>
+        <v>0.001190353597937976</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>167.9999652949397</v>
+        <v>146.5024037995462</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0007755471761807419</v>
+        <v>0.001167118707596772</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>169.166631720599</v>
+        <v>147.5197816037098</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0007588502324452093</v>
+        <v>0.00114433734646726</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>170.3332981462583</v>
+        <v>148.5371594078733</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0007425127612714981</v>
+        <v>0.001122000661968743</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>171.4999645719176</v>
+        <v>149.5545372120368</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0007265270234872767</v>
+        <v>0.001100099974316829</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>172.6666309975769</v>
+        <v>150.5719150162003</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0007108854465387527</v>
+        <v>0.001078626773150294</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>173.8332974232362</v>
+        <v>151.5892928203638</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0006955806209038268</v>
+        <v>0.00105757271422473</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>174.9999638488955</v>
+        <v>152.6066706245273</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006806052965814721</v>
+        <v>0.001036929616169293</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>176.1666302745548</v>
+        <v>153.6240484286909</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006659523796575516</v>
+        <v>0.001016689457307786</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>177.3332967002141</v>
+        <v>154.6414262328544</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006516149289453619</v>
+        <v>0.0009968443725425931</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>178.4999631258734</v>
+        <v>155.6588040370179</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006375861526955503</v>
+        <v>0.0009773866502963168</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>179.6666295515327</v>
+        <v>156.6761818411814</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0006238594053809715</v>
+        <v>0.0009583087295172527</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>180.833295977192</v>
+        <v>157.6935596453449</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0006104281845470633</v>
+        <v>0.0009396031967393735</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>181.9999624028513</v>
+        <v>158.7109374495084</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0005972861277322387</v>
+        <v>0.0009212627832029599</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>183.1666288285106</v>
+        <v>159.728315253672</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0005844270094542235</v>
+        <v>0.0009032803620297383</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>184.3332952541699</v>
+        <v>160.7456930578355</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0005718447382604163</v>
+        <v>0.0008856489454525293</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>185.4999616798292</v>
+        <v>161.763070861999</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0005595333538426948</v>
+        <v>0.0008683616821013664</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>186.6666281054885</v>
+        <v>162.7804486661625</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0005474870242134604</v>
+        <v>0.0008514118543399512</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>187.8332945311478</v>
+        <v>163.797826470326</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0005357000429442036</v>
+        <v>0.0008347928756556329</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>188.9999609568071</v>
+        <v>164.8152042744895</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0005241668264605958</v>
+        <v>0.0008184982881002151</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>190.1666273824665</v>
+        <v>165.832582078653</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0005128819113992458</v>
+        <v>0.0008025217597798681</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>191.3332938081257</v>
+        <v>166.8499598828165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0005018399520179851</v>
+        <v>0.0007868570823956209</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>192.4999602337851</v>
+        <v>167.8673376869801</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0004910357176654631</v>
+        <v>0.0007714981688295233</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>193.6666266594443</v>
+        <v>168.8847154911436</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0004804640903012732</v>
+        <v>0.0007564390507806507</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>194.8332930851037</v>
+        <v>169.9020932953071</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0004701200620730329</v>
+        <v>0.0007416738764448138</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>195.9999595107629</v>
+        <v>170.9194710994706</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0004599987329439956</v>
+        <v>0.0007271969082414113</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>197.1666259364223</v>
+        <v>171.9368489036341</v>
       </c>
       <c r="B171" t="n">
-        <v>0.000450095308370765</v>
+        <v>0.0007130025205830039</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>198.3332923620816</v>
+        <v>172.9542267077976</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0004404050970330389</v>
+        <v>0.00069908519769056</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>199.4999587877409</v>
+        <v>173.9716045119611</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0004309235086117435</v>
+        <v>0.0006854395314482295</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>200.6666252134002</v>
+        <v>174.9889823161247</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0004216460516129877</v>
+        <v>0.0006720602193040347</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>201.8332916390595</v>
+        <v>176.0063601202882</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0004125683312416921</v>
+        <v>0.0006589420622073894</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>202.9999580647188</v>
+        <v>177.0237379244517</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0004036860473197541</v>
+        <v>0.000646079962589833</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>204.1666244903781</v>
+        <v>178.0411157286152</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003949949922481061</v>
+        <v>0.0006334689223843127</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>205.3332909160374</v>
+        <v>179.0584935327787</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003864910490143803</v>
+        <v>0.000621104041082033</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>206.4999573416967</v>
+        <v>180.0758713369422</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003781701892423254</v>
+        <v>0.0006089805138290808</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>207.666623767356</v>
+        <v>181.0932491411058</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0003700284712836187</v>
+        <v>0.00059709362955939</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>208.8332901930153</v>
+        <v>182.1106269452693</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0003620620383503598</v>
+        <v>0.0005854387691630626</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>209.9999566186746</v>
+        <v>183.1280047494328</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0003542671166888872</v>
+        <v>0.0005740114036922566</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>211.1666230443339</v>
+        <v>184.1453825535963</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0003466400137914953</v>
+        <v>0.0005628070926012027</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>212.3332894699932</v>
+        <v>185.1627603577598</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0003391771166466898</v>
+        <v>0.0005518214820208417</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>213.4999558956525</v>
+        <v>186.1801381619233</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0003318748900292702</v>
+        <v>0.0005410503030661177</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>214.6666223213118</v>
+        <v>187.1975159660869</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0003247298748242413</v>
+        <v>0.0005304893701781366</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>215.8332887469711</v>
+        <v>188.2148937702504</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0003177386863890511</v>
+        <v>0.0005201345794967713</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>216.9999551726304</v>
+        <v>189.2322715744139</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0003108980129494461</v>
+        <v>0.00050998190726715</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>218.1666215982897</v>
+        <v>190.2496493785774</v>
       </c>
       <c r="B189" t="n">
-        <v>0.000304204614031724</v>
+        <v>0.000500027408274627</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>219.333288023949</v>
+        <v>191.2670271827409</v>
       </c>
       <c r="B190" t="n">
-        <v>0.000297655318926891</v>
+        <v>0.0004902672143128996</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>220.4999544496083</v>
+        <v>192.2844049869044</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0002912470251888629</v>
+        <v>0.0004806975326801171</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>221.6666208752676</v>
+        <v>193.301782791068</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0002849766971649972</v>
+        <v>0.0004713146447059254</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>222.8332873009269</v>
+        <v>194.3191605952315</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0002788413645578858</v>
+        <v>0.000462114904305276</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>223.9999537265862</v>
+        <v>195.336538399395</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0002728381210181954</v>
+        <v>0.0004530947365624353</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>225.1666201522455</v>
+        <v>196.3539162035585</v>
       </c>
       <c r="B195" t="n">
-        <v>0.000266964122768339</v>
+        <v>0.0004442506363417565</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>226.3332865779049</v>
+        <v>197.371294007722</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0002612165872552675</v>
+        <v>0.0004355791669252154</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>227.4999530035641</v>
+        <v>198.3886718118855</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0002555927918315247</v>
+        <v>0.0004270769586771999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>228.6666194292235</v>
+        <v>199.406049616049</v>
       </c>
       <c r="B198" t="n">
-        <v>0.000250090072467135</v>
+        <v>0.0004187407077350807</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>229.8332858548827</v>
+        <v>200.4234274202126</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002447058224861127</v>
+        <v>0.0004105671747255627</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>230.9999522805421</v>
+        <v>201.4408052243761</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002394374913318789</v>
+        <v>0.0004025531835055903</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>232.1666187062014</v>
+        <v>202.4581830285396</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002342825833602978</v>
+        <v>0.0003946956199282968</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>233.3332851318607</v>
+        <v>203.4755608327031</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002292386566556234</v>
+        <v>0.0003869914306327701</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>234.49995155752</v>
+        <v>204.4929386368666</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0002243033218757805</v>
+        <v>0.0003794376218573905</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>235.6666179831793</v>
+        <v>205.5103164410301</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002194742411181999</v>
+        <v>0.0003720312582772299</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>236.8332844088386</v>
+        <v>206.5276942451937</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002147491268145596</v>
+        <v>0.0003647694618628132</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>237.9999508344979</v>
+        <v>207.5450720493572</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002101257406456525</v>
+        <v>0.0003576494107612225</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>239.1666172601572</v>
+        <v>208.5624498535207</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002056018924819482</v>
+        <v>0.0003506683382007728</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>240.3332836858165</v>
+        <v>209.5798276576842</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002011754393451373</v>
+        <v>0.0003438235314153306</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>241.4999501114758</v>
+        <v>210.5972054618477</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0001968442843942997</v>
+        <v>0.0003371123305897482</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>242.6666165371351</v>
+        <v>211.6145832660112</v>
       </c>
       <c r="B210" t="n">
-        <v>0.000192606375931771</v>
+        <v>0.0003305321278269045</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>243.8332829627944</v>
+        <v>212.6319610701748</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0001884597064308483</v>
+        <v>0.0003240803661338983</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>244.9999493884537</v>
+        <v>213.6493388743383</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0001844023115857647</v>
+        <v>0.0003177545384286202</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>246.166615814113</v>
+        <v>214.6667166785018</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0001804322693809333</v>
+        <v>0.0003115521865654759</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>247.3332822397723</v>
+        <v>215.6840944826653</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0001765476991803182</v>
+        <v>0.0003054709003805076</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>248.4999486654316</v>
+        <v>216.7014722868288</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0001727467608358624</v>
+        <v>0.0002995083167539471</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>249.6666150910909</v>
+        <v>217.7188500909923</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0001690276538173258</v>
+        <v>0.0002936621186929037</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>250.8332815167502</v>
+        <v>218.7362278951558</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0001653886163581829</v>
+        <v>0.0002879300344307475</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>251.9999479424095</v>
+        <v>219.7536056993194</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0001618279246212187</v>
+        <v>0.0002823098365436807</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>253.1666143680688</v>
+        <v>220.7709835034829</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0001583438918825381</v>
+        <v>0.000276799341085969</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>254.3332807937281</v>
+        <v>221.7883613076464</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0001549348677318487</v>
+        <v>0.000271396406741378</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>255.4999472193874</v>
+        <v>222.8057391118099</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0001515992372909426</v>
+        <v>0.0002660989339898339</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>256.6666136450467</v>
+        <v>223.8231169159734</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0001483354204488796</v>
+        <v>0.0002609048642932339</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>257.8332800707061</v>
+        <v>224.8404947201369</v>
       </c>
       <c r="B223" t="n">
-        <v>0.0001451418711134429</v>
+        <v>0.0002558121792947625</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>258.9999464963653</v>
+        <v>225.8578725243005</v>
       </c>
       <c r="B224" t="n">
-        <v>0.0001420170764780113</v>
+        <v>0.000250818900033676</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>260.1666129220246</v>
+        <v>226.875250328464</v>
       </c>
       <c r="B225" t="n">
-        <v>0.0001389595563062023</v>
+        <v>0.0002459230861780104</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>261.333279347684</v>
+        <v>227.8926281326275</v>
       </c>
       <c r="B226" t="n">
-        <v>0.000135967862229363</v>
+        <v>0.0002411228352695662</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>262.4999457733433</v>
+        <v>228.910005936791</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0001330405770620456</v>
+        <v>0.0002364162819850992</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>263.6666121990025</v>
+        <v>229.9273837409545</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0001301763141288319</v>
+        <v>0.0002318015974102779</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>264.8332786246619</v>
+        <v>230.944761545118</v>
       </c>
       <c r="B229" t="n">
-        <v>0.0001273737166087143</v>
+        <v>0.0002272769883310743</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>265.9999450503212</v>
+        <v>231.9621393492815</v>
       </c>
       <c r="B230" t="n">
-        <v>0.0001246314568921104</v>
+        <v>0.0002228406965349762</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>267.1666114759805</v>
+        <v>232.979517153445</v>
       </c>
       <c r="B231" t="n">
-        <v>0.0001219482359515803</v>
+        <v>0.0002184909981288952</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>268.3332779016397</v>
+        <v>233.9968949576086</v>
       </c>
       <c r="B232" t="n">
-        <v>0.000119322782727318</v>
+        <v>0.0002142262028691066</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>269.4999443272991</v>
+        <v>235.0142727617721</v>
       </c>
       <c r="B233" t="n">
-        <v>0.0001167538535239913</v>
+        <v>0.0002100446535037106</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>270.6666107529584</v>
+        <v>236.0316505659356</v>
       </c>
       <c r="B234" t="n">
-        <v>0.0001142402314219262</v>
+        <v>0.0002059447251300722</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>271.8332771786177</v>
+        <v>237.0490283700991</v>
       </c>
       <c r="B235" t="n">
-        <v>0.0001117807257013539</v>
+        <v>0.0002019248245618356</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>272.999943604277</v>
+        <v>238.0664061742626</v>
       </c>
       <c r="B236" t="n">
-        <v>0.0001093741712775762</v>
+        <v>0.0001979833897106713</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>274.1666100299363</v>
+        <v>239.0837839784261</v>
       </c>
       <c r="B237" t="n">
-        <v>0.0001070194281489786</v>
+        <v>0.0001941188889798092</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>275.3332764555956</v>
+        <v>240.1011617825897</v>
       </c>
       <c r="B238" t="n">
-        <v>0.0001047153808578899</v>
+        <v>0.000190329820667392</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>276.4999428812549</v>
+        <v>241.1185395867532</v>
       </c>
       <c r="B239" t="n">
-        <v>0.0001024609379612914</v>
+        <v>0.000186614712383825</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>277.6666093069142</v>
+        <v>242.1359173909167</v>
       </c>
       <c r="B240" t="n">
-        <v>0.0001002550315137303</v>
+        <v>0.000182972120480174</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>278.8332757325735</v>
+        <v>243.1532951950802</v>
       </c>
       <c r="B241" t="n">
-        <v>9.809661656265166e-05</v>
+        <v>0.0001794006294861399</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>279.9999421582328</v>
+        <v>244.1706729992437</v>
       </c>
       <c r="B242" t="n">
-        <v>9.598467065186731e-05</v>
+        <v>0.0001758988515603093</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>281.1666085838921</v>
+        <v>245.1880508034072</v>
       </c>
       <c r="B243" t="n">
-        <v>9.391819333808506e-05</v>
+        <v>0.0001724654259509635</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>282.3332750095514</v>
+        <v>246.2054286075708</v>
       </c>
       <c r="B244" t="n">
-        <v>9.189620571685932e-05</v>
+        <v>0.0001690990184679357</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>283.4999414352107</v>
+        <v>247.2228064117343</v>
       </c>
       <c r="B245" t="n">
-        <v>8.991774995881907e-05</v>
+        <v>0.0001657983209628175</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>284.66660786087</v>
+        <v>248.2401842158978</v>
       </c>
       <c r="B246" t="n">
-        <v>8.798188885595939e-05</v>
+        <v>0.0001625620508216868</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>285.8332742865293</v>
+        <v>249.2575620200613</v>
       </c>
       <c r="B247" t="n">
-        <v>8.608770537735374e-05</v>
+        <v>0.0001593889504664295</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>286.9999407121886</v>
+        <v>250.2749398242248</v>
       </c>
       <c r="B248" t="n">
-        <v>8.423430223557228e-05</v>
+        <v>0.0001562777868658827</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>288.1666071378479</v>
+        <v>251.2923176283883</v>
       </c>
       <c r="B249" t="n">
-        <v>8.242080146059394e-05</v>
+        <v>0.0001532273510567988</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>289.3332735635072</v>
+        <v>252.3096954325518</v>
       </c>
       <c r="B250" t="n">
-        <v>8.06463439846385e-05</v>
+        <v>0.0001502364576741408</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>290.4999399891665</v>
+        <v>253.3270732367154</v>
       </c>
       <c r="B251" t="n">
-        <v>7.891008923534902e-05</v>
+        <v>0.0001473039444902158</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>291.6666064148258</v>
+        <v>254.3444510408789</v>
       </c>
       <c r="B252" t="n">
-        <v>7.721121473668249e-05</v>
+        <v>0.0001444286719636302</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>292.8332728404852</v>
+        <v>255.3618288450424</v>
       </c>
       <c r="B253" t="n">
-        <v>7.554891572029195e-05</v>
+        <v>0.0001416095227956111</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>293.9999392661445</v>
+        <v>256.3792066492059</v>
       </c>
       <c r="B254" t="n">
-        <v>7.392240474354642e-05</v>
+        <v>0.00013884540149664</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>295.1666056918037</v>
+        <v>257.3965844533694</v>
       </c>
       <c r="B255" t="n">
-        <v>7.233091131697149e-05</v>
+        <v>0.0001361352339602066</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>296.333272117463</v>
+        <v>258.4139622575329</v>
       </c>
       <c r="B256" t="n">
-        <v>7.07736815396125e-05</v>
+        <v>0.0001334779670454024</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>297.4999385431224</v>
+        <v>259.4313400616965</v>
       </c>
       <c r="B257" t="n">
-        <v>6.924997774060682e-05</v>
+        <v>0.0001308725681683532</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>298.6666049687817</v>
+        <v>260.44871786586</v>
       </c>
       <c r="B258" t="n">
-        <v>6.775907813124786e-05</v>
+        <v>0.0001283180249005262</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>299.8332713944409</v>
+        <v>261.4660956700235</v>
       </c>
       <c r="B259" t="n">
-        <v>6.630027646218776e-05</v>
+        <v>0.0001258133445746493</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>300.9999378201003</v>
+        <v>262.483473474187</v>
       </c>
       <c r="B260" t="n">
-        <v>6.487288168877642e-05</v>
+        <v>0.0001233575539006971</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>302.1666042457596</v>
+        <v>263.5008512783505</v>
       </c>
       <c r="B261" t="n">
-        <v>6.347621764475106e-05</v>
+        <v>0.0001209496985855591</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>303.3332706714189</v>
+        <v>264.518229082514</v>
       </c>
       <c r="B262" t="n">
-        <v>6.210962272042215e-05</v>
+        <v>0.0001185888429637583</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>304.4999370970781</v>
+        <v>265.5356068866776</v>
       </c>
       <c r="B263" t="n">
-        <v>6.077244955049451e-05</v>
+        <v>0.0001162740696338157</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>305.6666035227375</v>
+        <v>266.5529846908411</v>
       </c>
       <c r="B264" t="n">
-        <v>5.946406470681294e-05</v>
+        <v>0.0001140044791000174</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>306.8332699483968</v>
+        <v>267.5703624950046</v>
       </c>
       <c r="B265" t="n">
-        <v>5.818384839860203e-05</v>
+        <v>0.0001117791894257216</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>307.9999363740561</v>
+        <v>268.5877402991681</v>
       </c>
       <c r="B266" t="n">
-        <v>5.693119417870107e-05</v>
+        <v>0.0001095973358881386</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>309.1666027997154</v>
+        <v>269.6051181033316</v>
       </c>
       <c r="B267" t="n">
-        <v>5.570550865600825e-05</v>
+        <v>0.0001074580706434232</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>310.3332692253747</v>
+        <v>270.6224959074951</v>
       </c>
       <c r="B268" t="n">
-        <v>5.450621121499076e-05</v>
+        <v>0.0001053605623969237</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>311.499935651034</v>
+        <v>271.6398737116587</v>
       </c>
       <c r="B269" t="n">
-        <v>5.333273374033348e-05</v>
+        <v>0.0001033039960810419</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>312.6666020766933</v>
+        <v>272.6572515158222</v>
       </c>
       <c r="B270" t="n">
-        <v>5.218452034736891e-05</v>
+        <v>0.0001012875725370219</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>313.8332685023526</v>
+        <v>273.6746293199857</v>
       </c>
       <c r="B271" t="n">
-        <v>5.106102711978688e-05</v>
+        <v>9.931050820508699e-05</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>314.9999349280119</v>
+        <v>274.6920071241492</v>
       </c>
       <c r="B272" t="n">
-        <v>4.996172185119841e-05</v>
+        <v>9.737203482046967e-05</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>316.1666013536712</v>
+        <v>275.7093849283127</v>
       </c>
       <c r="B273" t="n">
-        <v>4.888608379290882e-05</v>
+        <v>9.54713991141061e-05</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>317.3332677793305</v>
+        <v>276.7267627324762</v>
       </c>
       <c r="B274" t="n">
-        <v>4.783360340790019e-05</v>
+        <v>9.360786252045161e-05</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>318.4999342049898</v>
+        <v>277.7441405366397</v>
       </c>
       <c r="B275" t="n">
-        <v>4.680378212909609e-05</v>
+        <v>9.178070088996111e-05</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>319.6666006306491</v>
+        <v>278.7615183408033</v>
       </c>
       <c r="B276" t="n">
-        <v>4.579613212297925e-05</v>
+        <v>8.998920420844447e-05</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>320.8332670563084</v>
+        <v>279.7788961449668</v>
       </c>
       <c r="B277" t="n">
-        <v>4.481017605877606e-05</v>
+        <v>8.823267632010492e-05</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>321.9999334819677</v>
+        <v>280.7962739491303</v>
       </c>
       <c r="B278" t="n">
-        <v>4.384544688256585e-05</v>
+        <v>8.651043465818893e-05</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>323.166599907627</v>
+        <v>281.8136517532938</v>
       </c>
       <c r="B279" t="n">
-        <v>4.290148759545827e-05</v>
+        <v>8.48218099788281e-05</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>324.3332663332863</v>
+        <v>282.8310295574573</v>
       </c>
       <c r="B280" t="n">
-        <v>4.197785103712354e-05</v>
+        <v>8.316614610151036e-05</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>325.4999327589456</v>
+        <v>283.8484073616208</v>
       </c>
       <c r="B281" t="n">
-        <v>4.107409967488967e-05</v>
+        <v>8.154279965372536e-05</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>326.6665991846049</v>
+        <v>284.8657851657844</v>
       </c>
       <c r="B282" t="n">
-        <v>4.018980539562322e-05</v>
+        <v>7.995113982150246e-05</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>327.8332656102642</v>
+        <v>285.8831629699479</v>
       </c>
       <c r="B283" t="n">
-        <v>3.932454930274874e-05</v>
+        <v>7.839054810338646e-05</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>328.9999320359236</v>
+        <v>286.9005407741114</v>
       </c>
       <c r="B284" t="n">
-        <v>3.847792151883518e-05</v>
+        <v>7.686041807128806e-05</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>330.1665984615829</v>
+        <v>287.9179185782749</v>
       </c>
       <c r="B285" t="n">
-        <v>3.764952099032357e-05</v>
+        <v>7.536015513378961e-05</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>331.3332648872421</v>
+        <v>288.9352963824384</v>
       </c>
       <c r="B286" t="n">
-        <v>3.683895529824973e-05</v>
+        <v>7.38891763055895e-05</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>332.4999313129014</v>
+        <v>289.9526741866019</v>
       </c>
       <c r="B287" t="n">
-        <v>3.604584047196473e-05</v>
+        <v>7.244690998087466e-05</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>333.6665977385608</v>
+        <v>290.9700519907655</v>
       </c>
       <c r="B288" t="n">
-        <v>3.526980080756574e-05</v>
+        <v>7.103279571111307e-05</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>334.8332641642201</v>
+        <v>291.987429794929</v>
       </c>
       <c r="B289" t="n">
-        <v>3.451046868996698e-05</v>
+        <v>6.96462839872655e-05</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>335.9999305898793</v>
+        <v>293.0048075990925</v>
       </c>
       <c r="B290" t="n">
-        <v>3.376748441818223e-05</v>
+        <v>6.828683602666272e-05</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>337.1665970155387</v>
+        <v>294.022185403256</v>
       </c>
       <c r="B291" t="n">
-        <v>3.304049603531794e-05</v>
+        <v>6.69539235630744e-05</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>338.333263441198</v>
+        <v>295.0395632074195</v>
       </c>
       <c r="B292" t="n">
-        <v>3.23291591622063e-05</v>
+        <v>6.564702864144324e-05</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>339.4999298668573</v>
+        <v>296.056941011583</v>
       </c>
       <c r="B293" t="n">
-        <v>3.163313683339355e-05</v>
+        <v>6.436564341752973e-05</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>340.6665962925166</v>
+        <v>297.0743188157466</v>
       </c>
       <c r="B294" t="n">
-        <v>3.095209933890933e-05</v>
+        <v>6.310926995927577e-05</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>341.8332627181759</v>
+        <v>298.0916966199101</v>
       </c>
       <c r="B295" t="n">
-        <v>3.028572406603612e-05</v>
+        <v>6.187742005381533e-05</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>342.9999291438352</v>
+        <v>299.1090744240736</v>
       </c>
       <c r="B296" t="n">
-        <v>2.96336953483585e-05</v>
+        <v>6.066961501841386e-05</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>344.1665955694945</v>
+        <v>300.1264522282371</v>
       </c>
       <c r="B297" t="n">
-        <v>2.899570431545481e-05</v>
+        <v>5.948538551337184e-05</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>345.3332619951538</v>
+        <v>301.1438300324006</v>
       </c>
       <c r="B298" t="n">
-        <v>2.837144874687105e-05</v>
+        <v>5.832427136057564e-05</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>346.4999284208131</v>
+        <v>302.1612078365641</v>
       </c>
       <c r="B299" t="n">
-        <v>2.776063292802183e-05</v>
+        <v>5.718582136425817e-05</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>347.6665948464724</v>
+        <v>303.1785856407276</v>
       </c>
       <c r="B300" t="n">
-        <v>2.716296751165832e-05</v>
+        <v>5.606959313519703e-05</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>348.8332612721317</v>
+        <v>304.1959634448912</v>
       </c>
       <c r="B301" t="n">
-        <v>2.657816937912203e-05</v>
+        <v>5.497515292006876e-05</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>349.999927697791</v>
+        <v>305.2133412490547</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.03733395155635297</v>
+        <v>-0.04148300284683034</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>351.1665941234503</v>
+        <v>306.2307190532182</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.03572640811424848</v>
+        <v>-0.0398635630033322</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>352.3332605491096</v>
+        <v>307.2480968573817</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.03418808305944358</v>
+        <v>-0.03830734388221991</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>353.4999269747689</v>
+        <v>308.2654746615452</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.03271599595295612</v>
+        <v>-0.03681187743273188</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>354.6665934004282</v>
+        <v>309.2828524657087</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.0313072946889952</v>
+        <v>-0.03537479195344186</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>355.8332598260875</v>
+        <v>310.3002302698723</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.02995924996912772</v>
+        <v>-0.03399380833091113</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>356.9999262517468</v>
+        <v>311.3176080740358</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.02866925001438012</v>
+        <v>-0.03266673642518202</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>358.1665926774061</v>
+        <v>312.3349858781993</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.02743479550502815</v>
+        <v>-0.03139147159637182</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>359.3332591030654</v>
+        <v>313.3523636823628</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.02625349473827125</v>
+        <v>-0.03016599136686907</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>360.4999255287248</v>
+        <v>314.3697414865263</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.0251230589944114</v>
+        <v>-0.02898835221382828</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>361.666591954384</v>
+        <v>315.3871192906898</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.02404129810255651</v>
+        <v>-0.02785668648688546</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>362.8332583800433</v>
+        <v>316.4044970948534</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.02300611619725738</v>
+        <v>-0.02676919944619869</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>363.9999248057026</v>
+        <v>317.4218748990169</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.02201550765785943</v>
+        <v>-0.02572416641612143</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>365.166591231362</v>
+        <v>318.4392527031804</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.02106755322269679</v>
+        <v>-0.02471993004999194</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>366.3332576570212</v>
+        <v>319.4566305073439</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.02016041627060602</v>
+        <v>-0.02375489770170097</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>367.4999240826805</v>
+        <v>320.4740083115074</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.01929233926255109</v>
+        <v>-0.02282753889987057</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>368.6665905083399</v>
+        <v>321.4913861156709</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.01846164033646611</v>
+        <v>-0.02193638292063853</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>369.8332569339992</v>
+        <v>322.5087639198345</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.01766671004872039</v>
+        <v>-0.02108001645519523</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>370.9999233596585</v>
+        <v>323.526141723998</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.01690600825588937</v>
+        <v>-0.02025708136837936</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>372.1665897853177</v>
+        <v>324.5435195281615</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.01617806113079326</v>
+        <v>-0.01946627254477371</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>373.3332562109771</v>
+        <v>325.560897332325</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.01548145830702004</v>
+        <v>-0.01870633581888629</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>374.4999226366364</v>
+        <v>326.5782751364885</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.0148148501463998</v>
+        <v>-0.01797606598613524</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>375.6665890622957</v>
+        <v>327.595652940652</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.01417694512413979</v>
+        <v>-0.01727430489148192</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>376.833255487955</v>
+        <v>328.6130307448155</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.01356650732654995</v>
+        <v>-0.01659993959268016</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>377.9999219136143</v>
+        <v>329.630408548979</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.01298235405651267</v>
+        <v>-0.01595190059523079</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>379.1665883392736</v>
+        <v>330.6477863531425</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.01242335354205803</v>
+        <v>-0.0153291601562412</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>380.3332547649329</v>
+        <v>331.665164157306</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.01188842274360411</v>
+        <v>-0.01473073065449956</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>381.4999211905922</v>
+        <v>332.6825419614696</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.01137652525561382</v>
+        <v>-0.0141556630241783</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>382.6665876162515</v>
+        <v>333.6999197656331</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.01088666929860401</v>
+        <v>-0.01360304524968574</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>383.8332540419108</v>
+        <v>334.7172975697966</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.0104179057976144</v>
+        <v>-0.01307200091927423</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>384.9999204675701</v>
+        <v>335.7346753739601</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.009969326543416196</v>
+        <v>-0.01256168783511595</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>386.1665868932294</v>
+        <v>336.7520531781236</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.009540062432895459</v>
+        <v>-0.01207129667763655</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>387.3332533188887</v>
+        <v>337.7694309822871</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.009129281785202194</v>
+        <v>-0.01160004972199475</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>388.499919744548</v>
+        <v>338.7868087864506</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.008736188730405259</v>
+        <v>-0.01114719960466565</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>389.6665861702073</v>
+        <v>339.8041865906142</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.008360021667528061</v>
+        <v>-0.01071202813817664</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>390.8332525958666</v>
+        <v>340.8215643947777</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.00800005178897943</v>
+        <v>-0.01029384517211478</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>391.9999190215259</v>
+        <v>341.8389421989412</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.007655581668519132</v>
+        <v>-0.009891987498597769</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>393.1665854471852</v>
+        <v>342.8563200031047</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.007325943910026108</v>
+        <v>-0.009505817800474419</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>394.3332518728445</v>
+        <v>343.8736978072682</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.007010499854445462</v>
+        <v>-0.009134723640585259</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>395.4999182985038</v>
+        <v>344.8910756114317</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.006708638342414653</v>
+        <v>-0.008778116490482692</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>396.6665847241632</v>
+        <v>345.9084534155953</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.006419774530167995</v>
+        <v>-0.008435430797066401</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>397.8332511498224</v>
+        <v>346.9258312197588</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.006143348756427281</v>
+        <v>-0.008106123085657896</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>398.9999175754817</v>
+        <v>347.9432090239223</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.005878825458081929</v>
+        <v>-0.007789671098088818</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>400.166584001141</v>
+        <v>348.9605868280858</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.005625692132557746</v>
+        <v>-0.007485572964437041</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>401.3332504268004</v>
+        <v>349.9779646322493</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.005383458344866146</v>
+        <v>-0.0071933464070979</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>402.4999168524596</v>
+        <v>350.9953424364128</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.005151654777406354</v>
+        <v>-0.006912527975926203</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>403.6665832781189</v>
+        <v>352.0127202405764</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.004929832320683392</v>
+        <v>-0.006642672313238404</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>404.8332497037783</v>
+        <v>353.0300980447399</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.004717561203177213</v>
+        <v>-0.006383351447507447</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>405.9999161294376</v>
+        <v>354.0474758489034</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.004514430158678776</v>
+        <v>-0.006134154114630742</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>407.1665825550969</v>
+        <v>355.0648536530669</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.004320045629479683</v>
+        <v>-0.005894685105695506</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>408.3332489807562</v>
+        <v>356.0822314572304</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.004134031003870685</v>
+        <v>-0.005664564640205408</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>409.4999154064155</v>
+        <v>357.0996092613939</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.003956025886472375</v>
+        <v>-0.005443427763776949</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>410.6665818320748</v>
+        <v>358.1169870655575</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.003785685399985269</v>
+        <v>-0.005230923769347868</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>411.8332482577341</v>
+        <v>359.134364869721</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.003622679517004233</v>
+        <v>-0.00502671564098113</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>412.9999146833934</v>
+        <v>360.1517426738845</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.003466692420604432</v>
+        <v>-0.00483047951938228</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>414.1665811090527</v>
+        <v>361.169120478048</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.003317421892459948</v>
+        <v>-0.004641904188281604</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>415.333247534712</v>
+        <v>362.1864982822115</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.00317457872730854</v>
+        <v>-0.004460690580868522</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>416.4999139603713</v>
+        <v>363.203876086375</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.003037886172628802</v>
+        <v>-0.004286551305492234</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>417.6665803860306</v>
+        <v>364.2212538905385</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.002907079392443764</v>
+        <v>-0.004119210189880615</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>418.8332468116899</v>
+        <v>365.2386316947021</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.002781904954213077</v>
+        <v>-0.003958401843149603</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>419.9999132373492</v>
+        <v>366.2560094988656</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.002662120337817648</v>
+        <v>-0.003803871234913613</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>421.1665796630085</v>
+        <v>367.2733873030291</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.002547493465687765</v>
+        <v>-0.003655373290825566</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>422.3332460886678</v>
+        <v>368.2907651071926</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.002437802253162673</v>
+        <v>-0.003512672503906198</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>423.4999125143271</v>
+        <v>369.3081429113561</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.002332834178210712</v>
+        <v>-0.00337554256104768</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>424.6665789399864</v>
+        <v>370.3255207155196</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.00223238586967742</v>
+        <v>-0.003243765984097148</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>425.8332453656457</v>
+        <v>371.3428985196832</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.002136262713262315</v>
+        <v>-0.003117133784952196</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>426.999911791305</v>
+        <v>372.3602763238467</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.002044278474462004</v>
+        <v>-0.00299544513412069</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>428.1665782169644</v>
+        <v>373.3776541280102</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.001956254937749164</v>
+        <v>-0.002878507042220305</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>429.3332446426236</v>
+        <v>374.3950319321737</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.001872021561287027</v>
+        <v>-0.002766134053910522</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>430.4999110682829</v>
+        <v>375.4124097363372</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.00179141514651251</v>
+        <v>-0.002658147953774493</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>431.6665774939422</v>
+        <v>376.4297875405007</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.001714279521945222</v>
+        <v>-0.002554377483682286</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>432.8332439196016</v>
+        <v>377.4471653446643</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.001640465240612647</v>
+        <v>-0.002454658071187413</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>433.9999103452608</v>
+        <v>378.4645431488278</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.001569829290502592</v>
+        <v>-0.002358831568527466</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>435.1665767709201</v>
+        <v>379.4819209529913</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.001502234817483523</v>
+        <v>-0.002266746001812773</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>436.3332431965795</v>
+        <v>380.4992987571548</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.001437550860155782</v>
+        <v>-0.002178255330007308</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>437.4999096222388</v>
+        <v>381.5166765613183</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.001375652096119288</v>
+        <v>-0.002093219213317443</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>438.666576047898</v>
+        <v>382.5340543654818</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.001316418599166961</v>
+        <v>-0.002011502790624079</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>439.8332424735573</v>
+        <v>383.5514321696454</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.001259735606932393</v>
+        <v>-0.001932976465601971</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>440.9999088992167</v>
+        <v>384.5688099738089</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.00120549329854309</v>
+        <v>-0.001857515701189662</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>442.166575324876</v>
+        <v>385.5861877779724</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.001153586581847202</v>
+        <v>-0.001785000822082821</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>443.3332417505353</v>
+        <v>386.6035655821359</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.001103914889801673</v>
+        <v>-0.001715316824937453</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>444.4999081761946</v>
+        <v>387.6209433862994</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.001056381985628274</v>
+        <v>-0.001648353195983556</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>445.6665746018539</v>
+        <v>388.6383211904629</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.001010895776358643</v>
+        <v>-0.00158400373575789</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>446.8332410275132</v>
+        <v>389.6556989946264</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.0009673681344082946</v>
+        <v>-0.00152216639067939</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>447.9999074531725</v>
+        <v>390.67307679879</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.0009257147268331654</v>
+        <v>-0.001462743091199236</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>449.1665738788318</v>
+        <v>391.6904546029535</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.0008858548519379944</v>
+        <v>-0.001405639596270567</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>450.3332403044911</v>
+        <v>392.707832407117</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.0008477112829203984</v>
+        <v>-0.001350765343888167</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>451.4999067301504</v>
+        <v>393.7252102112805</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.0008112101182472415</v>
+        <v>-0.001298033307463843</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>452.6665731558097</v>
+        <v>394.742588015444</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.0007762806384736026</v>
+        <v>-0.001247359857808827</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>453.833239581469</v>
+        <v>395.7599658196075</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.0007428551692267423</v>
+        <v>-0.001198664630504014</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>454.9999060071283</v>
+        <v>396.7773436237711</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.0007108689500899923</v>
+        <v>-0.00115187039844717</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>456.1665724327876</v>
+        <v>397.7947214279346</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.0006802600091320967</v>
+        <v>-0.001106902949376963</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>457.3332388584469</v>
+        <v>398.8120992320981</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.0006509690428395163</v>
+        <v>-0.001063690968177656</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>458.4999052841062</v>
+        <v>399.8294770362616</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.0006229393012181002</v>
+        <v>-0.001022165923778349</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>459.6665717097655</v>
+        <v>400.8468548404251</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.0005961164778427287</v>
+        <v>-0.0009822619604672677</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>460.8332381354248</v>
+        <v>401.8642326445886</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.000570448604640491</v>
+        <v>-0.0009439157934502257</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>461.9999045610841</v>
+        <v>402.8816104487522</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.0005458859512051699</v>
+        <v>-0.000907066608484818</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>463.1665709867434</v>
+        <v>403.8989882529157</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.0005223809284466867</v>
+        <v>-0.000871655965433938</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>464.3332374124028</v>
+        <v>404.9163660570792</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.0004998879963889077</v>
+        <v>-0.0008376277055835673</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>465.499903838062</v>
+        <v>405.9337438612427</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.0004783635759383106</v>
+        <v>-0.0008049278625792358</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>466.6665702637213</v>
+        <v>406.9511216654062</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.0004577659644510429</v>
+        <v>-0.000773504576839357</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>467.8332366893806</v>
+        <v>407.9684994695697</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.0004380552549361779</v>
+        <v>-0.0007433080133097815</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>468.99990311504</v>
+        <v>408.9858772737333</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.0004191932587370477</v>
+        <v>-0.000714290282428821</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>470.1665695406992</v>
+        <v>410.0032550778968</v>
       </c>
       <c r="B405" t="n">
-        <v>-0.0004011434315432335</v>
+        <v>-0.0006864053641778906</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>471.3332359663585</v>
+        <v>411.0206328820603</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.0003838708025864386</v>
+        <v>-0.0006596090350970882</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>472.4999023920179</v>
+        <v>412.0380106862238</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.000367341906887278</v>
+        <v>-0.0006338587981504354</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>473.6665688176772</v>
+        <v>413.0553884903873</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.0003515247204173449</v>
+        <v>-0.0006091138153277092</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>474.8332352433364</v>
+        <v>414.0727662945508</v>
       </c>
       <c r="B409" t="n">
-        <v>-0.0003363885980545064</v>
+        <v>-0.000585334842879496</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>475.9999016689958</v>
+        <v>415.0901440987143</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.0003219042142092788</v>
+        <v>-0.0005624841690782934</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>477.1665680946551</v>
+        <v>416.1075219028779</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.0003080435060076213</v>
+        <v>-0.0005405255544112516</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>478.3332345203144</v>
+        <v>417.1248997070414</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.0002947796189203101</v>
+        <v>-0.0005194241741068315</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>479.4999009459736</v>
+        <v>418.1422775112049</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.0002820868547336539</v>
+        <v>-0.0004991465629046551</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>480.666567371633</v>
+        <v>419.1596553153684</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.000269940621760061</v>
+        <v>-0.000479660561982859</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>481.8332337972923</v>
+        <v>420.1770331195319</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.0002583173871926412</v>
+        <v>-0.0004609352679559064</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>482.9999002229516</v>
+        <v>421.1944109236954</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.0002471946315116686</v>
+        <v>-0.0004429409838642891</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>484.1665666486109</v>
+        <v>422.211788727859</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.0002365508048540438</v>
+        <v>-0.0004256491720771794</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>485.3332330742702</v>
+        <v>423.2291665320225</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.0002263652852609701</v>
+        <v>-0.0004090324090342501</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>486.4998994999295</v>
+        <v>424.246544336186</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.0002166183387237617</v>
+        <v>-0.0003930643417533701</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>487.6665659255888</v>
+        <v>425.2639221403495</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.0002072910809505984</v>
+        <v>-0.0003777196460368991</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>488.8332323512481</v>
+        <v>426.281299944513</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.0001983654407786424</v>
+        <v>-0.0003629739863090619</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>489.9998987769074</v>
+        <v>427.2986777486765</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.0001898241251619303</v>
+        <v>-0.0003488039770224019</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>491.1665652025667</v>
+        <v>428.3160555528401</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.000181650585666739</v>
+        <v>-0.0003351871455686181</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>492.333231628226</v>
+        <v>429.3334333570036</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.0001738289864100824</v>
+        <v>-0.000322101896639891</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>493.4998980538853</v>
+        <v>430.3508111611671</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.0001663441733778554</v>
+        <v>-0.0003095274779795577</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>494.6665644795446</v>
+        <v>431.3681889653306</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.0001591816450652416</v>
+        <v>-0.0002974439474706993</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>495.8332309052039</v>
+        <v>432.3855667694941</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.000152327524379861</v>
+        <v>-0.0002858321415096038</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>496.9998973308632</v>
+        <v>433.4029445736576</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.0001457685317562708</v>
+        <v>-0.0002746736446132797</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>498.1665637565225</v>
+        <v>434.4203223778212</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.0001394919594266844</v>
+        <v>-0.0002639507602144917</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>499.3332301821818</v>
+        <v>435.4377001819847</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.00013348564680091</v>
+        <v>-0.0002536464825952117</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>500.4998966078412</v>
+        <v>436.4550779861482</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.0001277379569051927</v>
+        <v>-0.0002437444699179724</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>501.6665630335004</v>
+        <v>437.4724557903117</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.0001222377538360667</v>
+        <v>-0.000234229018308226</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>502.8332294591597</v>
+        <v>438.4898335944752</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.0001169743811856442</v>
+        <v>-0.0002250850369490373</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>503.9998958848191</v>
+        <v>439.5072113986387</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.0001119376413943416</v>
+        <v>-0.0002162980241488252</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>505.1665623104784</v>
+        <v>440.5245892028022</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.0001071177759944288</v>
+        <v>-0.0002078540443416401</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>506.3332287361376</v>
+        <v>441.5419670069658</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.0001025054467028642</v>
+        <v>-0.0001997397059876891</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>507.4998951617969</v>
+        <v>442.5593448111293</v>
       </c>
       <c r="B437" t="n">
-        <v>-9.809171732904854e-05</v>
+        <v>-0.0001919421403340872</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>508.6665615874563</v>
+        <v>443.5767226152928</v>
       </c>
       <c r="B438" t="n">
-        <v>-9.386803646099242e-05</v>
+        <v>-0.0001844489810068625</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>509.8332280131156</v>
+        <v>444.5941004194563</v>
       </c>
       <c r="B439" t="n">
-        <v>-8.982622089778e-05</v>
+        <v>-0.0001772483443982423</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>510.9998944387748</v>
+        <v>445.6114782236198</v>
       </c>
       <c r="B440" t="n">
-        <v>-8.595843979471249e-05</v>
+        <v>-0.0001703288108202505</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>512.1665608644341</v>
+        <v>446.6288560277833</v>
       </c>
       <c r="B441" t="n">
-        <v>-8.225719949126282e-05</v>
+        <v>-0.0001636794063941675</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>513.3332272900934</v>
+        <v>447.6462338319469</v>
       </c>
       <c r="B442" t="n">
-        <v>-7.871532899282888e-05</v>
+        <v>-0.0001572895856462667</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>514.4998937157528</v>
+        <v>448.6636116361104</v>
       </c>
       <c r="B443" t="n">
-        <v>-7.532596607673756e-05</v>
+        <v>-0.0001511492147840474</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>515.6665601414121</v>
+        <v>449.6809894402739</v>
       </c>
       <c r="B444" t="n">
-        <v>-7.208254399744818e-05</v>
+        <v>-0.0001452485556239897</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>516.8332265670714</v>
+        <v>450.6983672444374</v>
       </c>
       <c r="B445" t="n">
-        <v>-6.897877876333453e-05</v>
+        <v>-0.0001395782501482436</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>517.9998929927307</v>
+        <v>451.7157450486009</v>
       </c>
       <c r="B446" t="n">
-        <v>-6.600865696202816e-05</v>
+        <v>-0.0001341293056634881</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>519.16655941839</v>
+        <v>452.7331228527644</v>
       </c>
       <c r="B447" t="n">
-        <v>-6.316642410969995e-05</v>
+        <v>-0.0001288930805383904</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>520.3332258440493</v>
+        <v>453.750500656928</v>
       </c>
       <c r="B448" t="n">
-        <v>-6.044657350169058e-05</v>
+        <v>-0.0001238612704992842</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>521.4998922697085</v>
+        <v>454.7678784610915</v>
       </c>
       <c r="B449" t="n">
-        <v>-5.78438355439352e-05</v>
+        <v>-0.0001190258954601297</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>522.6665586953679</v>
+        <v>455.7852562652549</v>
       </c>
       <c r="B450" t="n">
-        <v>-5.535316754280718e-05</v>
+        <v>-0.0001143792868666192</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>523.8332251210272</v>
+        <v>456.8026340694184</v>
       </c>
       <c r="B451" t="n">
-        <v>-5.296974393582356e-05</v>
+        <v>-0.0001099140755339289</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>524.9998915466865</v>
+        <v>457.820011873582</v>
       </c>
       <c r="B452" t="n">
-        <v>-5.06889469414796e-05</v>
+        <v>-0.000105623179960681</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>526.1665579723458</v>
+        <v>458.8373896777455</v>
       </c>
       <c r="B453" t="n">
-        <v>-4.850635761343857e-05</v>
+        <v>-0.0001014997950973896</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>527.3332243980051</v>
+        <v>459.854767481909</v>
       </c>
       <c r="B454" t="n">
-        <v>-4.641774727798649e-05</v>
+        <v>-9.753738155428746e-05</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>528.4998908236644</v>
+        <v>460.8721452860725</v>
       </c>
       <c r="B455" t="n">
-        <v>-4.44190693421189e-05</v>
+        <v>-9.372965523073416e-05</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>529.6665572493238</v>
+        <v>461.889523090236</v>
       </c>
       <c r="B456" t="n">
-        <v>-4.250645145288265e-05</v>
+        <v>-9.00705773486488e-05</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>530.8332236749831</v>
+        <v>462.9069008943995</v>
       </c>
       <c r="B457" t="n">
-        <v>-4.067618799469726e-05</v>
+        <v>-8.655434487572745e-05</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>531.9998901006423</v>
+        <v>463.9242786985631</v>
       </c>
       <c r="B458" t="n">
-        <v>-3.892473291073855e-05</v>
+        <v>-8.317538132199376e-05</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>533.1665565263016</v>
+        <v>464.9416565027266</v>
       </c>
       <c r="B459" t="n">
-        <v>-3.724869283146961e-05</v>
+        <v>-7.992832789605595e-05</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>534.3332229519609</v>
+        <v>465.9590343068901</v>
       </c>
       <c r="B460" t="n">
-        <v>-3.564482050100491e-05</v>
+        <v>-7.68080350065838e-05</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>535.4998893776202</v>
+        <v>466.9764121110536</v>
       </c>
       <c r="B461" t="n">
-        <v>-3.411000848524912e-05</v>
+        <v>-7.380955409501e-05</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>536.6665558032795</v>
+        <v>467.9937899152171</v>
       </c>
       <c r="B462" t="n">
-        <v>-3.264128315174717e-05</v>
+        <v>-7.092812978791602e-05</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>537.8332222289389</v>
+        <v>469.0111677193806</v>
       </c>
       <c r="B463" t="n">
-        <v>-3.123579890797059e-05</v>
+        <v>-6.815919235522972e-05</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>538.9998886545982</v>
+        <v>470.0285455235442</v>
       </c>
       <c r="B464" t="n">
-        <v>-2.989083268819063e-05</v>
+        <v>-6.549835046281742e-05</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>540.1665550802575</v>
+        <v>471.0459233277077</v>
       </c>
       <c r="B465" t="n">
-        <v>-2.860377867801859e-05</v>
+        <v>-6.294138420805328e-05</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>541.3332215059168</v>
+        <v>472.0633011318712</v>
       </c>
       <c r="B466" t="n">
-        <v>-2.737214326526504e-05</v>
+        <v>-6.048423842793048e-05</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>542.499887931576</v>
+        <v>473.0806789360347</v>
       </c>
       <c r="B467" t="n">
-        <v>-2.619354020908886e-05</v>
+        <v>-5.812301626731527e-05</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>543.6665543572353</v>
+        <v>474.0980567401982</v>
       </c>
       <c r="B468" t="n">
-        <v>-2.506568601651611e-05</v>
+        <v>-5.585397299874964e-05</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>544.8332207828946</v>
+        <v>475.1154345443617</v>
       </c>
       <c r="B469" t="n">
-        <v>-2.398639551829947e-05</v>
+        <v>-5.367351008422734e-05</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>545.999887208554</v>
+        <v>476.1328123485252</v>
       </c>
       <c r="B470" t="n">
-        <v>-2.295357763512549e-05</v>
+        <v>-5.157816946740283e-05</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>547.1665536342133</v>
+        <v>477.1501901526888</v>
       </c>
       <c r="B471" t="n">
-        <v>-2.196523132667561e-05</v>
+        <v>-4.956462809009494e-05</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>548.3332200598726</v>
+        <v>478.1675679568523</v>
       </c>
       <c r="B472" t="n">
-        <v>-2.10194417142269e-05</v>
+        <v>-4.762969262129975e-05</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>549.4998864855319</v>
+        <v>479.1849457610158</v>
       </c>
       <c r="B473" t="n">
-        <v>-2.011437637090459e-05</v>
+        <v>-4.577029439380177e-05</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>550.6665529111912</v>
+        <v>480.2023235651793</v>
       </c>
       <c r="B474" t="n">
-        <v>-1.92482817712356e-05</v>
+        <v>-4.398348453672087e-05</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>551.8332193368504</v>
+        <v>481.2197013693428</v>
       </c>
       <c r="B475" t="n">
-        <v>-1.841947989400818e-05</v>
+        <v>-4.226642929896126e-05</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>552.9998857625097</v>
+        <v>482.2370791735063</v>
       </c>
       <c r="B476" t="n">
-        <v>-1.762636497115754e-05</v>
+        <v>-4.061640555546019e-05</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>554.1665521881691</v>
+        <v>483.2544569776699</v>
       </c>
       <c r="B477" t="n">
-        <v>-1.686740037625418e-05</v>
+        <v>-3.903079648813352e-05</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>555.3332186138284</v>
+        <v>484.2718347818334</v>
       </c>
       <c r="B478" t="n">
-        <v>-1.614111564799139e-05</v>
+        <v>-3.750708743574826e-05</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>556.4998850394877</v>
+        <v>485.2892125859969</v>
       </c>
       <c r="B479" t="n">
-        <v>-1.544610364085668e-05</v>
+        <v>-3.604286190633821e-05</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>557.666551465147</v>
+        <v>486.3065903901604</v>
       </c>
       <c r="B480" t="n">
-        <v>-1.478101779859805e-05</v>
+        <v>-3.463579774406007e-05</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>558.8332178908063</v>
+        <v>487.3239681943239</v>
       </c>
       <c r="B481" t="n">
-        <v>-1.414456954598826e-05</v>
+        <v>-3.328366344742085e-05</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>559.9998843164656</v>
+        <v>488.3413459984874</v>
       </c>
       <c r="B482" t="n">
-        <v>-1.353552579182183e-05</v>
+        <v>-3.198431462930082e-05</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>561.1665507421249</v>
+        <v>489.358723802651</v>
       </c>
       <c r="B483" t="n">
-        <v>-1.295270653982552e-05</v>
+        <v>-3.073569061643931e-05</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>562.3332171677843</v>
+        <v>490.3761016068145</v>
       </c>
       <c r="B484" t="n">
-        <v>-1.239498260255805e-05</v>
+        <v>-2.953581118187698e-05</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>563.4998835934435</v>
+        <v>491.393479410978</v>
       </c>
       <c r="B485" t="n">
-        <v>-1.186127341380238e-05</v>
+        <v>-2.838277340360205e-05</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>564.6665500191028</v>
+        <v>492.4108572151415</v>
       </c>
       <c r="B486" t="n">
-        <v>-1.13505449348472e-05</v>
+        <v>-2.727474864731381e-05</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>565.8332164447621</v>
+        <v>493.428235019305</v>
       </c>
       <c r="B487" t="n">
-        <v>-1.086180765112481e-05</v>
+        <v>-2.620997966605985e-05</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>566.9998828704214</v>
+        <v>494.4456128234685</v>
       </c>
       <c r="B488" t="n">
-        <v>-1.039411465502997e-05</v>
+        <v>-2.518677781330981e-05</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>568.1665492960807</v>
+        <v>495.4629906276321</v>
       </c>
       <c r="B489" t="n">
-        <v>-9.946559811387009e-06</v>
+        <v>-2.420352036516867e-05</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>569.33321572174</v>
+        <v>496.4803684317956</v>
       </c>
       <c r="B490" t="n">
-        <v>-9.518276001925198e-06</v>
+        <v>-2.325864794657339e-05</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>570.4998821473994</v>
+        <v>497.4977462359591</v>
       </c>
       <c r="B491" t="n">
-        <v>-9.108433445015287e-06</v>
+        <v>-2.235066205828099e-05</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>571.6665485730587</v>
+        <v>498.5151240401226</v>
       </c>
       <c r="B492" t="n">
-        <v>-8.716238088097978e-06</v>
+        <v>-2.14781227003513e-05</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>572.8332149987179</v>
+        <v>499.5325018442861</v>
       </c>
       <c r="B493" t="n">
-        <v>-8.340930069699575e-06</v>
+        <v>-2.063964608880955e-05</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>573.9998814243772</v>
+        <v>500.5498796484496</v>
       </c>
       <c r="B494" t="n">
-        <v>-7.981782246431388e-06</v>
+        <v>-1.983390246033267e-05</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>575.1665478500365</v>
+        <v>501.5672574526131</v>
       </c>
       <c r="B495" t="n">
-        <v>-7.638098784865823e-06</v>
+        <v>-1.905961396409997e-05</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>576.3332142756958</v>
+        <v>502.5846352567767</v>
       </c>
       <c r="B496" t="n">
-        <v>-7.309213812829245e-06</v>
+        <v>-1.831555263442427e-05</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>577.4998807013552</v>
+        <v>503.6020130609402</v>
       </c>
       <c r="B497" t="n">
-        <v>-6.99449013000455e-06</v>
+        <v>-1.760053844416345e-05</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>578.6665471270145</v>
+        <v>504.6193908651037</v>
       </c>
       <c r="B498" t="n">
-        <v>-6.693317972383529e-06</v>
+        <v>-1.691343743252875e-05</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>579.8332135526738</v>
+        <v>505.6367686692672</v>
       </c>
       <c r="B499" t="n">
-        <v>-6.40511383217489e-06</v>
+        <v>-1.625315990704397e-05</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>580.9998799783331</v>
+        <v>506.6541464734307</v>
       </c>
       <c r="B500" t="n">
-        <v>-6.129319325888033e-06</v>
+        <v>-1.561865871548176e-05</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>582.1665464039924</v>
+        <v>507.6715242775942</v>
       </c>
       <c r="B501" t="n">
-        <v>-5.865400113590184e-06</v>
+        <v>-1.500892758483054e-05</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>583.3332128296516</v>
+        <v>508.6889020817578</v>
       </c>
       <c r="B502" t="n">
-        <v>-5.612844863020526e-06</v>
+        <v>-1.442299952581878e-05</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>584.4998792553109</v>
+        <v>509.7062798859213</v>
       </c>
       <c r="B503" t="n">
-        <v>-5.371164259310701e-06</v>
+        <v>-1.385994529906815e-05</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>585.6665456809703</v>
+        <v>510.7236576900848</v>
       </c>
       <c r="B504" t="n">
-        <v>-5.139890056564701e-06</v>
+        <v>-1.331887194115682e-05</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>586.8332121066296</v>
+        <v>511.7410354942483</v>
       </c>
       <c r="B505" t="n">
-        <v>-4.918574170976972e-06</v>
+        <v>-1.279892134899693e-05</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>587.9998785322889</v>
+        <v>512.7584132984118</v>
       </c>
       <c r="B506" t="n">
-        <v>-4.706787812277003e-06</v>
+        <v>-1.229926891884326e-05</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>589.1665449579482</v>
+        <v>513.7757911025753</v>
       </c>
       <c r="B507" t="n">
-        <v>-4.504120653714527e-06</v>
+        <v>-1.181912223784596e-05</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>590.3332113836075</v>
+        <v>514.7931689067389</v>
       </c>
       <c r="B508" t="n">
-        <v>-4.310180036195982e-06</v>
+        <v>-1.135771982827027e-05</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>591.4998778092668</v>
+        <v>515.8105467109024</v>
       </c>
       <c r="B509" t="n">
-        <v>-4.124590208071033e-06</v>
+        <v>-1.091432993947242e-05</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>592.6665442349261</v>
+        <v>516.8279245150659</v>
       </c>
       <c r="B510" t="n">
-        <v>-3.946991597036264e-06</v>
+        <v>-1.048824938701795e-05</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>593.8332106605855</v>
+        <v>517.8453023192294</v>
       </c>
       <c r="B511" t="n">
-        <v>-3.77704011340665e-06</v>
+        <v>-1.007880243820583e-05</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>594.9998770862447</v>
+        <v>518.8626801233929</v>
       </c>
       <c r="B512" t="n">
-        <v>-3.61440648336305e-06</v>
+        <v>-9.685339739701586e-06</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>596.166543511904</v>
+        <v>519.8800579275564</v>
       </c>
       <c r="B513" t="n">
-        <v>-3.458775611319266e-06</v>
+        <v>-9.307237288138676e-06</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>597.3332099375633</v>
+        <v>520.89743573172</v>
       </c>
       <c r="B514" t="n">
-        <v>-3.309845968946369e-06</v>
+        <v>-8.943895440619138e-06</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>598.4998763632226</v>
+        <v>521.9148135358835</v>
       </c>
       <c r="B515" t="n">
-        <v>-3.167329011603666e-06</v>
+        <v>-8.594737963026298e-06</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>599.6665427888819</v>
+        <v>522.932191340047</v>
       </c>
       <c r="B516" t="n">
-        <v>-3.030948618750497e-06</v>
+        <v>-8.259211117254548e-06</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>600.8332092145412</v>
+        <v>523.9495691442105</v>
       </c>
       <c r="B517" t="n">
-        <v>-2.900440559088249e-06</v>
+        <v>-7.93678278170889e-06</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>601.9998756402006</v>
+        <v>524.966946948374</v>
       </c>
       <c r="B518" t="n">
-        <v>-2.775551979040856e-06</v>
+        <v>-7.626941608634472e-06</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>603.1665420658599</v>
+        <v>525.9843247525375</v>
       </c>
       <c r="B519" t="n">
-        <v>-2.656040912111454e-06</v>
+        <v>-7.329196212260571e-06</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>604.3332084915191</v>
+        <v>527.001702556701</v>
       </c>
       <c r="B520" t="n">
-        <v>-2.541675810828118e-06</v>
+        <v>-7.043074389968803e-06</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>605.4998749171784</v>
+        <v>528.0190803608646</v>
       </c>
       <c r="B521" t="n">
-        <v>-2.43223509774579e-06</v>
+        <v>-6.76812237341641e-06</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>606.6665413428377</v>
+        <v>529.0364581650281</v>
       </c>
       <c r="B522" t="n">
-        <v>-2.327506736039677e-06</v>
+        <v>-6.503904108509705e-06</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>607.833207768497</v>
+        <v>530.0538359691916</v>
       </c>
       <c r="B523" t="n">
-        <v>-2.227287819154843e-06</v>
+        <v>-6.25000056410493e-06</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>608.9998741941563</v>
+        <v>531.0712137733551</v>
       </c>
       <c r="B524" t="n">
-        <v>-2.131384177049671e-06</v>
+        <v>-6.006009067840541e-06</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>610.1665406198157</v>
+        <v>532.0885915775186</v>
       </c>
       <c r="B525" t="n">
-        <v>-2.039610000639058e-06</v>
+        <v>-5.771542666768364e-06</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>611.333207045475</v>
+        <v>533.1059693816821</v>
       </c>
       <c r="B526" t="n">
-        <v>-1.951787481332675e-06</v>
+        <v>-5.546229514134057e-06</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>612.4998734711343</v>
+        <v>534.1233471858457</v>
       </c>
       <c r="B527" t="n">
-        <v>-1.867746466738885e-06</v>
+        <v>-5.329712279606e-06</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>613.6665398967936</v>
+        <v>535.1407249900092</v>
       </c>
       <c r="B528" t="n">
-        <v>-1.78732413114254e-06</v>
+        <v>-5.121647582461555e-06</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>614.8332063224528</v>
+        <v>536.1581027941727</v>
       </c>
       <c r="B529" t="n">
-        <v>-1.710364659472011e-06</v>
+        <v>-4.921705447362402e-06</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>615.9998727481121</v>
+        <v>537.1754805983362</v>
       </c>
       <c r="B530" t="n">
-        <v>-1.63671894614716e-06</v>
+        <v>-4.729568780509127e-06</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>617.1665391737714</v>
+        <v>538.1928584024997</v>
       </c>
       <c r="B531" t="n">
-        <v>-1.566244305810672e-06</v>
+        <v>-4.544932867034463e-06</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>618.3332055994308</v>
+        <v>539.2102362066632</v>
       </c>
       <c r="B532" t="n">
-        <v>-1.4988041967992e-06</v>
+        <v>-4.367504887670887e-06</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>619.4998720250901</v>
+        <v>540.2276140108268</v>
       </c>
       <c r="B533" t="n">
-        <v>-1.434267956819031e-06</v>
+        <v>-4.197003454692588e-06</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>620.6665384507494</v>
+        <v>541.2449918149903</v>
       </c>
       <c r="B534" t="n">
-        <v>-1.372510549648653e-06</v>
+        <v>-4.033158165044769e-06</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>621.8332048764087</v>
+        <v>542.2623696191538</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.31341232297527e-06</v>
+        <v>-3.875709171887953e-06</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>622.999871302068</v>
+        <v>543.2797474233173</v>
       </c>
       <c r="B536" t="n">
-        <v>-1.256858776401761e-06</v>
+        <v>-3.724406772838557e-06</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>624.1665377277272</v>
+        <v>544.2971252274808</v>
       </c>
       <c r="B537" t="n">
-        <v>-1.202740339945244e-06</v>
+        <v>-3.57901101294146e-06</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>625.3332041533866</v>
+        <v>545.3145030316443</v>
       </c>
       <c r="B538" t="n">
-        <v>-1.150952161528448e-06</v>
+        <v>-3.439291305075445e-06</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>626.4998705790459</v>
+        <v>546.3318808358079</v>
       </c>
       <c r="B539" t="n">
-        <v>-1.101393903570957e-06</v>
+        <v>-3.305026064231277e-06</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>627.6665370047052</v>
+        <v>547.3492586399714</v>
       </c>
       <c r="B540" t="n">
-        <v>-1.053969549322656e-06</v>
+        <v>-3.176002355048577e-06</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>628.8332034303645</v>
+        <v>548.3666364441349</v>
       </c>
       <c r="B541" t="n">
-        <v>-1.008587215834727e-06</v>
+        <v>-3.052015555557899e-06</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>629.9998698560238</v>
+        <v>549.3840142482984</v>
       </c>
       <c r="B542" t="n">
-        <v>-9.651589771010871e-07</v>
+        <v>-2.932869031603509e-06</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>631.1665362816831</v>
+        <v>550.4013920524619</v>
       </c>
       <c r="B543" t="n">
-        <v>-9.236006924456291e-07</v>
+        <v>-2.818373825384328e-06</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>632.3332027073424</v>
+        <v>551.4187698566254</v>
       </c>
       <c r="B544" t="n">
-        <v>-8.838318446516698e-07</v>
+        <v>-2.70834835578048e-06</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>633.4998691330018</v>
+        <v>552.4361476607889</v>
       </c>
       <c r="B545" t="n">
-        <v>-8.457753833372047e-07</v>
+        <v>-2.60261813046544e-06</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>634.6665355586611</v>
+        <v>553.4535254649525</v>
       </c>
       <c r="B546" t="n">
-        <v>-8.093575755029982e-07</v>
+        <v>-2.501015468944412e-06</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>635.8332019843203</v>
+        <v>554.470903269116</v>
       </c>
       <c r="B547" t="n">
-        <v>-7.745078634676226e-07</v>
+        <v>-2.403379236764482e-06</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>636.9998684099796</v>
+        <v>555.4882810732795</v>
       </c>
       <c r="B548" t="n">
-        <v>-7.411587271918448e-07</v>
+        <v>-2.309554589791629e-06</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>638.1665348356389</v>
+        <v>556.505658877443</v>
       </c>
       <c r="B549" t="n">
-        <v>-7.092455543111333e-07</v>
+        <v>-2.219392729168445e-06</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>639.3332012612982</v>
+        <v>557.5230366816065</v>
       </c>
       <c r="B550" t="n">
-        <v>-6.787065143433996e-07</v>
+        <v>-2.132750664497218e-06</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>640.4998676869575</v>
+        <v>558.54041448577</v>
       </c>
       <c r="B551" t="n">
-        <v>-6.494824391060577e-07</v>
+        <v>-2.049490987826484e-06</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>641.6665341126169</v>
+        <v>559.5577922899336</v>
       </c>
       <c r="B552" t="n">
-        <v>-6.215167083788891e-07</v>
+        <v>-1.969481655494642e-06</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>642.8332005382762</v>
+        <v>560.5751700940971</v>
       </c>
       <c r="B553" t="n">
-        <v>-5.947551397421415e-07</v>
+        <v>-1.892595778198945e-06</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>643.9998669639355</v>
+        <v>561.5925478982606</v>
       </c>
       <c r="B554" t="n">
-        <v>-5.691458836604299e-07</v>
+        <v>-1.818711420763049e-06</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>645.1665333895947</v>
+        <v>562.6099257024241</v>
       </c>
       <c r="B555" t="n">
-        <v>-5.446393234912734e-07</v>
+        <v>-1.747711407797367e-06</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>646.333199815254</v>
+        <v>563.6273035065876</v>
       </c>
       <c r="B556" t="n">
-        <v>-5.211879785982902e-07</v>
+        <v>-1.679483138566927e-06</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>647.4998662409133</v>
+        <v>564.6446813107511</v>
       </c>
       <c r="B557" t="n">
-        <v>-4.987464131384274e-07</v>
+        <v>-1.613918407874785e-06</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>648.6665326665726</v>
+        <v>565.6620591149147</v>
       </c>
       <c r="B558" t="n">
-        <v>-4.772711475256214e-07</v>
+        <v>-1.550913234802523e-06</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>649.833199092232</v>
+        <v>566.6794369190782</v>
       </c>
       <c r="B559" t="n">
-        <v>-4.567205743908631e-07</v>
+        <v>-1.490367697711829e-06</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>650.9998655178913</v>
+        <v>567.6968147232417</v>
       </c>
       <c r="B560" t="n">
-        <v>-4.370548777539791e-07</v>
+        <v>-1.432185775875494e-06</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>652.1665319435506</v>
+        <v>568.7141925274052</v>
       </c>
       <c r="B561" t="n">
-        <v>-4.182359562635899e-07</v>
+        <v>-1.376275196755661e-06</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>653.3331983692099</v>
+        <v>569.7315703315687</v>
       </c>
       <c r="B562" t="n">
-        <v>-4.002273491134975e-07</v>
+        <v>-1.322547290525321e-06</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>654.4998647948692</v>
+        <v>570.7489481357322</v>
       </c>
       <c r="B563" t="n">
-        <v>-3.829941652778484e-07</v>
+        <v>-1.270916848395566e-06</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>655.6665312205284</v>
+        <v>571.7663259398958</v>
       </c>
       <c r="B564" t="n">
-        <v>-3.665030162791855e-07</v>
+        <v>-1.221301988308849e-06</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>656.8331976461877</v>
+        <v>572.7837037440593</v>
       </c>
       <c r="B565" t="n">
-        <v>-3.507219510976449e-07</v>
+        <v>-1.17362402468354e-06</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>657.9998640718471</v>
+        <v>573.8010815482228</v>
       </c>
       <c r="B566" t="n">
-        <v>-3.356203948271554e-07</v>
+        <v>-1.127807343682987e-06</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>659.1665304975064</v>
+        <v>574.8184593523863</v>
       </c>
       <c r="B567" t="n">
-        <v>-3.211690886163265e-07</v>
+        <v>-1.083779283518003e-06</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>660.3331969231657</v>
+        <v>575.8358371565498</v>
       </c>
       <c r="B568" t="n">
-        <v>-3.073400337845668e-07</v>
+        <v>-1.041470018677896e-06</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>661.499863348825</v>
+        <v>576.8532149607133</v>
       </c>
       <c r="B569" t="n">
-        <v>-2.941064372228914e-07</v>
+        <v>-1.00081244980876e-06</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>662.6665297744843</v>
+        <v>577.8705927648768</v>
       </c>
       <c r="B570" t="n">
-        <v>-2.814426591499872e-07</v>
+        <v>-9.617420970292338e-07</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>663.8331962001436</v>
+        <v>578.8879705690404</v>
       </c>
       <c r="B571" t="n">
-        <v>-2.693241642941102e-07</v>
+        <v>-9.241969974203272e-07</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>664.9998626258028</v>
+        <v>579.9053483732039</v>
       </c>
       <c r="B572" t="n">
-        <v>-2.577274735032121e-07</v>
+        <v>-8.881176074259155e-07</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>666.1665290514622</v>
+        <v>580.9227261773674</v>
       </c>
       <c r="B573" t="n">
-        <v>-2.466301185667844e-07</v>
+        <v>-8.534467074630323e-07</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>667.3331954771215</v>
+        <v>581.9401039815309</v>
       </c>
       <c r="B574" t="n">
-        <v>-2.360105989647318e-07</v>
+        <v>-8.201293123021967e-07</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>668.4998619027808</v>
+        <v>582.9574817856944</v>
       </c>
       <c r="B575" t="n">
-        <v>-2.258483397938767e-07</v>
+        <v>-7.881125826754076e-07</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>669.6665283284401</v>
+        <v>583.9748595898579</v>
       </c>
       <c r="B576" t="n">
-        <v>-2.16123652156779e-07</v>
+        <v>-7.573457425314042e-07</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>670.8331947540994</v>
+        <v>584.9922373940215</v>
       </c>
       <c r="B577" t="n">
-        <v>-2.068176948352434e-07</v>
+        <v>-7.277799977641278e-07</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>671.9998611797587</v>
+        <v>586.009615198185</v>
       </c>
       <c r="B578" t="n">
-        <v>-1.979124379979145e-07</v>
+        <v>-6.993684594835492e-07</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>673.1665276054181</v>
+        <v>587.0269930023485</v>
       </c>
       <c r="B579" t="n">
-        <v>-1.893906279784439e-07</v>
+        <v>-6.720660688824642e-07</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>674.3331940310774</v>
+        <v>588.044370806512</v>
       </c>
       <c r="B580" t="n">
-        <v>-1.812357541948023e-07</v>
+        <v>-6.45829526277355e-07</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>675.4998604567367</v>
+        <v>589.0617486106755</v>
       </c>
       <c r="B581" t="n">
-        <v>-1.734320170321068e-07</v>
+        <v>-6.206172226045858e-07</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>676.6665268823959</v>
+        <v>590.079126414839</v>
       </c>
       <c r="B582" t="n">
-        <v>-1.659642967960207e-07</v>
+        <v>-5.963891727580981e-07</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>677.8331933080552</v>
+        <v>591.0965042190026</v>
       </c>
       <c r="B583" t="n">
-        <v>-1.588181254496414e-07</v>
+        <v>-5.731069529784065e-07</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>678.9998597337145</v>
+        <v>592.1138820231661</v>
       </c>
       <c r="B584" t="n">
-        <v>-1.519796573868735e-07</v>
+        <v>-5.507336393464943e-07</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>680.1665261593738</v>
+        <v>593.1312598273296</v>
       </c>
       <c r="B585" t="n">
-        <v>-1.454356434175184e-07</v>
+        <v>-5.292337493468768e-07</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>681.3331925850332</v>
+        <v>594.1486376314931</v>
       </c>
       <c r="B586" t="n">
-        <v>-1.391734047523651e-07</v>
+        <v>-5.085731857632299e-07</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>682.4998590106925</v>
+        <v>595.1660154356566</v>
       </c>
       <c r="B587" t="n">
-        <v>-1.331808085941382e-07</v>
+        <v>-4.887191822927537e-07</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>683.6665254363518</v>
+        <v>596.1833932398201</v>
       </c>
       <c r="B588" t="n">
-        <v>-1.274462445849052e-07</v>
+        <v>-4.696402521069359e-07</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>684.8331918620111</v>
+        <v>597.2007710439837</v>
       </c>
       <c r="B589" t="n">
-        <v>-1.219586021099408e-07</v>
+        <v>-4.513061372716806e-07</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>685.9998582876703</v>
+        <v>598.2181488481472</v>
       </c>
       <c r="B590" t="n">
-        <v>-1.167072493145075e-07</v>
+        <v>-4.336877613593729e-07</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>687.1665247133296</v>
+        <v>599.2355266523107</v>
       </c>
       <c r="B591" t="n">
-        <v>-1.116820119065216e-07</v>
+        <v>-4.167571826747752e-07</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>688.3331911389889</v>
+        <v>600.2529044564742</v>
       </c>
       <c r="B592" t="n">
-        <v>-1.068731534580205e-07</v>
+        <v>-4.00487550795624e-07</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>689.4998575646483</v>
+        <v>601.2702822606377</v>
       </c>
       <c r="B593" t="n">
-        <v>-1.022713573124889e-07</v>
+        <v>-3.848530631132276e-07</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>690.6665239903076</v>
+        <v>602.2876600648012</v>
       </c>
       <c r="B594" t="n">
-        <v>-9.786770742161252e-08</v>
+        <v>-3.698289245649959e-07</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>691.8331904159669</v>
+        <v>603.3050378689647</v>
       </c>
       <c r="B595" t="n">
-        <v>-9.365367207257689e-08</v>
+        <v>-3.553913078580385e-07</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>692.9998568416262</v>
+        <v>604.3224156731283</v>
       </c>
       <c r="B596" t="n">
-        <v>-8.962108675890888e-08</v>
+        <v>-3.415173159025614e-07</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>694.1665232672855</v>
+        <v>605.3397934772918</v>
       </c>
       <c r="B597" t="n">
-        <v>-8.576213844306199e-08</v>
+        <v>-3.281849458412316e-07</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>695.3331896929448</v>
+        <v>606.3571712814553</v>
       </c>
       <c r="B598" t="n">
-        <v>-8.206935056840239e-08</v>
+        <v>-3.153730532013082e-07</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>696.499856118604</v>
+        <v>607.3745490856188</v>
       </c>
       <c r="B599" t="n">
-        <v>-7.853556849942402e-08</v>
+        <v>-3.030613193614729e-07</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>697.6665225442634</v>
+        <v>608.3919268897823</v>
       </c>
       <c r="B600" t="n">
-        <v>-7.515394581842154e-08</v>
+        <v>-2.91230218895895e-07</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>698.8331889699227</v>
+        <v>609.4093046939458</v>
       </c>
       <c r="B601" t="n">
-        <v>-7.191793062216326e-08</v>
+        <v>-2.798609883914957e-07</v>
       </c>
     </row>
   </sheetData>

--- a/mdott.xlsx
+++ b/mdott.xlsx
@@ -450,4799 +450,4799 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01994771110920876</v>
+        <v>0.01781221153246252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.017377804163516</v>
+        <v>1.166665719868598</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01955834539385638</v>
+        <v>0.01742872841664436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.034755608327031</v>
+        <v>2.333331439737196</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01917657983169762</v>
+        <v>0.01705350139523928</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.052133412490547</v>
+        <v>3.499997159605794</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01880226607292584</v>
+        <v>0.01668635272093025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.069511216654062</v>
+        <v>4.666662879474393</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01843525866342157</v>
+        <v>0.01632710847316233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.086889020817578</v>
+        <v>5.833328599342991</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0180754149882304</v>
+        <v>0.01597559847575524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.104266824981093</v>
+        <v>6.999994319211589</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0177225952161446</v>
+        <v>0.01563165621629038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.121644629144608</v>
+        <v>8.166660039080186</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01737666224536638</v>
+        <v>0.01529511876723196</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.139022433308124</v>
+        <v>9.333325758948785</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01703748165023127</v>
+        <v>0.01496582670874865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.15640023747164</v>
+        <v>10.49999147881738</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01670492162897234</v>
+        <v>0.01464362405319357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.17377804163516</v>
+        <v>11.66665719868598</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01637885295250305</v>
+        <v>0.01432835817121409</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.19115584579867</v>
+        <v>12.83332291855458</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01605914891420066</v>
+        <v>0.01401987971944845</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.20853364996219</v>
+        <v>13.99998863842318</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01574568528066942</v>
+        <v>0.01371804256978229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13.2259114541257</v>
+        <v>15.16665435829178</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01543834024346391</v>
+        <v>0.01342270374012603</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14.24328925828922</v>
+        <v>16.33332007816037</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0151369943717576</v>
+        <v>0.01313372332668399</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15.26066706245273</v>
+        <v>17.49998579802897</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01484153056593153</v>
+        <v>0.01285096443768078</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16.27804486661625</v>
+        <v>18.66665151789757</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01455183401207178</v>
+        <v>0.01257429312851457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17.29542267077976</v>
+        <v>19.83331723776617</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01426779213735364</v>
+        <v>0.01230357833830762</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18.31280047494328</v>
+        <v>20.99998295763477</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01398929456629664</v>
+        <v>0.01203869182782075</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19.3301782791068</v>
+        <v>22.16664867750336</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01371623307787506</v>
+        <v>0.01177950811870671</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20.34755608327031</v>
+        <v>23.33331439737196</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0134485015634639</v>
+        <v>0.01152590443406976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21.36493388743382</v>
+        <v>24.49998011724056</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01318599598560553</v>
+        <v>0.01127776064030534</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22.38231169159734</v>
+        <v>25.66664583710916</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01292861433758286</v>
+        <v>0.01103495919019266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23.39968949576086</v>
+        <v>26.83331155697776</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01267625660378018</v>
+        <v>0.01079738506721122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24.41706729992437</v>
+        <v>27.99997727684636</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01242882472081891</v>
+        <v>0.01056492573105783</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25.43444510408789</v>
+        <v>29.16664299671495</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01218622253944989</v>
+        <v>0.01033747106433376</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26.4518229082514</v>
+        <v>30.33330871658355</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01194835578719244</v>
+        <v>0.0101149133203835</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27.46920071241492</v>
+        <v>31.49997443645215</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01171513203170014</v>
+        <v>0.009897147072252954</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28.48657851657843</v>
+        <v>32.66664015632075</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01148646064484295</v>
+        <v>0.009684069162748983</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29.50395632074195</v>
+        <v>33.83330587618934</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01126225276748984</v>
+        <v>0.009475578655573075</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30.52133412490547</v>
+        <v>34.99997159605795</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01104242127497998</v>
+        <v>0.009271576787506555</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31.53871192906898</v>
+        <v>36.16663731592654</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01082688074326612</v>
+        <v>0.009071966921626543</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32.5560897332325</v>
+        <v>37.33330303579514</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01061554741572017</v>
+        <v>0.008876654501528464</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33.57346753739601</v>
+        <v>38.49996875566374</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0104083391705861</v>
+        <v>0.008685547006533482</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34.59084534155953</v>
+        <v>39.66663447553233</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01020517548906891</v>
+        <v>0.008498553907861814</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35.60822314572304</v>
+        <v>40.83330019540094</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01000597742404582</v>
+        <v>0.008315586625747709</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36.62560094988656</v>
+        <v>41.99996591526953</v>
       </c>
       <c r="B38" t="n">
-        <v>0.009810667569386904</v>
+        <v>0.008136558487479404</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37.64297875405008</v>
+        <v>43.16663163513813</v>
       </c>
       <c r="B39" t="n">
-        <v>0.009619170029878461</v>
+        <v>0.007961384686341588</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38.66035655821359</v>
+        <v>44.33329735500673</v>
       </c>
       <c r="B40" t="n">
-        <v>0.009431410391728819</v>
+        <v>0.007789982241441275</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39.67773436237711</v>
+        <v>45.49996307487532</v>
       </c>
       <c r="B41" t="n">
-        <v>0.009247315693652865</v>
+        <v>0.007622269958400445</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40.69511216654062</v>
+        <v>46.66662879474393</v>
       </c>
       <c r="B42" t="n">
-        <v>0.009066814398520045</v>
+        <v>0.007458168390892696</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41.71248997070413</v>
+        <v>47.83329451461253</v>
       </c>
       <c r="B43" t="n">
-        <v>0.008889836365555584</v>
+        <v>0.007297599803010038</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42.72986777486765</v>
+        <v>48.99996023448112</v>
       </c>
       <c r="B44" t="n">
-        <v>0.008716312823085538</v>
+        <v>0.007140488132437749</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43.74724557903117</v>
+        <v>50.16662595434972</v>
       </c>
       <c r="B45" t="n">
-        <v>0.008546176341811233</v>
+        <v>0.006986758954424018</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44.76462338319468</v>
+        <v>51.33329167421832</v>
       </c>
       <c r="B46" t="n">
-        <v>0.008379360808608639</v>
+        <v>0.006836339446524698</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45.7820011873582</v>
+        <v>52.49995739408691</v>
       </c>
       <c r="B47" t="n">
-        <v>0.008215801400836014</v>
+        <v>0.006689158354105794</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46.79937899152171</v>
+        <v>53.66662311395552</v>
       </c>
       <c r="B48" t="n">
-        <v>0.008055434561146348</v>
+        <v>0.006545145956590867</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47.81675679568523</v>
+        <v>54.83328883382411</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0078981979727877</v>
+        <v>0.006404234034433213</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48.83413459984875</v>
+        <v>55.99995455369271</v>
       </c>
       <c r="B50" t="n">
-        <v>0.007744030535389178</v>
+        <v>0.006266355836800186</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49.85151240401226</v>
+        <v>57.16662027356131</v>
       </c>
       <c r="B51" t="n">
-        <v>0.007592872341217877</v>
+        <v>0.006131446049952962</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50.86889020817578</v>
+        <v>58.3332859934299</v>
       </c>
       <c r="B52" t="n">
-        <v>0.007444664651897884</v>
+        <v>0.005999440766306985</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51.88626801233929</v>
+        <v>59.49995171329851</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00729934987558723</v>
+        <v>0.00587027745415808</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52.90364581650281</v>
+        <v>60.6666174331671</v>
       </c>
       <c r="B54" t="n">
-        <v>0.007156871544597026</v>
+        <v>0.005743894928061414</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53.92102362066633</v>
+        <v>61.8332831530357</v>
       </c>
       <c r="B55" t="n">
-        <v>0.00701717429344913</v>
+        <v>0.005620233319847868</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54.93840142482984</v>
+        <v>62.9999488729043</v>
       </c>
       <c r="B56" t="n">
-        <v>0.006880203837362027</v>
+        <v>0.005499234050263062</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55.95577922899336</v>
+        <v>64.1666145927729</v>
       </c>
       <c r="B57" t="n">
-        <v>0.006745906951156073</v>
+        <v>0.005380839801218523</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56.97315703315687</v>
+        <v>65.33328031264149</v>
       </c>
       <c r="B58" t="n">
-        <v>0.006614231448570263</v>
+        <v>0.005264994488640031</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57.99053483732038</v>
+        <v>66.4999460325101</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00648512616198485</v>
+        <v>0.005151643235900486</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59.0079126414839</v>
+        <v>67.66661175237869</v>
       </c>
       <c r="B60" t="n">
-        <v>0.006358540922536344</v>
+        <v>0.005040732347822973</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60.02529044564741</v>
+        <v>68.83327747224729</v>
       </c>
       <c r="B61" t="n">
-        <v>0.006234426540623142</v>
+        <v>0.004932209285247368</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61.04266824981093</v>
+        <v>69.99994319211589</v>
       </c>
       <c r="B62" t="n">
-        <v>0.006112734786791738</v>
+        <v>0.004826022640140162</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62.06004605397445</v>
+        <v>71.16660891198448</v>
       </c>
       <c r="B63" t="n">
-        <v>0.005993418372994184</v>
+        <v>0.004722122111242983</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63.07742385813796</v>
+        <v>72.33327463185309</v>
       </c>
       <c r="B64" t="n">
-        <v>0.005876430934213352</v>
+        <v>0.004620458480245073</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64.09480166230148</v>
+        <v>73.49994035172168</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00576172701044521</v>
+        <v>0.004520983588467273</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65.11217946646499</v>
+        <v>74.66660607159028</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005649262029034412</v>
+        <v>0.00442365031405004</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66.12955727062851</v>
+        <v>75.83327179145888</v>
       </c>
       <c r="B67" t="n">
-        <v>0.005538992287352906</v>
+        <v>0.004328412549630284</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67.14693507479203</v>
+        <v>76.99993751132747</v>
       </c>
       <c r="B68" t="n">
-        <v>0.005430874935818843</v>
+        <v>0.004235225180501464</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68.16431287895554</v>
+        <v>78.16660323119608</v>
       </c>
       <c r="B69" t="n">
-        <v>0.005324867961244265</v>
+        <v>0.004144044063240882</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69.18169068311906</v>
+        <v>79.33326895106467</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005220930170510572</v>
+        <v>0.004054826004800317</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70.19906848728257</v>
+        <v>80.49993467093327</v>
       </c>
       <c r="B71" t="n">
-        <v>0.005119021174560238</v>
+        <v>0.003967528742043955</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71.21644629144609</v>
+        <v>81.66660039080188</v>
       </c>
       <c r="B72" t="n">
-        <v>0.005019101372703055</v>
+        <v>0.003882110921728664</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72.23382409560961</v>
+        <v>82.83326611067046</v>
       </c>
       <c r="B73" t="n">
-        <v>0.004921131937226843</v>
+        <v>0.003798532080914867</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73.25120189977312</v>
+        <v>83.99993183053907</v>
       </c>
       <c r="B74" t="n">
-        <v>0.004825074798310406</v>
+        <v>0.00371675262779793</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74.26857970393664</v>
+        <v>85.16659755040766</v>
       </c>
       <c r="B75" t="n">
-        <v>0.004730892629229163</v>
+        <v>0.003636733822955363</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75.28595750810015</v>
+        <v>86.33326327027626</v>
       </c>
       <c r="B76" t="n">
-        <v>0.004638548831850515</v>
+        <v>0.003558437760993126</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76.30333531226367</v>
+        <v>87.49992899014487</v>
       </c>
       <c r="B77" t="n">
-        <v>0.004548007522413041</v>
+        <v>0.00348182735259191</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77.32071311642719</v>
+        <v>88.66659471001346</v>
       </c>
       <c r="B78" t="n">
-        <v>0.004459233517581186</v>
+        <v>0.003406866306936244</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>78.3380909205907</v>
+        <v>89.83326042988206</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004372192320774707</v>
+        <v>0.003333519114524091</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79.35546872475422</v>
+        <v>90.99992614975065</v>
       </c>
       <c r="B80" t="n">
-        <v>0.004286850108762786</v>
+        <v>0.003261751030344934</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>80.37284652891773</v>
+        <v>92.16659186961925</v>
       </c>
       <c r="B81" t="n">
-        <v>0.004203173718520888</v>
+        <v>0.00319152805742207</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>81.39022433308125</v>
+        <v>93.33325758948786</v>
       </c>
       <c r="B82" t="n">
-        <v>0.004121130634344178</v>
+        <v>0.003122816930707124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>82.40760213724475</v>
+        <v>94.49992330935645</v>
       </c>
       <c r="B83" t="n">
-        <v>0.004040688975212627</v>
+        <v>0.00305558510132228</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>83.42497994140827</v>
+        <v>95.66658902922505</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003961817482401396</v>
+        <v>0.002989800721142106</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>84.44235774557178</v>
+        <v>96.83325474909364</v>
       </c>
       <c r="B85" t="n">
-        <v>0.003884485507335039</v>
+        <v>0.002925432627706395</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>85.4597355497353</v>
+        <v>97.99992046896224</v>
       </c>
       <c r="B86" t="n">
-        <v>0.003808662999676928</v>
+        <v>0.002862450329458672</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>86.47711335389882</v>
+        <v>99.16658618883083</v>
       </c>
       <c r="B87" t="n">
-        <v>0.003734320495652907</v>
+        <v>0.002800823991302029</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>87.49449115806233</v>
+        <v>100.3332519086994</v>
       </c>
       <c r="B88" t="n">
-        <v>0.00366142910660159</v>
+        <v>0.002740524420466267</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88.51186896222585</v>
+        <v>101.499917628568</v>
       </c>
       <c r="B89" t="n">
-        <v>0.003589960507748326</v>
+        <v>0.002681523052678669</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>89.52924676638936</v>
+        <v>102.6665833484366</v>
       </c>
       <c r="B90" t="n">
-        <v>0.00351988692719892</v>
+        <v>0.00262379193863345</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>90.54662457055288</v>
+        <v>103.8332490683052</v>
       </c>
       <c r="B91" t="n">
-        <v>0.003451181135147708</v>
+        <v>0.00256730373075134</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>91.5640023747164</v>
+        <v>104.9999147881738</v>
       </c>
       <c r="B92" t="n">
-        <v>0.003383816433295806</v>
+        <v>0.002512031670225651</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>92.58138017887991</v>
+        <v>106.1665805080424</v>
       </c>
       <c r="B93" t="n">
-        <v>0.00331776664447757</v>
+        <v>0.002457949574345617</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>93.59875798304343</v>
+        <v>107.333246227911</v>
       </c>
       <c r="B94" t="n">
-        <v>0.00325300610248717</v>
+        <v>0.002405031824094666</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>94.61613578720694</v>
+        <v>108.4999119477796</v>
       </c>
       <c r="B95" t="n">
-        <v>0.003189509642106004</v>
+        <v>0.002353253352012901</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>95.63351359137046</v>
+        <v>109.6665776676482</v>
       </c>
       <c r="B96" t="n">
-        <v>0.003127252589323352</v>
+        <v>0.002302589630324448</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>96.65089139553398</v>
+        <v>110.8332433875168</v>
       </c>
       <c r="B97" t="n">
-        <v>0.003066210751747807</v>
+        <v>0.002253016659316383</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>97.66826919969749</v>
+        <v>111.9999091073854</v>
       </c>
       <c r="B98" t="n">
-        <v>0.00300636040920777</v>
+        <v>0.002204510955971818</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>98.68564700386101</v>
+        <v>113.166574827254</v>
       </c>
       <c r="B99" t="n">
-        <v>0.002947678304532895</v>
+        <v>0.002157049542844501</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>99.70302480802452</v>
+        <v>114.3332405471226</v>
       </c>
       <c r="B100" t="n">
-        <v>0.002890141634516502</v>
+        <v>0.002110609937175375</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>100.720402612188</v>
+        <v>115.4999062669912</v>
       </c>
       <c r="B101" t="n">
-        <v>0.002833728041055505</v>
+        <v>0.002065170140241016</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>101.7377804163516</v>
+        <v>116.6665719868598</v>
       </c>
       <c r="B102" t="n">
-        <v>0.002778415602461232</v>
+        <v>0.002020708626934386</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>102.7551582205151</v>
+        <v>117.8332377067284</v>
       </c>
       <c r="B103" t="n">
-        <v>0.002724182824942363</v>
+        <v>0.001977204335566345</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>103.7725360246786</v>
+        <v>118.999903426597</v>
       </c>
       <c r="B104" t="n">
-        <v>0.002671008634250659</v>
+        <v>0.001934636657890045</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>104.7899138288421</v>
+        <v>120.1665691464656</v>
       </c>
       <c r="B105" t="n">
-        <v>0.002618872367493407</v>
+        <v>0.001892985429338808</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>105.8072916330056</v>
+        <v>121.3332348663342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.002567753765103252</v>
+        <v>0.00185223091947254</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>106.8246694371691</v>
+        <v>122.4999005862028</v>
       </c>
       <c r="B107" t="n">
-        <v>0.002517632962965906</v>
+        <v>0.00181235382263249</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>107.8420472413327</v>
+        <v>123.6665663060714</v>
       </c>
       <c r="B108" t="n">
-        <v>0.002468490484700824</v>
+        <v>0.001773335248796199</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>108.8594250454962</v>
+        <v>124.83323202594</v>
       </c>
       <c r="B109" t="n">
-        <v>0.002420307234093623</v>
+        <v>0.001735156714628148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>109.8768028496597</v>
+        <v>125.9998977458086</v>
       </c>
       <c r="B110" t="n">
-        <v>0.002373064487674344</v>
+        <v>0.00169780013472526</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>110.8941806538232</v>
+        <v>127.1665634656772</v>
       </c>
       <c r="B111" t="n">
-        <v>0.002326743887443037</v>
+        <v>0.0016612478130491</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111.9115584579867</v>
+        <v>128.3332291855458</v>
       </c>
       <c r="B112" t="n">
-        <v>0.002281327433734803</v>
+        <v>0.001625482434542644</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112.9289362621502</v>
+        <v>129.4998949054144</v>
       </c>
       <c r="B113" t="n">
-        <v>0.002236797478226273</v>
+        <v>0.00159048705692948</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>113.9463140663137</v>
+        <v>130.666560625283</v>
       </c>
       <c r="B114" t="n">
-        <v>0.002193136717077368</v>
+        <v>0.00155624510268643</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>114.9636918704772</v>
+        <v>131.8332263451516</v>
       </c>
       <c r="B115" t="n">
-        <v>0.002150328184206878</v>
+        <v>0.001522740351192405</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>115.9810696746408</v>
+        <v>132.9998920650202</v>
       </c>
       <c r="B116" t="n">
-        <v>0.002108355244700133</v>
+        <v>0.001489956931043178</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>116.9984474788043</v>
+        <v>134.1665577848888</v>
       </c>
       <c r="B117" t="n">
-        <v>0.002067201588344363</v>
+        <v>0.001457879312533402</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>118.0158252829678</v>
+        <v>135.3332235047574</v>
       </c>
       <c r="B118" t="n">
-        <v>0.002026851223291721</v>
+        <v>0.001426492300300908</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>119.0332030871313</v>
+        <v>136.499889224626</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001987288469843364</v>
+        <v>0.001395781026127537</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>120.0505808912948</v>
+        <v>137.6665549444946</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001948497954358506</v>
+        <v>0.001365730941896046</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>121.0679586954583</v>
+        <v>138.8332206643632</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001910464603278384</v>
+        <v>0.001336327812699265</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>122.0853364996219</v>
+        <v>139.9998863842318</v>
       </c>
       <c r="B122" t="n">
-        <v>0.001873173637270283</v>
+        <v>0.001307557710096765</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>123.1027143037854</v>
+        <v>141.1665521041004</v>
       </c>
       <c r="B123" t="n">
-        <v>0.00183661056548427</v>
+        <v>0.00127940700551585</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>124.1200921079489</v>
+        <v>142.333217823969</v>
       </c>
       <c r="B124" t="n">
-        <v>0.001800761179921149</v>
+        <v>0.001251862363797498</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>125.1374699121124</v>
+        <v>143.4998835438376</v>
       </c>
       <c r="B125" t="n">
-        <v>0.001765611549912869</v>
+        <v>0.001224910736877411</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>126.1548477162759</v>
+        <v>144.6665492637062</v>
       </c>
       <c r="B126" t="n">
-        <v>0.001731148016708515</v>
+        <v>0.001198539357606453</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>127.1722255204394</v>
+        <v>145.8332149835748</v>
       </c>
       <c r="B127" t="n">
-        <v>0.00169735718816588</v>
+        <v>0.001172735733702341</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>128.189603324603</v>
+        <v>146.9998807034434</v>
       </c>
       <c r="B128" t="n">
-        <v>0.001664225933549344</v>
+        <v>0.001147487641831516</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>129.2069811287665</v>
+        <v>148.166546423312</v>
       </c>
       <c r="B129" t="n">
-        <v>0.001631741378425239</v>
+        <v>0.001122783121820127</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130.22435893293</v>
+        <v>149.3332121431806</v>
       </c>
       <c r="B130" t="n">
-        <v>0.001599890899661073</v>
+        <v>0.001098610470986845</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>131.2417367370935</v>
+        <v>150.4998778630492</v>
       </c>
       <c r="B131" t="n">
-        <v>0.001568662120518297</v>
+        <v>0.001074958238600294</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>132.259114541257</v>
+        <v>151.6665435829178</v>
       </c>
       <c r="B132" t="n">
-        <v>0.001538042905844518</v>
+        <v>0.001051815220454452</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>133.2764923454205</v>
+        <v>152.8332093027863</v>
       </c>
       <c r="B133" t="n">
-        <v>0.001508021357357295</v>
+        <v>0.001029170453561184</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>134.2938701495841</v>
+        <v>153.9998750226549</v>
       </c>
       <c r="B134" t="n">
-        <v>0.001478585809020007</v>
+        <v>0.001007013210957103</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>135.3112479537476</v>
+        <v>155.1665407425236</v>
       </c>
       <c r="B135" t="n">
-        <v>0.001449724822509312</v>
+        <v>0.0009853329966219889</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>136.3286257579111</v>
+        <v>156.3332064623922</v>
       </c>
       <c r="B136" t="n">
-        <v>0.001421427182770742</v>
+        <v>0.0009641195405064036</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>137.3460035620746</v>
+        <v>157.4998721822608</v>
       </c>
       <c r="B137" t="n">
-        <v>0.001393681893659019</v>
+        <v>0.0009433627936678641</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>138.3633813662381</v>
+        <v>158.6665379021293</v>
       </c>
       <c r="B138" t="n">
-        <v>0.001366478173666995</v>
+        <v>0.0009230529235093625</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>139.3807591704016</v>
+        <v>159.8332036219979</v>
       </c>
       <c r="B139" t="n">
-        <v>0.001339805451734406</v>
+        <v>0.0009031803091217295</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>140.3981369745651</v>
+        <v>160.9998693418665</v>
       </c>
       <c r="B140" t="n">
-        <v>0.001313653363141811</v>
+        <v>0.0008837355367274905</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>141.4155147787287</v>
+        <v>162.1665350617351</v>
       </c>
       <c r="B141" t="n">
-        <v>0.001288011745481394</v>
+        <v>0.0008647093952197872</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>142.4328925828922</v>
+        <v>163.3332007816038</v>
       </c>
       <c r="B142" t="n">
-        <v>0.001262870634708539</v>
+        <v>0.000846092871799792</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>143.4502703870557</v>
+        <v>164.4998665014723</v>
       </c>
       <c r="B143" t="n">
-        <v>0.001238220261270263</v>
+        <v>0.0008278771477074774</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>144.4676481912192</v>
+        <v>165.6665322213409</v>
       </c>
       <c r="B144" t="n">
-        <v>0.001214051046308532</v>
+        <v>0.0008100535940438111</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>145.4850259953827</v>
+        <v>166.8331979412095</v>
       </c>
       <c r="B145" t="n">
-        <v>0.001190353597937976</v>
+        <v>0.0007926137676830946</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>146.5024037995462</v>
+        <v>167.9998636610781</v>
       </c>
       <c r="B146" t="n">
-        <v>0.001167118707596772</v>
+        <v>0.0007755494072741573</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>147.5197816037098</v>
+        <v>169.1665293809467</v>
       </c>
       <c r="B147" t="n">
-        <v>0.00114433734646726</v>
+        <v>0.0007588524293257007</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>148.5371594078733</v>
+        <v>170.3331951008153</v>
       </c>
       <c r="B148" t="n">
-        <v>0.001122000661968743</v>
+        <v>0.0007425149243777139</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>149.5545372120368</v>
+        <v>171.4998608206839</v>
       </c>
       <c r="B149" t="n">
-        <v>0.001100099974316829</v>
+        <v>0.0007265291532553244</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>150.5719150162003</v>
+        <v>172.6665265405525</v>
       </c>
       <c r="B150" t="n">
-        <v>0.001078626773150294</v>
+        <v>0.0007108875434016574</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>151.5892928203638</v>
+        <v>173.8331922604211</v>
       </c>
       <c r="B151" t="n">
-        <v>0.00105757271422473</v>
+        <v>0.0006955826852909879</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>152.6066706245273</v>
+        <v>174.9998579802897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.001036929616169293</v>
+        <v>0.0006806073289194017</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>153.6240484286909</v>
+        <v>176.1665237001583</v>
       </c>
       <c r="B153" t="n">
-        <v>0.001016689457307786</v>
+        <v>0.0006659543803697546</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>154.6414262328544</v>
+        <v>177.3331894200269</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0009968443725425931</v>
+        <v>0.0006516168984511444</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>155.6588040370179</v>
+        <v>178.4998551398955</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0009773866502963168</v>
+        <v>0.0006375880914113942</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>156.6761818411814</v>
+        <v>179.6665208597641</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0009583087295172527</v>
+        <v>0.0006238613137197666</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>157.6935596453449</v>
+        <v>180.8331865796327</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0009396031967393735</v>
+        <v>0.000610430062918194</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>158.7109374495084</v>
+        <v>181.9998522995013</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0009212627832029599</v>
+        <v>0.0005972879765416683</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>159.728315253672</v>
+        <v>183.1665180193699</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0009032803620297383</v>
+        <v>0.0005844288291041495</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>160.7456930578355</v>
+        <v>184.3331837392385</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0008856489454525293</v>
+        <v>0.0005718465291493507</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>161.763070861999</v>
+        <v>185.4998494591071</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0008683616821013664</v>
+        <v>0.000559535116365544</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>162.7804486661625</v>
+        <v>186.6665151789757</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0008514118543399512</v>
+        <v>0.0005474887587618169</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>163.797826470326</v>
+        <v>187.8331808988443</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0008347928756556329</v>
+        <v>0.0005357017499053511</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>164.8152042744895</v>
+        <v>188.9998466187129</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0008184982881002151</v>
+        <v>0.0005241685062186542</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>165.832582078653</v>
+        <v>190.1665123385815</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0008025217597798681</v>
+        <v>0.0005128835643341736</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>166.8499598828165</v>
+        <v>191.3331780584501</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0007868570823956209</v>
+        <v>0.0005018415785065066</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>167.8673376869801</v>
+        <v>192.4998437783187</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0007714981688295233</v>
+        <v>0.0004910373180796397</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>168.8847154911436</v>
+        <v>193.6665094981873</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0007564390507806507</v>
+        <v>0.0004804656650102839</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>169.9020932953071</v>
+        <v>194.8331752180559</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0007416738764448138</v>
+        <v>0.0004701216114419568</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>170.9194710994706</v>
+        <v>195.9998409379245</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0007271969082414113</v>
+        <v>0.0004600002573338767</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>171.9368489036341</v>
+        <v>197.1665066577931</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0007130025205830039</v>
+        <v>0.0004500968081391046</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>172.9542267077976</v>
+        <v>198.3331723776617</v>
       </c>
       <c r="B172" t="n">
-        <v>0.00069908519769056</v>
+        <v>0.0004404065725334295</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>173.9716045119611</v>
+        <v>199.4998380975303</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0006854395314482295</v>
+        <v>0.0004309249601939301</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>174.9889823161247</v>
+        <v>200.6665038173989</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0006720602193040347</v>
+        <v>0.0004216474796229274</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>176.0063601202882</v>
+        <v>201.8331695372675</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0006589420622073894</v>
+        <v>0.000412569736021613</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>177.0237379244517</v>
+        <v>202.9998352571361</v>
       </c>
       <c r="B176" t="n">
-        <v>0.000646079962589833</v>
+        <v>0.000403687429207998</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>178.0411157286152</v>
+        <v>204.1665009770047</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0006334689223843127</v>
+        <v>0.0003949963515791848</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>179.0584935327787</v>
+        <v>205.3331666968733</v>
       </c>
       <c r="B178" t="n">
-        <v>0.000621104041082033</v>
+        <v>0.00038649238611903</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>180.0758713369422</v>
+        <v>206.4998324167419</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0006089805138290808</v>
+        <v>0.0003781715044475608</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>181.0932491411058</v>
+        <v>207.6664981366105</v>
       </c>
       <c r="B180" t="n">
-        <v>0.00059709362955939</v>
+        <v>0.0003700297649125712</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>182.1106269452693</v>
+        <v>208.8331638564791</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0005854387691630626</v>
+        <v>0.0003620633107227569</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>183.1280047494328</v>
+        <v>209.9998295763477</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0005740114036922566</v>
+        <v>0.0003542683681202463</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>184.1453825535963</v>
+        <v>211.1664952962163</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0005628070926012027</v>
+        <v>0.0003466412445933872</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>185.1627603577598</v>
+        <v>212.3331610160849</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0005518214820208417</v>
+        <v>0.000339178327127643</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>186.1801381619233</v>
+        <v>213.4998267359535</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0005410503030661177</v>
+        <v>0.0003318760804937476</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>187.1975159660869</v>
+        <v>214.6664924558221</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0005304893701781366</v>
+        <v>0.0003247310455731141</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>188.2148937702504</v>
+        <v>215.8331581756906</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0005201345794967713</v>
+        <v>0.0003177398377194304</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>189.2322715744139</v>
+        <v>216.9998238955592</v>
       </c>
       <c r="B188" t="n">
-        <v>0.00050998190726715</v>
+        <v>0.0003108991451549403</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>190.2496493785774</v>
+        <v>218.1664896154278</v>
       </c>
       <c r="B189" t="n">
-        <v>0.000500027408274627</v>
+        <v>0.0003042057274020543</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>191.2670271827409</v>
+        <v>219.3331553352965</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0004902672143128996</v>
+        <v>0.0002976564137481475</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>192.2844049869044</v>
+        <v>220.4998210551651</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0004806975326801171</v>
+        <v>0.0002912481017437601</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>193.301782791068</v>
+        <v>221.6664867750336</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0004713146447059254</v>
+        <v>0.0002849777557327</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>194.3191605952315</v>
+        <v>222.8331524949022</v>
       </c>
       <c r="B193" t="n">
-        <v>0.000462114904305276</v>
+        <v>0.0002788424054136213</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>195.336538399395</v>
+        <v>223.9998182147708</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0004530947365624353</v>
+        <v>0.0002728391444343617</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>196.3539162035585</v>
+        <v>225.1664839346394</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0004442506363417565</v>
+        <v>0.0002669651290132586</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>197.371294007722</v>
+        <v>226.333149654508</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0004355791669252154</v>
+        <v>0.0002612175765938667</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>198.3886718118855</v>
+        <v>227.4998153743766</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0004270769586771999</v>
+        <v>0.0002555937645255839</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>199.406049616049</v>
+        <v>228.6664810942452</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0004187407077350807</v>
+        <v>0.0002500910287744676</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>200.4234274202126</v>
+        <v>229.8331468141138</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0004105671747255627</v>
+        <v>0.0002447067626614564</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>201.4408052243761</v>
+        <v>230.9998125339824</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0004025531835055903</v>
+        <v>0.0002394384156269296</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>202.4581830285396</v>
+        <v>232.166478253851</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0003946956199282968</v>
+        <v>0.0002342834920226722</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>203.4755608327031</v>
+        <v>233.3331439737196</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003869914306327701</v>
+        <v>0.0002292395499303905</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>204.4929386368666</v>
+        <v>234.4998096935882</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003794376218573905</v>
+        <v>0.0002243042000039944</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>205.5103164410301</v>
+        <v>235.6664754134568</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003720312582772299</v>
+        <v>0.0002194751043382155</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>206.5276942451937</v>
+        <v>236.8331411333254</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0003647694618628132</v>
+        <v>0.0002147499753612069</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>207.5450720493572</v>
+        <v>237.999806853194</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0003576494107612225</v>
+        <v>0.0002101265747506946</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>208.5624498535207</v>
+        <v>239.1664725730626</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003506683382007728</v>
+        <v>0.000205602712373896</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>209.5798276576842</v>
+        <v>240.3331382929312</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003438235314153306</v>
+        <v>0.0002011762452494925</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>210.5972054618477</v>
+        <v>241.4998040127998</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003371123305897482</v>
+        <v>0.0001968450765331543</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>211.6145832660112</v>
+        <v>242.6664697326684</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003305321278269045</v>
+        <v>0.0001926071545240487</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>212.6319610701748</v>
+        <v>243.833135452537</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0003240803661338983</v>
+        <v>0.0001884604716929738</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>213.6493388743383</v>
+        <v>244.9998011724056</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003177545384286202</v>
+        <v>0.0001844030637310471</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>214.6667166785018</v>
+        <v>246.1664668922742</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003115521865654759</v>
+        <v>0.0001804330086191638</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>215.6840944826653</v>
+        <v>247.3331326121428</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0003054709003805076</v>
+        <v>0.0001765484257186516</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>216.7014722868288</v>
+        <v>248.4997983320114</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002995083167539471</v>
+        <v>0.0001727474748786271</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>217.7188500909923</v>
+        <v>249.66646405188</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002936621186929037</v>
+        <v>0.00016902835556562</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>218.7362278951558</v>
+        <v>250.8331297717486</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0002879300344307475</v>
+        <v>0.0001653893060105403</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>219.7536056993194</v>
+        <v>251.9997954916172</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0002823098365436807</v>
+        <v>0.0001618286023732027</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>220.7709835034829</v>
+        <v>253.1664612114858</v>
       </c>
       <c r="B219" t="n">
-        <v>0.000276799341085969</v>
+        <v>0.0001583445579267651</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>221.7883613076464</v>
+        <v>254.3331269313544</v>
       </c>
       <c r="B220" t="n">
-        <v>0.000271396406741378</v>
+        <v>0.0001549355222584376</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>222.8057391118099</v>
+        <v>255.499792651223</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0002660989339898339</v>
+        <v>0.0001515998804871084</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>223.8231169159734</v>
+        <v>256.6664583710916</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0002609048642932339</v>
+        <v>0.0001483360524991685</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>224.8404947201369</v>
+        <v>257.8331240909602</v>
       </c>
       <c r="B223" t="n">
-        <v>0.0002558121792947625</v>
+        <v>0.0001451424921995387</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>225.8578725243005</v>
+        <v>258.9997898108288</v>
       </c>
       <c r="B224" t="n">
-        <v>0.000250818900033676</v>
+        <v>0.0001420176867791837</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>226.875250328464</v>
+        <v>260.1664555306974</v>
       </c>
       <c r="B225" t="n">
-        <v>0.0002459230861780104</v>
+        <v>0.0001389601559986846</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>227.8926281326275</v>
+        <v>261.333121250566</v>
       </c>
       <c r="B226" t="n">
-        <v>0.0002411228352695662</v>
+        <v>0.0001359684514874416</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>228.910005936791</v>
+        <v>262.4997869704346</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0002364162819850992</v>
+        <v>0.0001330411560567943</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>229.9273837409545</v>
+        <v>263.6664526903032</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0002318015974102779</v>
+        <v>0.0001301768830289867</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>230.944761545118</v>
+        <v>264.8331184101718</v>
       </c>
       <c r="B229" t="n">
-        <v>0.0002272769883310743</v>
+        <v>0.0001273742755806917</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>231.9621393492815</v>
+        <v>265.9997841300404</v>
       </c>
       <c r="B230" t="n">
-        <v>0.0002228406965349762</v>
+        <v>0.0001246320060998108</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>232.979517153445</v>
+        <v>267.166449849909</v>
       </c>
       <c r="B231" t="n">
-        <v>0.0002184909981288952</v>
+        <v>0.0001219487755561912</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>233.9968949576086</v>
+        <v>268.3331155697776</v>
       </c>
       <c r="B232" t="n">
-        <v>0.0002142262028691066</v>
+        <v>0.0001193233128879733</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>235.0142727617721</v>
+        <v>269.4997812896462</v>
       </c>
       <c r="B233" t="n">
-        <v>0.0002100446535037106</v>
+        <v>0.0001167543743969312</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>236.0316505659356</v>
+        <v>270.6664470095147</v>
       </c>
       <c r="B234" t="n">
-        <v>0.0002059447251300722</v>
+        <v>0.0001142407431613703</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>237.0490283700991</v>
+        <v>271.8331127293833</v>
       </c>
       <c r="B235" t="n">
-        <v>0.0002019248245618356</v>
+        <v>0.0001117812284593025</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>238.0664061742626</v>
+        <v>272.9997784492519</v>
       </c>
       <c r="B236" t="n">
-        <v>0.0001979833897106713</v>
+        <v>0.0001093746652036117</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>239.0837839784261</v>
+        <v>274.1664441691206</v>
       </c>
       <c r="B237" t="n">
-        <v>0.0001941188889798092</v>
+        <v>0.000107019913390281</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>240.1011617825897</v>
+        <v>275.3331098889892</v>
       </c>
       <c r="B238" t="n">
-        <v>0.000190329820667392</v>
+        <v>0.0001047158575594657</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>241.1185395867532</v>
+        <v>276.4997756088578</v>
       </c>
       <c r="B239" t="n">
-        <v>0.000186614712383825</v>
+        <v>0.0001024614062657737</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>242.1359173909167</v>
+        <v>277.6664413287264</v>
       </c>
       <c r="B240" t="n">
-        <v>0.000182972120480174</v>
+        <v>0.0001002554915620355</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>243.1532951950802</v>
+        <v>278.833107048595</v>
       </c>
       <c r="B241" t="n">
-        <v>0.0001794006294861399</v>
+        <v>9.809706849292305e-05</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>244.1706729992437</v>
+        <v>279.9997727684636</v>
       </c>
       <c r="B242" t="n">
-        <v>0.0001758988515603093</v>
+        <v>9.598511460055899e-05</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>245.1880508034072</v>
+        <v>281.1664384883322</v>
       </c>
       <c r="B243" t="n">
-        <v>0.0001724654259509635</v>
+        <v>9.391862943933298e-05</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>246.2054286075708</v>
+        <v>282.3331042082007</v>
       </c>
       <c r="B244" t="n">
-        <v>0.0001690990184679357</v>
+        <v>9.189663410292249e-05</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>247.2228064117343</v>
+        <v>283.4997699280693</v>
       </c>
       <c r="B245" t="n">
-        <v>0.0001657983209628175</v>
+        <v>8.991817075966421e-05</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>248.2401842158978</v>
+        <v>284.6664356479379</v>
       </c>
       <c r="B246" t="n">
-        <v>0.0001625620508216868</v>
+        <v>8.798230219970149e-05</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>249.2575620200613</v>
+        <v>285.8331013678065</v>
       </c>
       <c r="B247" t="n">
-        <v>0.0001593889504664295</v>
+        <v>8.608811139005425e-05</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>250.2749398242248</v>
+        <v>286.9997670876751</v>
       </c>
       <c r="B248" t="n">
-        <v>0.0001562777868658827</v>
+        <v>8.423470104103691e-05</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>251.2923176283883</v>
+        <v>288.1664328075437</v>
       </c>
       <c r="B249" t="n">
-        <v>0.0001532273510567988</v>
+        <v>8.24211931812408e-05</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>252.3096954325518</v>
+        <v>289.3330985274123</v>
       </c>
       <c r="B250" t="n">
-        <v>0.0001502364576741408</v>
+        <v>8.064672874086716e-05</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>253.3270732367154</v>
+        <v>290.499764247281</v>
       </c>
       <c r="B251" t="n">
-        <v>0.0001473039444902158</v>
+        <v>7.891046714512354e-05</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>254.3444510408789</v>
+        <v>291.6664299671496</v>
       </c>
       <c r="B252" t="n">
-        <v>0.0001444286719636302</v>
+        <v>7.721158591661288e-05</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>255.3618288450424</v>
+        <v>292.8330956870182</v>
       </c>
       <c r="B253" t="n">
-        <v>0.0001416095227956111</v>
+        <v>7.554928028478848e-05</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>256.3792066492059</v>
+        <v>293.9997614068867</v>
       </c>
       <c r="B254" t="n">
-        <v>0.00013884540149664</v>
+        <v>7.392276280547237e-05</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>257.3965844533694</v>
+        <v>295.1664271267553</v>
       </c>
       <c r="B255" t="n">
-        <v>0.0001361352339602066</v>
+        <v>7.233126298765346e-05</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>258.4139622575329</v>
+        <v>296.3330928466239</v>
       </c>
       <c r="B256" t="n">
-        <v>0.0001334779670454024</v>
+        <v>7.0774026927994e-05</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>259.4313400616965</v>
+        <v>297.4997585664925</v>
       </c>
       <c r="B257" t="n">
-        <v>0.0001308725681683532</v>
+        <v>6.925031695432862e-05</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>260.44871786586</v>
+        <v>298.6664242863611</v>
       </c>
       <c r="B258" t="n">
-        <v>0.0001283180249005262</v>
+        <v>6.775941127601526e-05</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>261.4660956700235</v>
+        <v>299.8330900062297</v>
       </c>
       <c r="B259" t="n">
-        <v>0.0001258133445746493</v>
+        <v>6.630060364199414e-05</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>262.483473474187</v>
+        <v>300.9997557260983</v>
       </c>
       <c r="B260" t="n">
-        <v>0.0001233575539006971</v>
+        <v>6.487320300612652e-05</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>263.5008512783505</v>
+        <v>302.1664214459669</v>
       </c>
       <c r="B261" t="n">
-        <v>0.0001209496985855591</v>
+        <v>6.347653320045587e-05</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>264.518229082514</v>
+        <v>303.3330871658355</v>
       </c>
       <c r="B262" t="n">
-        <v>0.0001185888429637583</v>
+        <v>6.210993261360774e-05</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>265.5356068866776</v>
+        <v>304.4997528857041</v>
       </c>
       <c r="B263" t="n">
-        <v>0.0001162740696338157</v>
+        <v>6.07727538786106e-05</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>266.5529846908411</v>
+        <v>305.6664186055727</v>
       </c>
       <c r="B264" t="n">
-        <v>0.0001140044791000174</v>
+        <v>5.946436356606961e-05</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>267.5703624950046</v>
+        <v>306.8330843254413</v>
       </c>
       <c r="B265" t="n">
-        <v>0.0001117791894257216</v>
+        <v>5.818414188354973e-05</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>268.5877402991681</v>
+        <v>307.9997500453099</v>
       </c>
       <c r="B266" t="n">
-        <v>0.0001095973358881386</v>
+        <v>5.693148238181043e-05</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>269.6051181033316</v>
+        <v>309.1664157651785</v>
       </c>
       <c r="B267" t="n">
-        <v>0.0001074580706434232</v>
+        <v>5.570579166896273e-05</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>270.6224959074951</v>
+        <v>310.3330814850471</v>
       </c>
       <c r="B268" t="n">
-        <v>0.0001053605623969237</v>
+        <v>5.450648912762372e-05</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>271.6398737116587</v>
+        <v>311.4997472049157</v>
       </c>
       <c r="B269" t="n">
-        <v>0.0001033039960810419</v>
+        <v>5.333300664084992e-05</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>272.6572515158222</v>
+        <v>312.6664129247843</v>
       </c>
       <c r="B270" t="n">
-        <v>0.0001012875725370219</v>
+        <v>5.218478832299519e-05</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>273.6746293199857</v>
+        <v>313.8330786446529</v>
       </c>
       <c r="B271" t="n">
-        <v>9.931050820508699e-05</v>
+        <v>5.106129025613565e-05</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>274.6920071241492</v>
+        <v>314.9997443645215</v>
       </c>
       <c r="B272" t="n">
-        <v>9.737203482046967e-05</v>
+        <v>4.996198023227565e-05</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>275.7093849283127</v>
+        <v>316.1664100843901</v>
       </c>
       <c r="B273" t="n">
-        <v>9.54713991141061e-05</v>
+        <v>4.888633750154901e-05</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>276.7267627324762</v>
+        <v>317.3330758042587</v>
       </c>
       <c r="B274" t="n">
-        <v>9.360786252045161e-05</v>
+        <v>4.783385252555899e-05</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>277.7441405366397</v>
+        <v>318.4997415241273</v>
       </c>
       <c r="B275" t="n">
-        <v>9.178070088996111e-05</v>
+        <v>4.680402673585698e-05</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>278.7615183408033</v>
+        <v>319.6664072439959</v>
       </c>
       <c r="B276" t="n">
-        <v>8.998920420844447e-05</v>
+        <v>4.579637229756e-05</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>279.7788961449668</v>
+        <v>320.8330729638645</v>
       </c>
       <c r="B277" t="n">
-        <v>8.823267632010492e-05</v>
+        <v>4.481041187896333e-05</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>280.7962739491303</v>
+        <v>321.9997386837331</v>
       </c>
       <c r="B278" t="n">
-        <v>8.651043465818893e-05</v>
+        <v>4.384567842415085e-05</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>281.8136517532938</v>
+        <v>323.1664044036017</v>
       </c>
       <c r="B279" t="n">
-        <v>8.48218099788281e-05</v>
+        <v>4.290171493331338e-05</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>282.8310295574573</v>
+        <v>324.3330701234703</v>
       </c>
       <c r="B280" t="n">
-        <v>8.316614610151036e-05</v>
+        <v>4.197807424520829e-05</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>283.8484073616208</v>
+        <v>325.4997358433389</v>
       </c>
       <c r="B281" t="n">
-        <v>8.154279965372536e-05</v>
+        <v>4.107431882561422e-05</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>284.8657851657844</v>
+        <v>326.6664015632075</v>
       </c>
       <c r="B282" t="n">
-        <v>7.995113982150246e-05</v>
+        <v>4.019002056006814e-05</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>285.8831629699479</v>
+        <v>327.833067283076</v>
       </c>
       <c r="B283" t="n">
-        <v>7.839054810338646e-05</v>
+        <v>3.932476055109884e-05</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>286.9005407741114</v>
+        <v>328.9997330029447</v>
       </c>
       <c r="B284" t="n">
-        <v>7.686041807128806e-05</v>
+        <v>3.847812891995677e-05</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>287.9179185782749</v>
+        <v>330.1663987228133</v>
       </c>
       <c r="B285" t="n">
-        <v>7.536015513378961e-05</v>
+        <v>3.764972461198384e-05</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>288.9352963824384</v>
+        <v>331.3330644426819</v>
       </c>
       <c r="B286" t="n">
-        <v>7.38891763055895e-05</v>
+        <v>3.683915520690792e-05</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>289.9526741866019</v>
+        <v>332.4997301625505</v>
       </c>
       <c r="B287" t="n">
-        <v>7.244690998087466e-05</v>
+        <v>3.604603673320543e-05</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>290.9700519907655</v>
+        <v>333.6663958824191</v>
       </c>
       <c r="B288" t="n">
-        <v>7.103279571111307e-05</v>
+        <v>3.526999348588982e-05</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>291.987429794929</v>
+        <v>334.8330616022877</v>
       </c>
       <c r="B289" t="n">
-        <v>6.96462839872655e-05</v>
+        <v>3.451065784858232e-05</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>293.0048075990925</v>
+        <v>335.9997273221563</v>
       </c>
       <c r="B290" t="n">
-        <v>6.828683602666272e-05</v>
+        <v>3.376767011922265e-05</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>294.022185403256</v>
+        <v>337.1663930420249</v>
       </c>
       <c r="B291" t="n">
-        <v>6.69539235630744e-05</v>
+        <v>3.304067834027611e-05</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>295.0395632074195</v>
+        <v>338.3330587618935</v>
       </c>
       <c r="B292" t="n">
-        <v>6.564702864144324e-05</v>
+        <v>3.232933813086777e-05</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>296.056941011583</v>
+        <v>339.499724481762</v>
       </c>
       <c r="B293" t="n">
-        <v>6.436564341752973e-05</v>
+        <v>3.163331252533999e-05</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>297.0743188157466</v>
+        <v>340.6663902016306</v>
       </c>
       <c r="B294" t="n">
-        <v>6.310926995927577e-05</v>
+        <v>3.095227181181004e-05</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>298.0916966199101</v>
+        <v>341.8330559214992</v>
       </c>
       <c r="B295" t="n">
-        <v>6.187742005381533e-05</v>
+        <v>3.028589337736523e-05</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>299.1090744240736</v>
+        <v>342.9997216413678</v>
       </c>
       <c r="B296" t="n">
-        <v>6.066961501841386e-05</v>
+        <v>2.963386155432861e-05</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>300.1264522282371</v>
+        <v>344.1663873612364</v>
       </c>
       <c r="B297" t="n">
-        <v>5.948538551337184e-05</v>
+        <v>2.899586747144932e-05</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>301.1438300324006</v>
+        <v>345.333053081105</v>
       </c>
       <c r="B298" t="n">
-        <v>5.832427136057564e-05</v>
+        <v>2.837160890680582e-05</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>302.1612078365641</v>
+        <v>346.4997188009737</v>
       </c>
       <c r="B299" t="n">
-        <v>5.718582136425817e-05</v>
+        <v>2.776079014541973e-05</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>303.1785856407276</v>
+        <v>347.6663845208423</v>
       </c>
       <c r="B300" t="n">
-        <v>5.606959313519703e-05</v>
+        <v>2.716312183901071e-05</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>304.1959634448912</v>
+        <v>348.8330502407109</v>
       </c>
       <c r="B301" t="n">
-        <v>5.497515292006876e-05</v>
+        <v>2.657832086810665e-05</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>305.2133412490547</v>
+        <v>349.9997159605795</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.04148300284683034</v>
+        <v>-0.03733395911304955</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>306.2307190532182</v>
+        <v>351.166381680448</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.0398635630033322</v>
+        <v>-0.03572641667617608</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>307.2480968573817</v>
+        <v>352.3330474003166</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.03830734388221991</v>
+        <v>-0.03418809252602446</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>308.2654746615452</v>
+        <v>353.4997131201852</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.03681187743273188</v>
+        <v>-0.03271600623041025</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>309.2828524657087</v>
+        <v>354.6663788400538</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.03537479195344186</v>
+        <v>-0.03130730568994126</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>310.3002302698723</v>
+        <v>355.8330445599224</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.03399380833091113</v>
+        <v>-0.02995926161220607</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>311.3176080740358</v>
+        <v>356.999710279791</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.03266673642518202</v>
+        <v>-0.02866926222389631</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>312.3349858781993</v>
+        <v>358.1663759996596</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.03139147159637182</v>
+        <v>-0.0274348082106156</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>313.3523636823628</v>
+        <v>359.3330417195282</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.03016599136686907</v>
+        <v>-0.02625350787457291</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>314.3697414865263</v>
+        <v>360.4997074393968</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.02898835221382828</v>
+        <v>-0.02512307250077891</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>315.3871192906898</v>
+        <v>361.6663731592654</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.02785668648688546</v>
+        <v>-0.02404131192276572</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>316.4044970948534</v>
+        <v>362.833038879134</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.02676919944619869</v>
+        <v>-0.02300613027924037</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>317.4218748990169</v>
+        <v>363.9997045990026</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.02572416641612143</v>
+        <v>-0.02201552195344952</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>318.4392527031804</v>
+        <v>365.1663703188712</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.02471993004999194</v>
+        <v>-0.02106756768739043</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>319.4566305073439</v>
+        <v>366.3330360387398</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.02375489770170097</v>
+        <v>-0.02016043086333615</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>320.4740083115074</v>
+        <v>367.4997017586084</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.02282753889987057</v>
+        <v>-0.01929235394547356</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>321.4913861156709</v>
+        <v>368.666367478477</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.02193638292063853</v>
+        <v>-0.01846165507475855</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>322.5087639198345</v>
+        <v>369.8330331983456</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.02108001645519523</v>
+        <v>-0.01766672481039183</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>323.526141723998</v>
+        <v>370.9996989182142</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.02025708136837936</v>
+        <v>-0.01690602301160117</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>324.5435195281615</v>
+        <v>372.1663646380828</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.01946627254477371</v>
+        <v>-0.01617807585369024</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>325.560897332325</v>
+        <v>373.3330303579514</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.01870633581888629</v>
+        <v>-0.0154814729725702</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>326.5782751364885</v>
+        <v>374.49969607782</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.01797606598613524</v>
+        <v>-0.01481486473224521</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>327.595652940652</v>
+        <v>375.6663617976886</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.01727430489148192</v>
+        <v>-0.01417695960995399</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>328.6130307448155</v>
+        <v>376.8330275175572</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.01659993959268016</v>
+        <v>-0.01356652169390463</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>329.630408548979</v>
+        <v>377.9996932374258</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.01595190059523079</v>
+        <v>-0.01298236828875204</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>330.6477863531425</v>
+        <v>379.1663589572944</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.0153291601562412</v>
+        <v>-0.01242336762418018</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>331.665164157306</v>
+        <v>380.333024677163</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.01473073065449956</v>
+        <v>-0.01188843666214981</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>332.6825419614696</v>
+        <v>381.4996903970316</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.0141556630241783</v>
+        <v>-0.01137653899856113</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>333.6999197656331</v>
+        <v>382.6663561169002</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.01360304524968574</v>
+        <v>-0.01088668285526916</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>334.7172975697966</v>
+        <v>383.8330218367688</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.01307200091927423</v>
+        <v>-0.01041791915855989</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>335.7346753739601</v>
+        <v>384.9996875566374</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.01256168783511595</v>
+        <v>-0.009969339700362217</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>336.7520531781236</v>
+        <v>386.166353276506</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.01207129667763655</v>
+        <v>-0.009540075378638206</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>337.7694309822871</v>
+        <v>387.3330189963746</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.01160004972199475</v>
+        <v>-0.009129294513536321</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>338.7868087864506</v>
+        <v>388.4996847162432</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.01114719960466565</v>
+        <v>-0.008736201236051748</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>339.8041865906142</v>
+        <v>389.6663504361118</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.01071202813817664</v>
+        <v>-0.008360033946065454</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>340.8215643947777</v>
+        <v>390.8330161559804</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.01029384517211478</v>
+        <v>-0.008000063836779314</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>341.8389421989412</v>
+        <v>391.999681875849</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.009891987498597769</v>
+        <v>-0.00765559348268761</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>342.8563200031047</v>
+        <v>393.1663475957176</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.009505817800474419</v>
+        <v>-0.007325955488345521</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>343.8736978072682</v>
+        <v>394.3330133155862</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.009134723640585259</v>
+        <v>-0.007010511195322625</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>344.8910756114317</v>
+        <v>395.4996790354548</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.008778116490482692</v>
+        <v>-0.006708649444830894</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>345.9084534155953</v>
+        <v>396.6663447553233</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.008435430797066401</v>
+        <v>-0.006419785393632345</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>346.9258312197588</v>
+        <v>397.8330104751919</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.008106123085657896</v>
+        <v>-0.006143359380933465</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>347.9432090239223</v>
+        <v>398.9996761950605</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.007789671098088818</v>
+        <v>-0.00587883584406685</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>348.9605868280858</v>
+        <v>400.1663419149291</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.007485572964437041</v>
+        <v>-0.005625702280864151</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>349.9779646322493</v>
+        <v>401.3330076347978</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.0071933464070979</v>
+        <v>-0.005383468256706093</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>350.9953424364128</v>
+        <v>402.4996733546664</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.006912527975926203</v>
+        <v>-0.005151664454328483</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>352.0127202405764</v>
+        <v>403.666339074535</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.006642672313238404</v>
+        <v>-0.004929841764541153</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>353.0300980447399</v>
+        <v>404.8330047944036</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.006383351447507447</v>
+        <v>-0.004717570416100094</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>354.0474758489034</v>
+        <v>405.9996705142722</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.006134154114630742</v>
+        <v>-0.004514439143045067</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>355.0648536530669</v>
+        <v>407.1663362341408</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.005894685105695506</v>
+        <v>-0.004320054387890789</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>356.0822314572304</v>
+        <v>408.3330019540093</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.005664564640205408</v>
+        <v>-0.004134039539127868</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>357.0996092613939</v>
+        <v>409.4996676738779</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.005443427763776949</v>
+        <v>-0.003956034201554768</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>358.1169870655575</v>
+        <v>410.6663333937465</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.005230923769347868</v>
+        <v>-0.003785693498028862</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>359.134364869721</v>
+        <v>411.8329991136151</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.00502671564098113</v>
+        <v>-0.003622687401283339</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>360.1517426738845</v>
+        <v>412.9996648334837</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.00483047951938228</v>
+        <v>-0.003466700094513738</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>361.169120478048</v>
+        <v>414.1663305533523</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.004641904188281604</v>
+        <v>-0.003317429359498223</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>362.1864982822115</v>
+        <v>415.3329962732209</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.004460690580868522</v>
+        <v>-0.003174585991063167</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>363.203876086375</v>
+        <v>416.4996619930895</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.004286551305492234</v>
+        <v>-0.0030378932367618</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>364.2212538905385</v>
+        <v>417.6663277129582</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.004119210189880615</v>
+        <v>-0.002907086260678753</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>365.2386316947021</v>
+        <v>418.8329934328268</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.003958401843149603</v>
+        <v>-0.002781911630323021</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>366.2560094988656</v>
+        <v>419.9996591526953</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.003803871234913613</v>
+        <v>-0.0026621268256139</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>367.2733873030291</v>
+        <v>421.1663248725639</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.003655373290825566</v>
+        <v>-0.00254749976900957</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>368.2907651071926</v>
+        <v>422.3329905924325</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.003512672503906198</v>
+        <v>-0.002437808375867803</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>369.3081429113561</v>
+        <v>423.4996563123011</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.00337554256104768</v>
+        <v>-0.002332840124166794</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>370.3255207155196</v>
+        <v>424.6663220321697</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.003243765984097148</v>
+        <v>-0.002232391642753879</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>371.3428985196832</v>
+        <v>425.8329877520383</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.003117133784952196</v>
+        <v>-0.002136268317322929</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>372.3602763238467</v>
+        <v>426.9996534719069</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.00299544513412069</v>
+        <v>-0.00204428391335852</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>373.3776541280102</v>
+        <v>428.1663191917755</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.002878507042220305</v>
+        <v>-0.001956260215314909</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>374.3950319321737</v>
+        <v>429.3329849116441</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.002766134053910522</v>
+        <v>-0.001872026681331377</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>375.4124097363372</v>
+        <v>430.4996506315127</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.002658147953774493</v>
+        <v>-0.001791420112815916</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>376.4297875405007</v>
+        <v>431.6663163513813</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.002554377483682286</v>
+        <v>-0.001714284338254784</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>377.4471653446643</v>
+        <v>432.8329820712499</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.002454658071187413</v>
+        <v>-0.001640469910637621</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>378.4645431488278</v>
+        <v>433.9996477911185</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.002358831568527466</v>
+        <v>-0.001569833817910895</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>379.4819209529913</v>
+        <v>435.1663135109871</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.002266746001812773</v>
+        <v>-0.001502239205898606</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>380.4992987571548</v>
+        <v>436.3329792308557</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.002178255330007308</v>
+        <v>-0.001437555113153346</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>381.5166765613183</v>
+        <v>437.4996449507243</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.002093219213317443</v>
+        <v>-0.001375656217224803</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>382.5340543654818</v>
+        <v>438.6663106705929</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.002011502790624079</v>
+        <v>-0.001316422591853259</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>383.5514321696454</v>
+        <v>439.8329763904615</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.001932976465601971</v>
+        <v>-0.001259739474617974</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>384.5688099738089</v>
+        <v>440.9996421103301</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.001857515701189662</v>
+        <v>-0.001205497044590082</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>385.5861877779724</v>
+        <v>442.1663078301987</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.001785000822082821</v>
+        <v>-0.001153590209559934</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>386.6035655821359</v>
+        <v>443.3329735500673</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.001715316824937453</v>
+        <v>-0.001103918402425455</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>387.6209433862994</v>
+        <v>444.4996392699359</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.001648353195983556</v>
+        <v>-0.001056385386348271</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>388.6383211904629</v>
+        <v>445.6663049898045</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.00158400373575789</v>
+        <v>-0.001010899068299167</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>389.6556989946264</v>
+        <v>446.8329707096731</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.00152216639067939</v>
+        <v>-0.0009673713206321005</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>390.67307679879</v>
+        <v>447.9996364295417</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.001462743091199236</v>
+        <v>-0.0009257178103407486</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>391.6904546029535</v>
+        <v>449.1663021494103</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.001405639596270567</v>
+        <v>-0.0008858578356677536</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>392.707832407117</v>
+        <v>450.3329678692789</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.001350765343888167</v>
+        <v>-0.0008477141697478474</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>393.7252102112805</v>
+        <v>451.4996335891475</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.001298033307463843</v>
+        <v>-0.0008112129109855215</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>394.742588015444</v>
+        <v>452.6662993090161</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.001247359857808827</v>
+        <v>-0.0007762833398730528</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>395.7599658196075</v>
+        <v>453.8329650288846</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.001198664630504014</v>
+        <v>-0.0007428577819753495</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>396.7773436237711</v>
+        <v>454.9996307487532</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.00115187039844717</v>
+        <v>-0.0007108714768135485</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>397.7947214279346</v>
+        <v>456.1662964686219</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.001106902949376963</v>
+        <v>-0.000680262452394815</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>398.8120992320981</v>
+        <v>457.3329621884905</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.001063690968177656</v>
+        <v>-0.0006509714051441469</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>399.8294770362616</v>
+        <v>458.4996279083591</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.001022165923778349</v>
+        <v>-0.0006229415850066185</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>400.8468548404251</v>
+        <v>459.6662936282277</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.0009822619604672677</v>
+        <v>-0.0005961186854968494</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>401.8642326445886</v>
+        <v>460.8329593480963</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.0009439157934502257</v>
+        <v>-0.0005704507384824416</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>402.8816104487522</v>
+        <v>461.9996250679649</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.000907066608484818</v>
+        <v>-0.0005458880134985083</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>403.8989882529157</v>
+        <v>463.1662907878335</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.000871655965433938</v>
+        <v>-0.0005223829213966332</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>404.9163660570792</v>
+        <v>464.3329565077021</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.0008376277055835673</v>
+        <v>-0.0004998899221435848</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>405.9337438612427</v>
+        <v>465.4996222275706</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.0008049278625792358</v>
+        <v>-0.0004783654365893941</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>406.9511216654062</v>
+        <v>466.6662879474392</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.000773504576839357</v>
+        <v>-0.0004577677620345755</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>407.9684994695697</v>
+        <v>467.8329536673078</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.0007433080133097815</v>
+        <v>-0.0004380569914336557</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>408.9858772737333</v>
+        <v>468.9996193871764</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.000714290282428821</v>
+        <v>-0.0004191949360763529</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>410.0032550778968</v>
+        <v>470.166285107045</v>
       </c>
       <c r="B405" t="n">
-        <v>-0.0006864053641778906</v>
+        <v>-0.0004011450515992007</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>411.0206328820603</v>
+        <v>471.3329508269136</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.0006596090350970882</v>
+        <v>-0.0003838723671824489</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>412.0380106862238</v>
+        <v>472.4996165467822</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.0006338587981504354</v>
+        <v>-0.0003673434177956353</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>413.0553884903873</v>
+        <v>473.6662822666509</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.0006091138153277092</v>
+        <v>-0.000351526179360682</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>414.0727662945508</v>
+        <v>474.8329479865195</v>
       </c>
       <c r="B409" t="n">
-        <v>-0.000585334842879496</v>
+        <v>-0.0003363900067066202</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>415.0901440987143</v>
+        <v>475.9996137063881</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.0005624841690782934</v>
+        <v>-0.0003219055741961417</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>416.1075219028779</v>
+        <v>477.1662794262566</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.0005405255544112516</v>
+        <v>-0.0003080448189084671</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>417.1248997070414</v>
+        <v>478.3329451461252</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.0005194241741068315</v>
+        <v>-0.0002947808862685787</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>418.1422775112049</v>
+        <v>479.4996108659938</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.0004991465629046551</v>
+        <v>-0.0002820880780180119</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>419.1596553153684</v>
+        <v>480.6662765858624</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.000479660561982859</v>
+        <v>-0.0002699418024253925</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>420.1770331195319</v>
+        <v>481.832942305731</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.0004609352679559064</v>
+        <v>-0.0002583185266413308</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>421.1944109236954</v>
+        <v>482.9996080255996</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.0004429409838642891</v>
+        <v>-0.0002471957311041071</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>422.211788727859</v>
+        <v>484.1662737454682</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.0004256491720771794</v>
+        <v>-0.0002365518659099643</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>423.2291665320225</v>
+        <v>485.3329394653368</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.0004090324090342501</v>
+        <v>-0.0002263663090602235</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>424.246544336186</v>
+        <v>486.4996051852054</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.0003930643417533701</v>
+        <v>-0.0002166193265077104</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>425.2639221403495</v>
+        <v>487.666270905074</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.0003777196460368991</v>
+        <v>-0.0002072920339225232</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>426.281299944513</v>
+        <v>488.8329366249426</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.0003629739863090619</v>
+        <v>-0.0001983663601051979</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>427.2986777486765</v>
+        <v>489.9996023448112</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.0003488039770224019</v>
+        <v>-0.0001898250119735087</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>428.3160555528401</v>
+        <v>491.1662680646798</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.0003351871455686181</v>
+        <v>-0.0001816514410590979</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>429.3334333570036</v>
+        <v>492.3329337845484</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.000322101896639891</v>
+        <v>-0.0001738298114446693</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>430.3508111611671</v>
+        <v>493.499599504417</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.0003095274779795577</v>
+        <v>-0.0001663449690831833</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>431.3681889653306</v>
+        <v>494.6662652242856</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.0002974439474706993</v>
+        <v>-0.0001591824124372839</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>432.3855667694941</v>
+        <v>495.8329309441542</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.0002858321415096038</v>
+        <v>-0.0001523282643834998</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>433.4029445736576</v>
+        <v>496.9995966640228</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.0002746736446132797</v>
+        <v>-0.0001457692453255514</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>434.4203223778212</v>
+        <v>498.1662623838914</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.0002639507602144917</v>
+        <v>-0.0001394926474661246</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>435.4377001819847</v>
+        <v>499.33292810376</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.0002536464825952117</v>
+        <v>-0.0001334863101860453</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>436.4550779861482</v>
+        <v>500.4995938236286</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.0002437444699179724</v>
+        <v>-0.0001277385964834284</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>437.4724557903117</v>
+        <v>501.6662595434972</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.000234229018308226</v>
+        <v>-0.0001222383704278375</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>438.4898335944752</v>
+        <v>502.8329252633658</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.0002250850369490373</v>
+        <v>-0.00011697497558449</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>439.5072113986387</v>
+        <v>503.9995909832344</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.0002162980241488252</v>
+        <v>-0.0001119382143683628</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>440.5245892028022</v>
+        <v>505.166256703103</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.0002078540443416401</v>
+        <v>-0.0001071183282866593</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>441.5419670069658</v>
+        <v>506.3329224229716</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.0001997397059876891</v>
+        <v>-0.0001025059790319532</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>442.5593448111293</v>
+        <v>507.4995881428402</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.0001919421403340872</v>
+        <v>-9.809223039025368e-05</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>443.5767226152928</v>
+        <v>508.6662538627088</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.0001844489810068625</v>
+        <v>-9.386853092662655e-05</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>444.5941004194563</v>
+        <v>509.8329195825774</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.0001772483443982423</v>
+        <v>-8.982669741807626e-05</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>445.6114782236198</v>
+        <v>510.999585302446</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.0001703288108202505</v>
+        <v>-8.595889899814452e-05</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>446.6288560277833</v>
+        <v>512.1662510223146</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.0001636794063941675</v>
+        <v>-8.22576419858193e-05</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>447.6462338319469</v>
+        <v>513.3329167421832</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.0001572895856462667</v>
+        <v>-7.871575536599468e-05</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>448.6636116361104</v>
+        <v>514.4995824620518</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.0001511492147840474</v>
+        <v>-7.532637689642989e-05</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>449.6809894402739</v>
+        <v>515.6662481819204</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.0001452485556239897</v>
+        <v>-7.208293981251652e-05</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>450.6983672444374</v>
+        <v>516.832913901789</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.0001395782501482436</v>
+        <v>-6.897916010426697e-05</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>451.7157450486009</v>
+        <v>517.9995796216575</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.0001341293056634881</v>
+        <v>-6.600902434143629e-05</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>452.7331228527644</v>
+        <v>519.1662453415262</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.0001288930805383904</v>
+        <v>-6.31667780229037e-05</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>453.750500656928</v>
+        <v>520.3329110613947</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.0001238612704992842</v>
+        <v>-6.044691442729635e-05</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>454.7678784610915</v>
+        <v>521.4995767812634</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.0001190258954601297</v>
+        <v>-5.784416394408638e-05</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>455.7852562652549</v>
+        <v>522.6662425011319</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.0001143792868666192</v>
+        <v>-5.535348386428493e-05</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>456.8026340694184</v>
+        <v>523.8329082210006</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.0001099140755339289</v>
+        <v>-5.29700486097499e-05</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>457.820011873582</v>
+        <v>524.9995739408691</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.000105623179960681</v>
+        <v>-5.068924038451375e-05</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>458.8373896777455</v>
+        <v>526.1662396607378</v>
       </c>
       <c r="B453" t="n">
-        <v>-0.0001014997950973896</v>
+        <v>-4.850664022789719e-05</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>459.854767481909</v>
+        <v>527.3329053806063</v>
       </c>
       <c r="B454" t="n">
-        <v>-9.753738155428746e-05</v>
+        <v>-4.641801945227994e-05</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>460.8721452860725</v>
+        <v>528.4995711004749</v>
       </c>
       <c r="B455" t="n">
-        <v>-9.372965523073416e-05</v>
+        <v>-4.441933145139675e-05</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>461.889523090236</v>
+        <v>529.6662368203436</v>
       </c>
       <c r="B456" t="n">
-        <v>-9.00705773486488e-05</v>
+        <v>-4.250670385924608e-05</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>462.9069008943995</v>
+        <v>530.8329025402121</v>
       </c>
       <c r="B457" t="n">
-        <v>-8.655434487572745e-05</v>
+        <v>-4.067643104783525e-05</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>463.9242786985631</v>
+        <v>531.9995682600808</v>
       </c>
       <c r="B458" t="n">
-        <v>-8.317538132199376e-05</v>
+        <v>-3.89249669480244e-05</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>464.9416565027266</v>
+        <v>533.1662339799493</v>
       </c>
       <c r="B459" t="n">
-        <v>-7.992832789605595e-05</v>
+        <v>-3.724891817880272e-05</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>465.9590343068901</v>
+        <v>534.332899699818</v>
       </c>
       <c r="B460" t="n">
-        <v>-7.68080350065838e-05</v>
+        <v>-3.564503747279208e-05</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>466.9764121110536</v>
+        <v>535.4995654196865</v>
       </c>
       <c r="B461" t="n">
-        <v>-7.380955409501e-05</v>
+        <v>-3.411021738502447e-05</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>467.9937899152171</v>
+        <v>536.6662311395552</v>
       </c>
       <c r="B462" t="n">
-        <v>-7.092812978791602e-05</v>
+        <v>-3.264148427236012e-05</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>469.0111677193806</v>
+        <v>537.8328968594237</v>
       </c>
       <c r="B463" t="n">
-        <v>-6.815919235522972e-05</v>
+        <v>-3.12359925319845e-05</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>470.0285455235442</v>
+        <v>538.9995625792924</v>
       </c>
       <c r="B464" t="n">
-        <v>-6.549835046281742e-05</v>
+        <v>-2.989101908827808e-05</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>471.0459233277077</v>
+        <v>540.1662282991609</v>
       </c>
       <c r="B465" t="n">
-        <v>-6.294138420805328e-05</v>
+        <v>-2.86039581173535e-05</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>472.0633011318712</v>
+        <v>541.3328940190295</v>
       </c>
       <c r="B466" t="n">
-        <v>-6.048423842793048e-05</v>
+        <v>-2.73723159976976e-05</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>473.0806789360347</v>
+        <v>542.4995597388981</v>
       </c>
       <c r="B467" t="n">
-        <v>-5.812301626731527e-05</v>
+        <v>-2.619370647953167e-05</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>474.0980567401982</v>
+        <v>543.6662254587667</v>
       </c>
       <c r="B468" t="n">
-        <v>-5.585397299874964e-05</v>
+        <v>-2.506584606111337e-05</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>475.1154345443617</v>
+        <v>544.8328911786354</v>
       </c>
       <c r="B469" t="n">
-        <v>-5.367351008422734e-05</v>
+        <v>-2.398654956502177e-05</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>476.1328123485252</v>
+        <v>545.9995568985039</v>
       </c>
       <c r="B470" t="n">
-        <v>-5.157816946740283e-05</v>
+        <v>-2.295372590371967e-05</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>477.1501901526888</v>
+        <v>547.1662226183726</v>
       </c>
       <c r="B471" t="n">
-        <v>-4.956462809009494e-05</v>
+        <v>-2.196537402914744e-05</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>478.1675679568523</v>
+        <v>548.3328883382411</v>
       </c>
       <c r="B472" t="n">
-        <v>-4.762969262129975e-05</v>
+        <v>-2.101957905500031e-05</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>479.1849457610158</v>
+        <v>549.4995540581098</v>
       </c>
       <c r="B473" t="n">
-        <v>-4.577029439380177e-05</v>
+        <v>-2.01145085470856e-05</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>480.2023235651793</v>
+        <v>550.6662197779783</v>
       </c>
       <c r="B474" t="n">
-        <v>-4.398348453672087e-05</v>
+        <v>-1.924840897308835e-05</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>481.2197013693428</v>
+        <v>551.8328854978469</v>
       </c>
       <c r="B475" t="n">
-        <v>-4.226642929896126e-05</v>
+        <v>-1.841960230478643e-05</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>482.2370791735063</v>
+        <v>552.9995512177155</v>
       </c>
       <c r="B476" t="n">
-        <v>-4.061640555546019e-05</v>
+        <v>-1.762648276757665e-05</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>483.2544569776699</v>
+        <v>554.1662169375841</v>
       </c>
       <c r="B477" t="n">
-        <v>-3.903079648813352e-05</v>
+        <v>-1.686751372874705e-05</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>484.2718347818334</v>
+        <v>555.3328826574527</v>
       </c>
       <c r="B478" t="n">
-        <v>-3.750708743574826e-05</v>
+        <v>-1.61412247208555e-05</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>485.2892125859969</v>
+        <v>556.4995483773213</v>
       </c>
       <c r="B479" t="n">
-        <v>-3.604286190633821e-05</v>
+        <v>-1.54462085925066e-05</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>486.3065903901604</v>
+        <v>557.6662140971899</v>
       </c>
       <c r="B480" t="n">
-        <v>-3.463579774406007e-05</v>
+        <v>-1.478111878170904e-05</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>487.3239681943239</v>
+        <v>558.8328798170585</v>
       </c>
       <c r="B481" t="n">
-        <v>-3.328366344742085e-05</v>
+        <v>-1.414466670774557e-05</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>488.3413459984874</v>
+        <v>559.9995455369271</v>
       </c>
       <c r="B482" t="n">
-        <v>-3.198431462930082e-05</v>
+        <v>-1.353561927406122e-05</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>489.358723802651</v>
+        <v>561.1662112567957</v>
       </c>
       <c r="B483" t="n">
-        <v>-3.073569061643931e-05</v>
+        <v>-1.295279647917252e-05</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>490.3761016068145</v>
+        <v>562.3328769766644</v>
       </c>
       <c r="B484" t="n">
-        <v>-2.953581118187698e-05</v>
+        <v>-1.239506913099395e-05</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>491.393479410978</v>
+        <v>563.4995426965329</v>
       </c>
       <c r="B485" t="n">
-        <v>-2.838277340360205e-05</v>
+        <v>-1.186135665815834e-05</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>492.4108572151415</v>
+        <v>564.6662084164014</v>
       </c>
       <c r="B486" t="n">
-        <v>-2.727474864731381e-05</v>
+        <v>-1.135062501758184e-05</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>493.428235019305</v>
+        <v>565.8328741362701</v>
       </c>
       <c r="B487" t="n">
-        <v>-2.620997966605985e-05</v>
+        <v>-1.086188469024405e-05</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>494.4456128234685</v>
+        <v>566.9995398561387</v>
       </c>
       <c r="B488" t="n">
-        <v>-2.518677781330981e-05</v>
+        <v>-1.039418876400576e-05</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>495.4629906276321</v>
+        <v>568.1662055760073</v>
       </c>
       <c r="B489" t="n">
-        <v>-2.420352036516867e-05</v>
+        <v>-9.946631099824377e-06</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>496.4803684317956</v>
+        <v>569.3328712958759</v>
       </c>
       <c r="B490" t="n">
-        <v>-2.325864794657339e-05</v>
+        <v>-9.518344575264617e-06</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>497.4977462359591</v>
+        <v>570.4995370157445</v>
       </c>
       <c r="B491" t="n">
-        <v>-2.235066205828099e-05</v>
+        <v>-9.108499404983533e-06</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>498.5151240401226</v>
+        <v>571.6662027356131</v>
       </c>
       <c r="B492" t="n">
-        <v>-2.14781227003513e-05</v>
+        <v>-8.716301532622675e-06</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>499.5325018442861</v>
+        <v>572.8328684554817</v>
       </c>
       <c r="B493" t="n">
-        <v>-2.063964608880955e-05</v>
+        <v>-8.340991093036941e-06</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>500.5498796484496</v>
+        <v>573.9995341753503</v>
       </c>
       <c r="B494" t="n">
-        <v>-1.983390246033267e-05</v>
+        <v>-7.981840939507196e-06</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>501.5672574526131</v>
+        <v>575.1661998952188</v>
       </c>
       <c r="B495" t="n">
-        <v>-1.905961396409997e-05</v>
+        <v>-7.638155235080231e-06</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>502.5846352567767</v>
+        <v>576.3328656150875</v>
       </c>
       <c r="B496" t="n">
-        <v>-1.831555263442427e-05</v>
+        <v>-7.309268104717267e-06</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>503.6020130609402</v>
+        <v>577.499531334956</v>
       </c>
       <c r="B497" t="n">
-        <v>-1.760053844416345e-05</v>
+        <v>-6.994542344503993e-06</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>504.6193908651037</v>
+        <v>578.6661970548247</v>
       </c>
       <c r="B498" t="n">
-        <v>-1.691343743252875e-05</v>
+        <v>-6.693368188029229e-06</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>505.6367686692672</v>
+        <v>579.8328627746932</v>
       </c>
       <c r="B499" t="n">
-        <v>-1.625315990704397e-05</v>
+        <v>-6.40516212404402e-06</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>506.6541464734307</v>
+        <v>580.9995284945619</v>
       </c>
       <c r="B500" t="n">
-        <v>-1.561865871548176e-05</v>
+        <v>-6.129365766685872e-06</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>507.6715242775942</v>
+        <v>582.1661942144304</v>
       </c>
       <c r="B501" t="n">
-        <v>-1.500892758483054e-05</v>
+        <v>-5.865444773236439e-06</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>508.6889020817578</v>
+        <v>583.3328599342991</v>
       </c>
       <c r="B502" t="n">
-        <v>-1.442299952581878e-05</v>
+        <v>-5.612887808770306e-06</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>509.7062798859213</v>
+        <v>584.4995256541677</v>
       </c>
       <c r="B503" t="n">
-        <v>-1.385994529906815e-05</v>
+        <v>-5.371205555874893e-06</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>510.7236576900848</v>
+        <v>585.6661913740363</v>
       </c>
       <c r="B504" t="n">
-        <v>-1.331887194115682e-05</v>
+        <v>-5.139929766443889e-06</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>511.7410354942483</v>
+        <v>586.8328570939049</v>
       </c>
       <c r="B505" t="n">
-        <v>-1.279892134899693e-05</v>
+        <v>-4.918612354152461e-06</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>512.7584132984118</v>
+        <v>587.9995228137734</v>
       </c>
       <c r="B506" t="n">
-        <v>-1.229926891884326e-05</v>
+        <v>-4.706824526650723e-06</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>513.7757911025753</v>
+        <v>589.1661885336421</v>
       </c>
       <c r="B507" t="n">
-        <v>-1.181912223784596e-05</v>
+        <v>-4.504155955013142e-06</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>514.7931689067389</v>
+        <v>590.3328542535106</v>
       </c>
       <c r="B508" t="n">
-        <v>-1.135771982827027e-05</v>
+        <v>-4.31021397798158e-06</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>515.8105467109024</v>
+        <v>591.4995199733793</v>
       </c>
       <c r="B509" t="n">
-        <v>-1.091432993947242e-05</v>
+        <v>-4.124622842072526e-06</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>516.8279245150659</v>
+        <v>592.6661856932478</v>
       </c>
       <c r="B510" t="n">
-        <v>-1.048824938701795e-05</v>
+        <v>-3.947022972838006e-06</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>517.8453023192294</v>
+        <v>593.8328514131165</v>
       </c>
       <c r="B511" t="n">
-        <v>-1.007880243820583e-05</v>
+        <v>-3.777070278886029e-06</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>518.8626801233929</v>
+        <v>594.999517132985</v>
       </c>
       <c r="B512" t="n">
-        <v>-9.685339739701586e-06</v>
+        <v>-3.614435484592395e-06</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>519.8800579275564</v>
+        <v>596.1661828528537</v>
       </c>
       <c r="B513" t="n">
-        <v>-9.307237288138676e-06</v>
+        <v>-3.458803492574426e-06</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>520.89743573172</v>
+        <v>597.3328485727222</v>
       </c>
       <c r="B514" t="n">
-        <v>-8.943895440619138e-06</v>
+        <v>-3.309872772929035e-06</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>521.9148135358835</v>
+        <v>598.4995142925908</v>
       </c>
       <c r="B515" t="n">
-        <v>-8.594737963026298e-06</v>
+        <v>-3.167354779449225e-06</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>522.932191340047</v>
+        <v>599.6661800124594</v>
       </c>
       <c r="B516" t="n">
-        <v>-8.259211117254548e-06</v>
+        <v>-3.030973389928489e-06</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>523.9495691442105</v>
+        <v>600.832845732328</v>
       </c>
       <c r="B517" t="n">
-        <v>-7.93678278170889e-06</v>
+        <v>-2.900464371730734e-06</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>524.966946948374</v>
+        <v>601.9995114521967</v>
       </c>
       <c r="B518" t="n">
-        <v>-7.626941608634472e-06</v>
+        <v>-2.775574869628125e-06</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>525.9843247525375</v>
+        <v>603.1661771720652</v>
       </c>
       <c r="B519" t="n">
-        <v>-7.329196212260571e-06</v>
+        <v>-2.656062916013899e-06</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>527.001702556701</v>
+        <v>604.3328428919339</v>
       </c>
       <c r="B520" t="n">
-        <v>-7.043074389968803e-06</v>
+        <v>-2.541696961991369e-06</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>528.0190803608646</v>
+        <v>605.4995086118024</v>
       </c>
       <c r="B521" t="n">
-        <v>-6.76812237341641e-06</v>
+        <v>-2.432255428696741e-06</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>529.0364581650281</v>
+        <v>606.6661743316711</v>
       </c>
       <c r="B522" t="n">
-        <v>-6.503904108509705e-06</v>
+        <v>-2.327526278320488e-06</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>530.0538359691916</v>
+        <v>607.8328400515396</v>
       </c>
       <c r="B523" t="n">
-        <v>-6.25000056410493e-06</v>
+        <v>-2.227306602900238e-06</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>531.0712137733551</v>
+        <v>608.9995057714082</v>
       </c>
       <c r="B524" t="n">
-        <v>-6.006009067840541e-06</v>
+        <v>-2.131402231420447e-06</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>532.0885915775186</v>
+        <v>610.1661714912768</v>
       </c>
       <c r="B525" t="n">
-        <v>-5.771542666768364e-06</v>
+        <v>-2.039627353505974e-06</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>533.1059693816821</v>
+        <v>611.3328372111454</v>
       </c>
       <c r="B526" t="n">
-        <v>-5.546229514134057e-06</v>
+        <v>-1.951804159709523e-06</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>534.1233471858457</v>
+        <v>612.499502931014</v>
       </c>
       <c r="B527" t="n">
-        <v>-5.329712279606e-06</v>
+        <v>-1.867762496573002e-06</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>535.1407249900092</v>
+        <v>613.6661686508826</v>
       </c>
       <c r="B528" t="n">
-        <v>-5.121647582461555e-06</v>
+        <v>-1.787339537319247e-06</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>536.1581027941727</v>
+        <v>614.8328343707512</v>
       </c>
       <c r="B529" t="n">
-        <v>-4.921705447362402e-06</v>
+        <v>-1.710379466032963e-06</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>537.1754805983362</v>
+        <v>615.9995000906198</v>
       </c>
       <c r="B530" t="n">
-        <v>-4.729568780509127e-06</v>
+        <v>-1.636733176080293e-06</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>538.1928584024997</v>
+        <v>617.1661658104885</v>
       </c>
       <c r="B531" t="n">
-        <v>-4.544932867034463e-06</v>
+        <v>-1.566257981375261e-06</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>539.2102362066632</v>
+        <v>618.332831530357</v>
       </c>
       <c r="B532" t="n">
-        <v>-4.367504887670887e-06</v>
+        <v>-1.498817339315456e-06</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>540.2276140108268</v>
+        <v>619.4994972502257</v>
       </c>
       <c r="B533" t="n">
-        <v>-4.197003454692588e-06</v>
+        <v>-1.434280586885776e-06</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>541.2449918149903</v>
+        <v>620.6661629700942</v>
       </c>
       <c r="B534" t="n">
-        <v>-4.033158165044769e-06</v>
+        <v>-1.372522687039665e-06</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>542.2623696191538</v>
+        <v>621.8328286899628</v>
       </c>
       <c r="B535" t="n">
-        <v>-3.875709171887953e-06</v>
+        <v>-1.313423986535485e-06</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>543.2797474233173</v>
+        <v>622.9994944098314</v>
       </c>
       <c r="B536" t="n">
-        <v>-3.724406772838557e-06</v>
+        <v>-1.256869984585673e-06</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>544.2971252274808</v>
+        <v>624.1661601297</v>
       </c>
       <c r="B537" t="n">
-        <v>-3.57901101294146e-06</v>
+        <v>-1.202751110391659e-06</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>545.3145030316443</v>
+        <v>625.3328258495686</v>
       </c>
       <c r="B538" t="n">
-        <v>-3.439291305075445e-06</v>
+        <v>-1.150962511063342e-06</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>546.3318808358079</v>
+        <v>626.4994915694372</v>
       </c>
       <c r="B539" t="n">
-        <v>-3.305026064231277e-06</v>
+        <v>-1.101403848531374e-06</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>547.3492586399714</v>
+        <v>627.6661572893058</v>
       </c>
       <c r="B540" t="n">
-        <v>-3.176002355048577e-06</v>
+        <v>-1.053979105238152e-06</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>548.3666364441349</v>
+        <v>628.8328230091744</v>
       </c>
       <c r="B541" t="n">
-        <v>-3.052015555557899e-06</v>
+        <v>-1.008596397965159e-06</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>549.3840142482984</v>
+        <v>629.999488729043</v>
       </c>
       <c r="B542" t="n">
-        <v>-2.932869031603509e-06</v>
+        <v>-9.651677996896028e-07</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>550.4013920524619</v>
+        <v>631.1661544489116</v>
       </c>
       <c r="B543" t="n">
-        <v>-2.818373825384328e-06</v>
+        <v>-9.23609169577418e-07</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>551.4187698566254</v>
+        <v>632.3328201687801</v>
       </c>
       <c r="B544" t="n">
-        <v>-2.70834835578048e-06</v>
+        <v>-8.838399897208667e-07</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>552.4361476607889</v>
+        <v>633.4994858886488</v>
       </c>
       <c r="B545" t="n">
-        <v>-2.60261813046544e-06</v>
+        <v>-8.457832091560456e-07</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>553.4535254649525</v>
+        <v>634.6661516085173</v>
       </c>
       <c r="B546" t="n">
-        <v>-2.501015468944412e-06</v>
+        <v>-8.093650945179412e-07</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>554.470903269116</v>
+        <v>635.832817328386</v>
       </c>
       <c r="B547" t="n">
-        <v>-2.403379236764482e-06</v>
+        <v>-7.745150875471545e-07</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>555.4882810732795</v>
+        <v>636.9994830482545</v>
       </c>
       <c r="B548" t="n">
-        <v>-2.309554589791629e-06</v>
+        <v>-7.411656678424331e-07</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>556.505658877443</v>
+        <v>638.1661487681232</v>
       </c>
       <c r="B549" t="n">
-        <v>-2.219392729168445e-06</v>
+        <v>-7.092522224648711e-07</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>557.5230366816065</v>
+        <v>639.3328144879918</v>
       </c>
       <c r="B550" t="n">
-        <v>-2.132750664497218e-06</v>
+        <v>-6.7871292068086e-07</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>558.54041448577</v>
+        <v>640.4994802078604</v>
       </c>
       <c r="B551" t="n">
-        <v>-2.049490987826484e-06</v>
+        <v>-6.4948859384379e-07</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>559.5577922899336</v>
+        <v>641.666145927729</v>
       </c>
       <c r="B552" t="n">
-        <v>-1.969481655494642e-06</v>
+        <v>-6.215226212709602e-07</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>560.5751700940971</v>
+        <v>642.8328116475976</v>
       </c>
       <c r="B553" t="n">
-        <v>-1.892595778198945e-06</v>
+        <v>-5.947608201886678e-07</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>561.5925478982606</v>
+        <v>643.9994773674662</v>
       </c>
       <c r="B554" t="n">
-        <v>-1.818711420763049e-06</v>
+        <v>-5.691513407089891e-07</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>562.6099257024241</v>
+        <v>645.1661430873347</v>
       </c>
       <c r="B555" t="n">
-        <v>-1.747711407797367e-06</v>
+        <v>-5.446445657311974e-07</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>563.6273035065876</v>
+        <v>646.3328088072034</v>
       </c>
       <c r="B556" t="n">
-        <v>-1.679483138566927e-06</v>
+        <v>-5.211930145901869e-07</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>564.6446813107511</v>
+        <v>647.4994745270719</v>
       </c>
       <c r="B557" t="n">
-        <v>-1.613918407874785e-06</v>
+        <v>-4.987512508801312e-07</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>565.6620591149147</v>
+        <v>648.6661402469406</v>
       </c>
       <c r="B558" t="n">
-        <v>-1.550913234802523e-06</v>
+        <v>-4.772757947745485e-07</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>566.6794369190782</v>
+        <v>649.8328059668091</v>
       </c>
       <c r="B559" t="n">
-        <v>-1.490367697711829e-06</v>
+        <v>-4.567250384510293e-07</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>567.6968147232417</v>
+        <v>650.9994716866778</v>
       </c>
       <c r="B560" t="n">
-        <v>-1.432185775875494e-06</v>
+        <v>-4.370591659053133e-07</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>568.7141925274052</v>
+        <v>652.1661374065463</v>
       </c>
       <c r="B561" t="n">
-        <v>-1.376275196755661e-06</v>
+        <v>-4.182400754417989e-07</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>569.7315703315687</v>
+        <v>653.332803126415</v>
       </c>
       <c r="B562" t="n">
-        <v>-1.322547290525321e-06</v>
+        <v>-4.002313058040015e-07</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>570.7489481357322</v>
+        <v>654.4994688462835</v>
       </c>
       <c r="B563" t="n">
-        <v>-1.270916848395566e-06</v>
+        <v>-3.829979658379024e-07</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>571.7663259398958</v>
+        <v>655.6661345661521</v>
       </c>
       <c r="B564" t="n">
-        <v>-1.221301988308849e-06</v>
+        <v>-3.665066668317311e-07</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>572.7837037440593</v>
+        <v>656.8328002860208</v>
       </c>
       <c r="B565" t="n">
-        <v>-1.17362402468354e-06</v>
+        <v>-3.507254575321798e-07</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>573.8010815482228</v>
+        <v>657.9994660058893</v>
       </c>
       <c r="B566" t="n">
-        <v>-1.127807343682987e-06</v>
+        <v>-3.356237628005662e-07</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>574.8184593523863</v>
+        <v>659.166131725758</v>
       </c>
       <c r="B567" t="n">
-        <v>-1.083779283518003e-06</v>
+        <v>-3.211723235536843e-07</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>575.8358371565498</v>
+        <v>660.3327974456265</v>
       </c>
       <c r="B568" t="n">
-        <v>-1.041470018677896e-06</v>
+        <v>-3.073431408798903e-07</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>576.8532149607133</v>
+        <v>661.4994631654952</v>
       </c>
       <c r="B569" t="n">
-        <v>-1.00081244980876e-06</v>
+        <v>-2.941094214398755e-07</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>577.8705927648768</v>
+        <v>662.6661288853637</v>
       </c>
       <c r="B570" t="n">
-        <v>-9.617420970292338e-07</v>
+        <v>-2.814455253297584e-07</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>578.8879705690404</v>
+        <v>663.8327946052324</v>
       </c>
       <c r="B571" t="n">
-        <v>-9.241969974203272e-07</v>
+        <v>-2.693269171558948e-07</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>579.9053483732039</v>
+        <v>664.9994603251009</v>
       </c>
       <c r="B572" t="n">
-        <v>-8.881176074259155e-07</v>
+        <v>-2.577301173238031e-07</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>580.9227261773674</v>
+        <v>666.1661260449696</v>
       </c>
       <c r="B573" t="n">
-        <v>-8.534467074630323e-07</v>
+        <v>-2.46632657823497e-07</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>581.9401039815309</v>
+        <v>667.3327917648381</v>
       </c>
       <c r="B574" t="n">
-        <v>-8.201293123021967e-07</v>
+        <v>-2.36013037693645e-07</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>582.9574817856944</v>
+        <v>668.4994574847067</v>
       </c>
       <c r="B575" t="n">
-        <v>-7.881125826754076e-07</v>
+        <v>-2.258506819115649e-07</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>583.9748595898579</v>
+        <v>669.6661232045753</v>
       </c>
       <c r="B576" t="n">
-        <v>-7.573457425314042e-07</v>
+        <v>-2.161259014608483e-07</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>584.9922373940215</v>
+        <v>670.8327889244439</v>
       </c>
       <c r="B577" t="n">
-        <v>-7.277799977641278e-07</v>
+        <v>-2.068198550048444e-07</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>586.009615198185</v>
+        <v>671.9994546443126</v>
       </c>
       <c r="B578" t="n">
-        <v>-6.993684594835492e-07</v>
+        <v>-1.979145124871758e-07</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>587.0269930023485</v>
+        <v>673.1661203641811</v>
       </c>
       <c r="B579" t="n">
-        <v>-6.720660688824642e-07</v>
+        <v>-1.893926202310562e-07</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>588.044370806512</v>
+        <v>674.3327860840498</v>
       </c>
       <c r="B580" t="n">
-        <v>-6.45829526277355e-07</v>
+        <v>-1.812376674303534e-07</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>589.0617486106755</v>
+        <v>675.4994518039183</v>
       </c>
       <c r="B581" t="n">
-        <v>-6.206172226045858e-07</v>
+        <v>-1.734338542465117e-07</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>590.079126414839</v>
+        <v>676.666117523787</v>
       </c>
       <c r="B582" t="n">
-        <v>-5.963891727580981e-07</v>
+        <v>-1.659660611901621e-07</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>591.0965042190026</v>
+        <v>677.8327832436555</v>
       </c>
       <c r="B583" t="n">
-        <v>-5.731069529784065e-07</v>
+        <v>-1.588198196803629e-07</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>592.1138820231661</v>
+        <v>678.9994489635241</v>
       </c>
       <c r="B584" t="n">
-        <v>-5.507336393464943e-07</v>
+        <v>-1.519812843167571e-07</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>593.1312598273296</v>
+        <v>680.1661146833927</v>
       </c>
       <c r="B585" t="n">
-        <v>-5.292337493468768e-07</v>
+        <v>-1.454372056870164e-07</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>594.1486376314931</v>
+        <v>681.3327804032613</v>
       </c>
       <c r="B586" t="n">
-        <v>-5.085731857632299e-07</v>
+        <v>-1.391749049942593e-07</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>595.1660154356566</v>
+        <v>682.4994461231299</v>
       </c>
       <c r="B587" t="n">
-        <v>-4.887191822927537e-07</v>
+        <v>-1.331822492197561e-07</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>596.1833932398201</v>
+        <v>683.6661118429985</v>
       </c>
       <c r="B588" t="n">
-        <v>-4.696402521069359e-07</v>
+        <v>-1.274476278914931e-07</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>597.2007710439837</v>
+        <v>684.8327775628671</v>
       </c>
       <c r="B589" t="n">
-        <v>-4.513061372716806e-07</v>
+        <v>-1.219599304950808e-07</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>598.2181488481472</v>
+        <v>685.9994432827357</v>
       </c>
       <c r="B590" t="n">
-        <v>-4.336877613593729e-07</v>
+        <v>-1.167085248481779e-07</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>599.2355266523107</v>
+        <v>687.1661090026043</v>
       </c>
       <c r="B591" t="n">
-        <v>-4.167571826747752e-07</v>
+        <v>-1.116832365454882e-07</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>600.2529044564742</v>
+        <v>688.3327747224729</v>
       </c>
       <c r="B592" t="n">
-        <v>-4.00487550795624e-07</v>
+        <v>-1.068743294743309e-07</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>601.2702822606377</v>
+        <v>689.4994404423414</v>
       </c>
       <c r="B593" t="n">
-        <v>-3.848530631132276e-07</v>
+        <v>-1.022724864372681e-07</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>602.2876600648012</v>
+        <v>690.6661061622101</v>
       </c>
       <c r="B594" t="n">
-        <v>-3.698289245649959e-07</v>
+        <v>-9.786879159470593e-08</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>603.3050378689647</v>
+        <v>691.8327718820786</v>
       </c>
       <c r="B595" t="n">
-        <v>-3.553913078580385e-07</v>
+        <v>-9.365471301455412e-08</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>604.3224156731283</v>
+        <v>692.9994376019473</v>
       </c>
       <c r="B596" t="n">
-        <v>-3.415173159025614e-07</v>
+        <v>-8.962208618540027e-08</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>605.3397934772918</v>
+        <v>694.1661033218159</v>
       </c>
       <c r="B597" t="n">
-        <v>-3.281849458412316e-07</v>
+        <v>-8.576309806497125e-08</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>606.3571712814553</v>
+        <v>695.3327690416845</v>
       </c>
       <c r="B598" t="n">
-        <v>-3.153730532013082e-07</v>
+        <v>-8.207027187799561e-08</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>607.3745490856188</v>
+        <v>696.4994347615531</v>
       </c>
       <c r="B599" t="n">
-        <v>-3.030613193614729e-07</v>
+        <v>-7.853645319875359e-08</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>608.3919268897823</v>
+        <v>697.6661004814217</v>
       </c>
       <c r="B600" t="n">
-        <v>-2.91230218895895e-07</v>
+        <v>-7.515479517716876e-08</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>609.4093046939458</v>
+        <v>698.8327662012903</v>
       </c>
       <c r="B601" t="n">
-        <v>-2.798609883914957e-07</v>
+        <v>-7.191874612016041e-08</v>
       </c>
     </row>
   </sheetData>
